--- a/baseDesign/基本設計/04.取り決め事項.xlsx
+++ b/baseDesign/基本設計/04.取り決め事項.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qijinghong/Documents/tenji-sys/baseDesign/基本設計/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E82103B-7F9E-EC45-AC62-FB9E1B9E2324}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A69A97-60BE-3345-BB6C-6CFC3BC74D5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" activeTab="2" xr2:uid="{EBFC2604-2B44-CE4C-B4BA-9F8F373039EC}"/>
+    <workbookView xWindow="6720" yWindow="460" windowWidth="28800" windowHeight="17460" activeTab="2" xr2:uid="{EBFC2604-2B44-CE4C-B4BA-9F8F373039EC}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="140">
   <si>
     <t>営業フローシステム化</t>
     <rPh sb="0" eb="1">
@@ -1096,26 +1096,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>営業中止</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">エイギョウ </t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t xml:space="preserve">チュウ </t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>営業完了</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">エイギョウ </t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t xml:space="preserve">カンリョウ </t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>作業形態</t>
     <rPh sb="0" eb="2">
       <t xml:space="preserve">サギョウ </t>
@@ -1143,6 +1123,99 @@
     <t>自社</t>
     <rPh sb="0" eb="2">
       <t xml:space="preserve">ジシャ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>精算パータン</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>精算時間</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">セイサン </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">ジカン </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>固定</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">コテイ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>時給</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ジキュウ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>BP区分</t>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">クブン </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>提案待ち</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">テイアンマチ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>提案中</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">テイアンチュウ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>中止</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">チュウシ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>完了</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カンリョウ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>協力会社</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">キョウリョク </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">カイシャ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>会社</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カイシャ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>個人事業主</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">コジン </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">ジギョウシャ </t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t xml:space="preserve">シュジン </t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -2030,6 +2103,15 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2080,15 +2162,6 @@
     </xf>
     <xf numFmtId="14" fontId="2" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="4" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="4" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="4" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -8482,8 +8555,8 @@
   <dimension ref="B2:CE83"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AL60" sqref="AL60:CE60"/>
+      <pane ySplit="5" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Y73" sqref="Y73:AK73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="1.85546875" defaultRowHeight="17" customHeight="1"/>
@@ -8817,1058 +8890,1058 @@
       <c r="V5" s="121"/>
       <c r="W5" s="121"/>
       <c r="X5" s="121"/>
-      <c r="Y5" s="155" t="s">
+      <c r="Y5" s="138" t="s">
         <v>37</v>
       </c>
-      <c r="Z5" s="155"/>
-      <c r="AA5" s="155"/>
-      <c r="AB5" s="155"/>
-      <c r="AC5" s="155"/>
-      <c r="AD5" s="155"/>
-      <c r="AE5" s="155"/>
-      <c r="AF5" s="155"/>
-      <c r="AG5" s="155"/>
-      <c r="AH5" s="155"/>
-      <c r="AI5" s="155"/>
-      <c r="AJ5" s="155"/>
-      <c r="AK5" s="155"/>
-      <c r="AL5" s="153" t="s">
+      <c r="Z5" s="138"/>
+      <c r="AA5" s="138"/>
+      <c r="AB5" s="138"/>
+      <c r="AC5" s="138"/>
+      <c r="AD5" s="138"/>
+      <c r="AE5" s="138"/>
+      <c r="AF5" s="138"/>
+      <c r="AG5" s="138"/>
+      <c r="AH5" s="138"/>
+      <c r="AI5" s="138"/>
+      <c r="AJ5" s="138"/>
+      <c r="AK5" s="138"/>
+      <c r="AL5" s="136" t="s">
         <v>38</v>
       </c>
-      <c r="AM5" s="153"/>
-      <c r="AN5" s="153"/>
-      <c r="AO5" s="153"/>
-      <c r="AP5" s="153"/>
-      <c r="AQ5" s="153"/>
-      <c r="AR5" s="153"/>
-      <c r="AS5" s="153"/>
-      <c r="AT5" s="153"/>
-      <c r="AU5" s="153"/>
-      <c r="AV5" s="153"/>
-      <c r="AW5" s="153"/>
-      <c r="AX5" s="153"/>
-      <c r="AY5" s="153"/>
-      <c r="AZ5" s="153"/>
-      <c r="BA5" s="153"/>
-      <c r="BB5" s="153"/>
-      <c r="BC5" s="153"/>
-      <c r="BD5" s="153"/>
-      <c r="BE5" s="153"/>
-      <c r="BF5" s="153"/>
-      <c r="BG5" s="153"/>
-      <c r="BH5" s="153"/>
-      <c r="BI5" s="153"/>
-      <c r="BJ5" s="153"/>
-      <c r="BK5" s="153"/>
-      <c r="BL5" s="153"/>
-      <c r="BM5" s="153"/>
-      <c r="BN5" s="153"/>
-      <c r="BO5" s="153"/>
-      <c r="BP5" s="153"/>
-      <c r="BQ5" s="153"/>
-      <c r="BR5" s="153"/>
-      <c r="BS5" s="153"/>
-      <c r="BT5" s="153"/>
-      <c r="BU5" s="153"/>
-      <c r="BV5" s="153"/>
-      <c r="BW5" s="153"/>
-      <c r="BX5" s="153"/>
-      <c r="BY5" s="153"/>
-      <c r="BZ5" s="153"/>
-      <c r="CA5" s="153"/>
-      <c r="CB5" s="153"/>
-      <c r="CC5" s="153"/>
-      <c r="CD5" s="153"/>
-      <c r="CE5" s="154"/>
+      <c r="AM5" s="136"/>
+      <c r="AN5" s="136"/>
+      <c r="AO5" s="136"/>
+      <c r="AP5" s="136"/>
+      <c r="AQ5" s="136"/>
+      <c r="AR5" s="136"/>
+      <c r="AS5" s="136"/>
+      <c r="AT5" s="136"/>
+      <c r="AU5" s="136"/>
+      <c r="AV5" s="136"/>
+      <c r="AW5" s="136"/>
+      <c r="AX5" s="136"/>
+      <c r="AY5" s="136"/>
+      <c r="AZ5" s="136"/>
+      <c r="BA5" s="136"/>
+      <c r="BB5" s="136"/>
+      <c r="BC5" s="136"/>
+      <c r="BD5" s="136"/>
+      <c r="BE5" s="136"/>
+      <c r="BF5" s="136"/>
+      <c r="BG5" s="136"/>
+      <c r="BH5" s="136"/>
+      <c r="BI5" s="136"/>
+      <c r="BJ5" s="136"/>
+      <c r="BK5" s="136"/>
+      <c r="BL5" s="136"/>
+      <c r="BM5" s="136"/>
+      <c r="BN5" s="136"/>
+      <c r="BO5" s="136"/>
+      <c r="BP5" s="136"/>
+      <c r="BQ5" s="136"/>
+      <c r="BR5" s="136"/>
+      <c r="BS5" s="136"/>
+      <c r="BT5" s="136"/>
+      <c r="BU5" s="136"/>
+      <c r="BV5" s="136"/>
+      <c r="BW5" s="136"/>
+      <c r="BX5" s="136"/>
+      <c r="BY5" s="136"/>
+      <c r="BZ5" s="136"/>
+      <c r="CA5" s="136"/>
+      <c r="CB5" s="136"/>
+      <c r="CC5" s="136"/>
+      <c r="CD5" s="136"/>
+      <c r="CE5" s="137"/>
     </row>
     <row r="6" spans="2:83" s="42" customFormat="1" ht="17" customHeight="1">
-      <c r="B6" s="139">
+      <c r="B6" s="142">
         <v>1</v>
       </c>
-      <c r="C6" s="140"/>
-      <c r="D6" s="147" t="s">
+      <c r="C6" s="143"/>
+      <c r="D6" s="150" t="s">
         <v>77</v>
       </c>
-      <c r="E6" s="148"/>
-      <c r="F6" s="148"/>
-      <c r="G6" s="148"/>
-      <c r="H6" s="148"/>
-      <c r="I6" s="148"/>
-      <c r="J6" s="148"/>
-      <c r="K6" s="148"/>
-      <c r="L6" s="148"/>
-      <c r="M6" s="149"/>
-      <c r="N6" s="144"/>
-      <c r="O6" s="145"/>
-      <c r="P6" s="145"/>
-      <c r="Q6" s="145"/>
-      <c r="R6" s="145"/>
-      <c r="S6" s="145"/>
-      <c r="T6" s="145"/>
-      <c r="U6" s="145"/>
-      <c r="V6" s="145"/>
-      <c r="W6" s="145"/>
-      <c r="X6" s="146"/>
-      <c r="Y6" s="144" t="s">
+      <c r="E6" s="151"/>
+      <c r="F6" s="151"/>
+      <c r="G6" s="151"/>
+      <c r="H6" s="151"/>
+      <c r="I6" s="151"/>
+      <c r="J6" s="151"/>
+      <c r="K6" s="151"/>
+      <c r="L6" s="151"/>
+      <c r="M6" s="152"/>
+      <c r="N6" s="147"/>
+      <c r="O6" s="148"/>
+      <c r="P6" s="148"/>
+      <c r="Q6" s="148"/>
+      <c r="R6" s="148"/>
+      <c r="S6" s="148"/>
+      <c r="T6" s="148"/>
+      <c r="U6" s="148"/>
+      <c r="V6" s="148"/>
+      <c r="W6" s="148"/>
+      <c r="X6" s="149"/>
+      <c r="Y6" s="147" t="s">
         <v>39</v>
       </c>
-      <c r="Z6" s="145"/>
-      <c r="AA6" s="145"/>
-      <c r="AB6" s="145"/>
-      <c r="AC6" s="145"/>
-      <c r="AD6" s="145"/>
-      <c r="AE6" s="145"/>
-      <c r="AF6" s="145"/>
-      <c r="AG6" s="145"/>
-      <c r="AH6" s="145"/>
-      <c r="AI6" s="145"/>
-      <c r="AJ6" s="145"/>
-      <c r="AK6" s="146"/>
-      <c r="AL6" s="136"/>
-      <c r="AM6" s="137"/>
-      <c r="AN6" s="137"/>
-      <c r="AO6" s="137"/>
-      <c r="AP6" s="137"/>
-      <c r="AQ6" s="137"/>
-      <c r="AR6" s="137"/>
-      <c r="AS6" s="137"/>
-      <c r="AT6" s="137"/>
-      <c r="AU6" s="137"/>
-      <c r="AV6" s="137"/>
-      <c r="AW6" s="137"/>
-      <c r="AX6" s="137"/>
-      <c r="AY6" s="137"/>
-      <c r="AZ6" s="137"/>
-      <c r="BA6" s="137"/>
-      <c r="BB6" s="137"/>
-      <c r="BC6" s="137"/>
-      <c r="BD6" s="137"/>
-      <c r="BE6" s="137"/>
-      <c r="BF6" s="137"/>
-      <c r="BG6" s="137"/>
-      <c r="BH6" s="137"/>
-      <c r="BI6" s="137"/>
-      <c r="BJ6" s="137"/>
-      <c r="BK6" s="137"/>
-      <c r="BL6" s="137"/>
-      <c r="BM6" s="137"/>
-      <c r="BN6" s="137"/>
-      <c r="BO6" s="137"/>
-      <c r="BP6" s="137"/>
-      <c r="BQ6" s="137"/>
-      <c r="BR6" s="137"/>
-      <c r="BS6" s="137"/>
-      <c r="BT6" s="137"/>
-      <c r="BU6" s="137"/>
-      <c r="BV6" s="137"/>
-      <c r="BW6" s="137"/>
-      <c r="BX6" s="137"/>
-      <c r="BY6" s="137"/>
-      <c r="BZ6" s="137"/>
-      <c r="CA6" s="137"/>
-      <c r="CB6" s="137"/>
-      <c r="CC6" s="137"/>
-      <c r="CD6" s="137"/>
-      <c r="CE6" s="138"/>
+      <c r="Z6" s="148"/>
+      <c r="AA6" s="148"/>
+      <c r="AB6" s="148"/>
+      <c r="AC6" s="148"/>
+      <c r="AD6" s="148"/>
+      <c r="AE6" s="148"/>
+      <c r="AF6" s="148"/>
+      <c r="AG6" s="148"/>
+      <c r="AH6" s="148"/>
+      <c r="AI6" s="148"/>
+      <c r="AJ6" s="148"/>
+      <c r="AK6" s="149"/>
+      <c r="AL6" s="139"/>
+      <c r="AM6" s="140"/>
+      <c r="AN6" s="140"/>
+      <c r="AO6" s="140"/>
+      <c r="AP6" s="140"/>
+      <c r="AQ6" s="140"/>
+      <c r="AR6" s="140"/>
+      <c r="AS6" s="140"/>
+      <c r="AT6" s="140"/>
+      <c r="AU6" s="140"/>
+      <c r="AV6" s="140"/>
+      <c r="AW6" s="140"/>
+      <c r="AX6" s="140"/>
+      <c r="AY6" s="140"/>
+      <c r="AZ6" s="140"/>
+      <c r="BA6" s="140"/>
+      <c r="BB6" s="140"/>
+      <c r="BC6" s="140"/>
+      <c r="BD6" s="140"/>
+      <c r="BE6" s="140"/>
+      <c r="BF6" s="140"/>
+      <c r="BG6" s="140"/>
+      <c r="BH6" s="140"/>
+      <c r="BI6" s="140"/>
+      <c r="BJ6" s="140"/>
+      <c r="BK6" s="140"/>
+      <c r="BL6" s="140"/>
+      <c r="BM6" s="140"/>
+      <c r="BN6" s="140"/>
+      <c r="BO6" s="140"/>
+      <c r="BP6" s="140"/>
+      <c r="BQ6" s="140"/>
+      <c r="BR6" s="140"/>
+      <c r="BS6" s="140"/>
+      <c r="BT6" s="140"/>
+      <c r="BU6" s="140"/>
+      <c r="BV6" s="140"/>
+      <c r="BW6" s="140"/>
+      <c r="BX6" s="140"/>
+      <c r="BY6" s="140"/>
+      <c r="BZ6" s="140"/>
+      <c r="CA6" s="140"/>
+      <c r="CB6" s="140"/>
+      <c r="CC6" s="140"/>
+      <c r="CD6" s="140"/>
+      <c r="CE6" s="141"/>
     </row>
     <row r="7" spans="2:83" s="42" customFormat="1" ht="17" customHeight="1">
-      <c r="B7" s="139">
+      <c r="B7" s="142">
         <f>B6+1</f>
         <v>2</v>
       </c>
-      <c r="C7" s="140"/>
-      <c r="D7" s="150"/>
-      <c r="E7" s="151"/>
-      <c r="F7" s="151"/>
-      <c r="G7" s="151"/>
-      <c r="H7" s="151"/>
-      <c r="I7" s="151"/>
-      <c r="J7" s="151"/>
-      <c r="K7" s="151"/>
-      <c r="L7" s="151"/>
-      <c r="M7" s="152"/>
-      <c r="N7" s="144"/>
-      <c r="O7" s="145"/>
-      <c r="P7" s="145"/>
-      <c r="Q7" s="145"/>
-      <c r="R7" s="145"/>
-      <c r="S7" s="145"/>
-      <c r="T7" s="145"/>
-      <c r="U7" s="145"/>
-      <c r="V7" s="145"/>
-      <c r="W7" s="145"/>
-      <c r="X7" s="146"/>
-      <c r="Y7" s="144" t="s">
+      <c r="C7" s="143"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="154"/>
+      <c r="F7" s="154"/>
+      <c r="G7" s="154"/>
+      <c r="H7" s="154"/>
+      <c r="I7" s="154"/>
+      <c r="J7" s="154"/>
+      <c r="K7" s="154"/>
+      <c r="L7" s="154"/>
+      <c r="M7" s="155"/>
+      <c r="N7" s="147"/>
+      <c r="O7" s="148"/>
+      <c r="P7" s="148"/>
+      <c r="Q7" s="148"/>
+      <c r="R7" s="148"/>
+      <c r="S7" s="148"/>
+      <c r="T7" s="148"/>
+      <c r="U7" s="148"/>
+      <c r="V7" s="148"/>
+      <c r="W7" s="148"/>
+      <c r="X7" s="149"/>
+      <c r="Y7" s="147" t="s">
         <v>40</v>
       </c>
-      <c r="Z7" s="145"/>
-      <c r="AA7" s="145"/>
-      <c r="AB7" s="145"/>
-      <c r="AC7" s="145"/>
-      <c r="AD7" s="145"/>
-      <c r="AE7" s="145"/>
-      <c r="AF7" s="145"/>
-      <c r="AG7" s="145"/>
-      <c r="AH7" s="145"/>
-      <c r="AI7" s="145"/>
-      <c r="AJ7" s="145"/>
-      <c r="AK7" s="146"/>
-      <c r="AL7" s="136"/>
-      <c r="AM7" s="137"/>
-      <c r="AN7" s="137"/>
-      <c r="AO7" s="137"/>
-      <c r="AP7" s="137"/>
-      <c r="AQ7" s="137"/>
-      <c r="AR7" s="137"/>
-      <c r="AS7" s="137"/>
-      <c r="AT7" s="137"/>
-      <c r="AU7" s="137"/>
-      <c r="AV7" s="137"/>
-      <c r="AW7" s="137"/>
-      <c r="AX7" s="137"/>
-      <c r="AY7" s="137"/>
-      <c r="AZ7" s="137"/>
-      <c r="BA7" s="137"/>
-      <c r="BB7" s="137"/>
-      <c r="BC7" s="137"/>
-      <c r="BD7" s="137"/>
-      <c r="BE7" s="137"/>
-      <c r="BF7" s="137"/>
-      <c r="BG7" s="137"/>
-      <c r="BH7" s="137"/>
-      <c r="BI7" s="137"/>
-      <c r="BJ7" s="137"/>
-      <c r="BK7" s="137"/>
-      <c r="BL7" s="137"/>
-      <c r="BM7" s="137"/>
-      <c r="BN7" s="137"/>
-      <c r="BO7" s="137"/>
-      <c r="BP7" s="137"/>
-      <c r="BQ7" s="137"/>
-      <c r="BR7" s="137"/>
-      <c r="BS7" s="137"/>
-      <c r="BT7" s="137"/>
-      <c r="BU7" s="137"/>
-      <c r="BV7" s="137"/>
-      <c r="BW7" s="137"/>
-      <c r="BX7" s="137"/>
-      <c r="BY7" s="137"/>
-      <c r="BZ7" s="137"/>
-      <c r="CA7" s="137"/>
-      <c r="CB7" s="137"/>
-      <c r="CC7" s="137"/>
-      <c r="CD7" s="137"/>
-      <c r="CE7" s="138"/>
+      <c r="Z7" s="148"/>
+      <c r="AA7" s="148"/>
+      <c r="AB7" s="148"/>
+      <c r="AC7" s="148"/>
+      <c r="AD7" s="148"/>
+      <c r="AE7" s="148"/>
+      <c r="AF7" s="148"/>
+      <c r="AG7" s="148"/>
+      <c r="AH7" s="148"/>
+      <c r="AI7" s="148"/>
+      <c r="AJ7" s="148"/>
+      <c r="AK7" s="149"/>
+      <c r="AL7" s="139"/>
+      <c r="AM7" s="140"/>
+      <c r="AN7" s="140"/>
+      <c r="AO7" s="140"/>
+      <c r="AP7" s="140"/>
+      <c r="AQ7" s="140"/>
+      <c r="AR7" s="140"/>
+      <c r="AS7" s="140"/>
+      <c r="AT7" s="140"/>
+      <c r="AU7" s="140"/>
+      <c r="AV7" s="140"/>
+      <c r="AW7" s="140"/>
+      <c r="AX7" s="140"/>
+      <c r="AY7" s="140"/>
+      <c r="AZ7" s="140"/>
+      <c r="BA7" s="140"/>
+      <c r="BB7" s="140"/>
+      <c r="BC7" s="140"/>
+      <c r="BD7" s="140"/>
+      <c r="BE7" s="140"/>
+      <c r="BF7" s="140"/>
+      <c r="BG7" s="140"/>
+      <c r="BH7" s="140"/>
+      <c r="BI7" s="140"/>
+      <c r="BJ7" s="140"/>
+      <c r="BK7" s="140"/>
+      <c r="BL7" s="140"/>
+      <c r="BM7" s="140"/>
+      <c r="BN7" s="140"/>
+      <c r="BO7" s="140"/>
+      <c r="BP7" s="140"/>
+      <c r="BQ7" s="140"/>
+      <c r="BR7" s="140"/>
+      <c r="BS7" s="140"/>
+      <c r="BT7" s="140"/>
+      <c r="BU7" s="140"/>
+      <c r="BV7" s="140"/>
+      <c r="BW7" s="140"/>
+      <c r="BX7" s="140"/>
+      <c r="BY7" s="140"/>
+      <c r="BZ7" s="140"/>
+      <c r="CA7" s="140"/>
+      <c r="CB7" s="140"/>
+      <c r="CC7" s="140"/>
+      <c r="CD7" s="140"/>
+      <c r="CE7" s="141"/>
     </row>
     <row r="8" spans="2:83" s="42" customFormat="1" ht="17" customHeight="1">
-      <c r="B8" s="139">
+      <c r="B8" s="142">
         <f t="shared" ref="B8:B75" si="0">B7+1</f>
         <v>3</v>
       </c>
-      <c r="C8" s="140"/>
-      <c r="D8" s="141"/>
-      <c r="E8" s="142"/>
-      <c r="F8" s="142"/>
-      <c r="G8" s="142"/>
-      <c r="H8" s="142"/>
-      <c r="I8" s="142"/>
-      <c r="J8" s="142"/>
-      <c r="K8" s="142"/>
-      <c r="L8" s="142"/>
-      <c r="M8" s="143"/>
-      <c r="N8" s="144"/>
-      <c r="O8" s="145"/>
-      <c r="P8" s="145"/>
-      <c r="Q8" s="145"/>
-      <c r="R8" s="145"/>
-      <c r="S8" s="145"/>
-      <c r="T8" s="145"/>
-      <c r="U8" s="145"/>
-      <c r="V8" s="145"/>
-      <c r="W8" s="145"/>
-      <c r="X8" s="146"/>
-      <c r="Y8" s="144" t="s">
+      <c r="C8" s="143"/>
+      <c r="D8" s="144"/>
+      <c r="E8" s="145"/>
+      <c r="F8" s="145"/>
+      <c r="G8" s="145"/>
+      <c r="H8" s="145"/>
+      <c r="I8" s="145"/>
+      <c r="J8" s="145"/>
+      <c r="K8" s="145"/>
+      <c r="L8" s="145"/>
+      <c r="M8" s="146"/>
+      <c r="N8" s="147"/>
+      <c r="O8" s="148"/>
+      <c r="P8" s="148"/>
+      <c r="Q8" s="148"/>
+      <c r="R8" s="148"/>
+      <c r="S8" s="148"/>
+      <c r="T8" s="148"/>
+      <c r="U8" s="148"/>
+      <c r="V8" s="148"/>
+      <c r="W8" s="148"/>
+      <c r="X8" s="149"/>
+      <c r="Y8" s="147" t="s">
         <v>41</v>
       </c>
-      <c r="Z8" s="145"/>
-      <c r="AA8" s="145"/>
-      <c r="AB8" s="145"/>
-      <c r="AC8" s="145"/>
-      <c r="AD8" s="145"/>
-      <c r="AE8" s="145"/>
-      <c r="AF8" s="145"/>
-      <c r="AG8" s="145"/>
-      <c r="AH8" s="145"/>
-      <c r="AI8" s="145"/>
-      <c r="AJ8" s="145"/>
-      <c r="AK8" s="146"/>
-      <c r="AL8" s="136"/>
-      <c r="AM8" s="137"/>
-      <c r="AN8" s="137"/>
-      <c r="AO8" s="137"/>
-      <c r="AP8" s="137"/>
-      <c r="AQ8" s="137"/>
-      <c r="AR8" s="137"/>
-      <c r="AS8" s="137"/>
-      <c r="AT8" s="137"/>
-      <c r="AU8" s="137"/>
-      <c r="AV8" s="137"/>
-      <c r="AW8" s="137"/>
-      <c r="AX8" s="137"/>
-      <c r="AY8" s="137"/>
-      <c r="AZ8" s="137"/>
-      <c r="BA8" s="137"/>
-      <c r="BB8" s="137"/>
-      <c r="BC8" s="137"/>
-      <c r="BD8" s="137"/>
-      <c r="BE8" s="137"/>
-      <c r="BF8" s="137"/>
-      <c r="BG8" s="137"/>
-      <c r="BH8" s="137"/>
-      <c r="BI8" s="137"/>
-      <c r="BJ8" s="137"/>
-      <c r="BK8" s="137"/>
-      <c r="BL8" s="137"/>
-      <c r="BM8" s="137"/>
-      <c r="BN8" s="137"/>
-      <c r="BO8" s="137"/>
-      <c r="BP8" s="137"/>
-      <c r="BQ8" s="137"/>
-      <c r="BR8" s="137"/>
-      <c r="BS8" s="137"/>
-      <c r="BT8" s="137"/>
-      <c r="BU8" s="137"/>
-      <c r="BV8" s="137"/>
-      <c r="BW8" s="137"/>
-      <c r="BX8" s="137"/>
-      <c r="BY8" s="137"/>
-      <c r="BZ8" s="137"/>
-      <c r="CA8" s="137"/>
-      <c r="CB8" s="137"/>
-      <c r="CC8" s="137"/>
-      <c r="CD8" s="137"/>
-      <c r="CE8" s="138"/>
+      <c r="Z8" s="148"/>
+      <c r="AA8" s="148"/>
+      <c r="AB8" s="148"/>
+      <c r="AC8" s="148"/>
+      <c r="AD8" s="148"/>
+      <c r="AE8" s="148"/>
+      <c r="AF8" s="148"/>
+      <c r="AG8" s="148"/>
+      <c r="AH8" s="148"/>
+      <c r="AI8" s="148"/>
+      <c r="AJ8" s="148"/>
+      <c r="AK8" s="149"/>
+      <c r="AL8" s="139"/>
+      <c r="AM8" s="140"/>
+      <c r="AN8" s="140"/>
+      <c r="AO8" s="140"/>
+      <c r="AP8" s="140"/>
+      <c r="AQ8" s="140"/>
+      <c r="AR8" s="140"/>
+      <c r="AS8" s="140"/>
+      <c r="AT8" s="140"/>
+      <c r="AU8" s="140"/>
+      <c r="AV8" s="140"/>
+      <c r="AW8" s="140"/>
+      <c r="AX8" s="140"/>
+      <c r="AY8" s="140"/>
+      <c r="AZ8" s="140"/>
+      <c r="BA8" s="140"/>
+      <c r="BB8" s="140"/>
+      <c r="BC8" s="140"/>
+      <c r="BD8" s="140"/>
+      <c r="BE8" s="140"/>
+      <c r="BF8" s="140"/>
+      <c r="BG8" s="140"/>
+      <c r="BH8" s="140"/>
+      <c r="BI8" s="140"/>
+      <c r="BJ8" s="140"/>
+      <c r="BK8" s="140"/>
+      <c r="BL8" s="140"/>
+      <c r="BM8" s="140"/>
+      <c r="BN8" s="140"/>
+      <c r="BO8" s="140"/>
+      <c r="BP8" s="140"/>
+      <c r="BQ8" s="140"/>
+      <c r="BR8" s="140"/>
+      <c r="BS8" s="140"/>
+      <c r="BT8" s="140"/>
+      <c r="BU8" s="140"/>
+      <c r="BV8" s="140"/>
+      <c r="BW8" s="140"/>
+      <c r="BX8" s="140"/>
+      <c r="BY8" s="140"/>
+      <c r="BZ8" s="140"/>
+      <c r="CA8" s="140"/>
+      <c r="CB8" s="140"/>
+      <c r="CC8" s="140"/>
+      <c r="CD8" s="140"/>
+      <c r="CE8" s="141"/>
     </row>
     <row r="9" spans="2:83" s="42" customFormat="1" ht="17" customHeight="1">
-      <c r="B9" s="139">
+      <c r="B9" s="142">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C9" s="140"/>
-      <c r="D9" s="147" t="s">
+      <c r="C9" s="143"/>
+      <c r="D9" s="150" t="s">
         <v>78</v>
       </c>
-      <c r="E9" s="148"/>
-      <c r="F9" s="148"/>
-      <c r="G9" s="148"/>
-      <c r="H9" s="148"/>
-      <c r="I9" s="148"/>
-      <c r="J9" s="148"/>
-      <c r="K9" s="148"/>
-      <c r="L9" s="148"/>
-      <c r="M9" s="149"/>
-      <c r="N9" s="144"/>
-      <c r="O9" s="145"/>
-      <c r="P9" s="145"/>
-      <c r="Q9" s="145"/>
-      <c r="R9" s="145"/>
-      <c r="S9" s="145"/>
-      <c r="T9" s="145"/>
-      <c r="U9" s="145"/>
-      <c r="V9" s="145"/>
-      <c r="W9" s="145"/>
-      <c r="X9" s="146"/>
-      <c r="Y9" s="144" t="s">
+      <c r="E9" s="151"/>
+      <c r="F9" s="151"/>
+      <c r="G9" s="151"/>
+      <c r="H9" s="151"/>
+      <c r="I9" s="151"/>
+      <c r="J9" s="151"/>
+      <c r="K9" s="151"/>
+      <c r="L9" s="151"/>
+      <c r="M9" s="152"/>
+      <c r="N9" s="147"/>
+      <c r="O9" s="148"/>
+      <c r="P9" s="148"/>
+      <c r="Q9" s="148"/>
+      <c r="R9" s="148"/>
+      <c r="S9" s="148"/>
+      <c r="T9" s="148"/>
+      <c r="U9" s="148"/>
+      <c r="V9" s="148"/>
+      <c r="W9" s="148"/>
+      <c r="X9" s="149"/>
+      <c r="Y9" s="147" t="s">
         <v>42</v>
       </c>
-      <c r="Z9" s="145"/>
-      <c r="AA9" s="145"/>
-      <c r="AB9" s="145"/>
-      <c r="AC9" s="145"/>
-      <c r="AD9" s="145"/>
-      <c r="AE9" s="145"/>
-      <c r="AF9" s="145"/>
-      <c r="AG9" s="145"/>
-      <c r="AH9" s="145"/>
-      <c r="AI9" s="145"/>
-      <c r="AJ9" s="145"/>
-      <c r="AK9" s="146"/>
-      <c r="AL9" s="136"/>
-      <c r="AM9" s="137"/>
-      <c r="AN9" s="137"/>
-      <c r="AO9" s="137"/>
-      <c r="AP9" s="137"/>
-      <c r="AQ9" s="137"/>
-      <c r="AR9" s="137"/>
-      <c r="AS9" s="137"/>
-      <c r="AT9" s="137"/>
-      <c r="AU9" s="137"/>
-      <c r="AV9" s="137"/>
-      <c r="AW9" s="137"/>
-      <c r="AX9" s="137"/>
-      <c r="AY9" s="137"/>
-      <c r="AZ9" s="137"/>
-      <c r="BA9" s="137"/>
-      <c r="BB9" s="137"/>
-      <c r="BC9" s="137"/>
-      <c r="BD9" s="137"/>
-      <c r="BE9" s="137"/>
-      <c r="BF9" s="137"/>
-      <c r="BG9" s="137"/>
-      <c r="BH9" s="137"/>
-      <c r="BI9" s="137"/>
-      <c r="BJ9" s="137"/>
-      <c r="BK9" s="137"/>
-      <c r="BL9" s="137"/>
-      <c r="BM9" s="137"/>
-      <c r="BN9" s="137"/>
-      <c r="BO9" s="137"/>
-      <c r="BP9" s="137"/>
-      <c r="BQ9" s="137"/>
-      <c r="BR9" s="137"/>
-      <c r="BS9" s="137"/>
-      <c r="BT9" s="137"/>
-      <c r="BU9" s="137"/>
-      <c r="BV9" s="137"/>
-      <c r="BW9" s="137"/>
-      <c r="BX9" s="137"/>
-      <c r="BY9" s="137"/>
-      <c r="BZ9" s="137"/>
-      <c r="CA9" s="137"/>
-      <c r="CB9" s="137"/>
-      <c r="CC9" s="137"/>
-      <c r="CD9" s="137"/>
-      <c r="CE9" s="138"/>
+      <c r="Z9" s="148"/>
+      <c r="AA9" s="148"/>
+      <c r="AB9" s="148"/>
+      <c r="AC9" s="148"/>
+      <c r="AD9" s="148"/>
+      <c r="AE9" s="148"/>
+      <c r="AF9" s="148"/>
+      <c r="AG9" s="148"/>
+      <c r="AH9" s="148"/>
+      <c r="AI9" s="148"/>
+      <c r="AJ9" s="148"/>
+      <c r="AK9" s="149"/>
+      <c r="AL9" s="139"/>
+      <c r="AM9" s="140"/>
+      <c r="AN9" s="140"/>
+      <c r="AO9" s="140"/>
+      <c r="AP9" s="140"/>
+      <c r="AQ9" s="140"/>
+      <c r="AR9" s="140"/>
+      <c r="AS9" s="140"/>
+      <c r="AT9" s="140"/>
+      <c r="AU9" s="140"/>
+      <c r="AV9" s="140"/>
+      <c r="AW9" s="140"/>
+      <c r="AX9" s="140"/>
+      <c r="AY9" s="140"/>
+      <c r="AZ9" s="140"/>
+      <c r="BA9" s="140"/>
+      <c r="BB9" s="140"/>
+      <c r="BC9" s="140"/>
+      <c r="BD9" s="140"/>
+      <c r="BE9" s="140"/>
+      <c r="BF9" s="140"/>
+      <c r="BG9" s="140"/>
+      <c r="BH9" s="140"/>
+      <c r="BI9" s="140"/>
+      <c r="BJ9" s="140"/>
+      <c r="BK9" s="140"/>
+      <c r="BL9" s="140"/>
+      <c r="BM9" s="140"/>
+      <c r="BN9" s="140"/>
+      <c r="BO9" s="140"/>
+      <c r="BP9" s="140"/>
+      <c r="BQ9" s="140"/>
+      <c r="BR9" s="140"/>
+      <c r="BS9" s="140"/>
+      <c r="BT9" s="140"/>
+      <c r="BU9" s="140"/>
+      <c r="BV9" s="140"/>
+      <c r="BW9" s="140"/>
+      <c r="BX9" s="140"/>
+      <c r="BY9" s="140"/>
+      <c r="BZ9" s="140"/>
+      <c r="CA9" s="140"/>
+      <c r="CB9" s="140"/>
+      <c r="CC9" s="140"/>
+      <c r="CD9" s="140"/>
+      <c r="CE9" s="141"/>
     </row>
     <row r="10" spans="2:83" s="42" customFormat="1" ht="17" customHeight="1">
-      <c r="B10" s="139">
+      <c r="B10" s="142">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C10" s="140"/>
-      <c r="D10" s="150"/>
-      <c r="E10" s="151"/>
-      <c r="F10" s="151"/>
-      <c r="G10" s="151"/>
-      <c r="H10" s="151"/>
-      <c r="I10" s="151"/>
-      <c r="J10" s="151"/>
-      <c r="K10" s="151"/>
-      <c r="L10" s="151"/>
-      <c r="M10" s="152"/>
-      <c r="N10" s="144"/>
-      <c r="O10" s="145"/>
-      <c r="P10" s="145"/>
-      <c r="Q10" s="145"/>
-      <c r="R10" s="145"/>
-      <c r="S10" s="145"/>
-      <c r="T10" s="145"/>
-      <c r="U10" s="145"/>
-      <c r="V10" s="145"/>
-      <c r="W10" s="145"/>
-      <c r="X10" s="146"/>
-      <c r="Y10" s="144" t="s">
+      <c r="C10" s="143"/>
+      <c r="D10" s="153"/>
+      <c r="E10" s="154"/>
+      <c r="F10" s="154"/>
+      <c r="G10" s="154"/>
+      <c r="H10" s="154"/>
+      <c r="I10" s="154"/>
+      <c r="J10" s="154"/>
+      <c r="K10" s="154"/>
+      <c r="L10" s="154"/>
+      <c r="M10" s="155"/>
+      <c r="N10" s="147"/>
+      <c r="O10" s="148"/>
+      <c r="P10" s="148"/>
+      <c r="Q10" s="148"/>
+      <c r="R10" s="148"/>
+      <c r="S10" s="148"/>
+      <c r="T10" s="148"/>
+      <c r="U10" s="148"/>
+      <c r="V10" s="148"/>
+      <c r="W10" s="148"/>
+      <c r="X10" s="149"/>
+      <c r="Y10" s="147" t="s">
         <v>43</v>
       </c>
-      <c r="Z10" s="145"/>
-      <c r="AA10" s="145"/>
-      <c r="AB10" s="145"/>
-      <c r="AC10" s="145"/>
-      <c r="AD10" s="145"/>
-      <c r="AE10" s="145"/>
-      <c r="AF10" s="145"/>
-      <c r="AG10" s="145"/>
-      <c r="AH10" s="145"/>
-      <c r="AI10" s="145"/>
-      <c r="AJ10" s="145"/>
-      <c r="AK10" s="146"/>
-      <c r="AL10" s="136"/>
-      <c r="AM10" s="137"/>
-      <c r="AN10" s="137"/>
-      <c r="AO10" s="137"/>
-      <c r="AP10" s="137"/>
-      <c r="AQ10" s="137"/>
-      <c r="AR10" s="137"/>
-      <c r="AS10" s="137"/>
-      <c r="AT10" s="137"/>
-      <c r="AU10" s="137"/>
-      <c r="AV10" s="137"/>
-      <c r="AW10" s="137"/>
-      <c r="AX10" s="137"/>
-      <c r="AY10" s="137"/>
-      <c r="AZ10" s="137"/>
-      <c r="BA10" s="137"/>
-      <c r="BB10" s="137"/>
-      <c r="BC10" s="137"/>
-      <c r="BD10" s="137"/>
-      <c r="BE10" s="137"/>
-      <c r="BF10" s="137"/>
-      <c r="BG10" s="137"/>
-      <c r="BH10" s="137"/>
-      <c r="BI10" s="137"/>
-      <c r="BJ10" s="137"/>
-      <c r="BK10" s="137"/>
-      <c r="BL10" s="137"/>
-      <c r="BM10" s="137"/>
-      <c r="BN10" s="137"/>
-      <c r="BO10" s="137"/>
-      <c r="BP10" s="137"/>
-      <c r="BQ10" s="137"/>
-      <c r="BR10" s="137"/>
-      <c r="BS10" s="137"/>
-      <c r="BT10" s="137"/>
-      <c r="BU10" s="137"/>
-      <c r="BV10" s="137"/>
-      <c r="BW10" s="137"/>
-      <c r="BX10" s="137"/>
-      <c r="BY10" s="137"/>
-      <c r="BZ10" s="137"/>
-      <c r="CA10" s="137"/>
-      <c r="CB10" s="137"/>
-      <c r="CC10" s="137"/>
-      <c r="CD10" s="137"/>
-      <c r="CE10" s="138"/>
+      <c r="Z10" s="148"/>
+      <c r="AA10" s="148"/>
+      <c r="AB10" s="148"/>
+      <c r="AC10" s="148"/>
+      <c r="AD10" s="148"/>
+      <c r="AE10" s="148"/>
+      <c r="AF10" s="148"/>
+      <c r="AG10" s="148"/>
+      <c r="AH10" s="148"/>
+      <c r="AI10" s="148"/>
+      <c r="AJ10" s="148"/>
+      <c r="AK10" s="149"/>
+      <c r="AL10" s="139"/>
+      <c r="AM10" s="140"/>
+      <c r="AN10" s="140"/>
+      <c r="AO10" s="140"/>
+      <c r="AP10" s="140"/>
+      <c r="AQ10" s="140"/>
+      <c r="AR10" s="140"/>
+      <c r="AS10" s="140"/>
+      <c r="AT10" s="140"/>
+      <c r="AU10" s="140"/>
+      <c r="AV10" s="140"/>
+      <c r="AW10" s="140"/>
+      <c r="AX10" s="140"/>
+      <c r="AY10" s="140"/>
+      <c r="AZ10" s="140"/>
+      <c r="BA10" s="140"/>
+      <c r="BB10" s="140"/>
+      <c r="BC10" s="140"/>
+      <c r="BD10" s="140"/>
+      <c r="BE10" s="140"/>
+      <c r="BF10" s="140"/>
+      <c r="BG10" s="140"/>
+      <c r="BH10" s="140"/>
+      <c r="BI10" s="140"/>
+      <c r="BJ10" s="140"/>
+      <c r="BK10" s="140"/>
+      <c r="BL10" s="140"/>
+      <c r="BM10" s="140"/>
+      <c r="BN10" s="140"/>
+      <c r="BO10" s="140"/>
+      <c r="BP10" s="140"/>
+      <c r="BQ10" s="140"/>
+      <c r="BR10" s="140"/>
+      <c r="BS10" s="140"/>
+      <c r="BT10" s="140"/>
+      <c r="BU10" s="140"/>
+      <c r="BV10" s="140"/>
+      <c r="BW10" s="140"/>
+      <c r="BX10" s="140"/>
+      <c r="BY10" s="140"/>
+      <c r="BZ10" s="140"/>
+      <c r="CA10" s="140"/>
+      <c r="CB10" s="140"/>
+      <c r="CC10" s="140"/>
+      <c r="CD10" s="140"/>
+      <c r="CE10" s="141"/>
     </row>
     <row r="11" spans="2:83" s="42" customFormat="1" ht="17" customHeight="1">
-      <c r="B11" s="139">
+      <c r="B11" s="142">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C11" s="140"/>
-      <c r="D11" s="150"/>
-      <c r="E11" s="151"/>
-      <c r="F11" s="151"/>
-      <c r="G11" s="151"/>
-      <c r="H11" s="151"/>
-      <c r="I11" s="151"/>
-      <c r="J11" s="151"/>
-      <c r="K11" s="151"/>
-      <c r="L11" s="151"/>
-      <c r="M11" s="152"/>
-      <c r="N11" s="144"/>
-      <c r="O11" s="145"/>
-      <c r="P11" s="145"/>
-      <c r="Q11" s="145"/>
-      <c r="R11" s="145"/>
-      <c r="S11" s="145"/>
-      <c r="T11" s="145"/>
-      <c r="U11" s="145"/>
-      <c r="V11" s="145"/>
-      <c r="W11" s="145"/>
-      <c r="X11" s="146"/>
-      <c r="Y11" s="144" t="s">
+      <c r="C11" s="143"/>
+      <c r="D11" s="153"/>
+      <c r="E11" s="154"/>
+      <c r="F11" s="154"/>
+      <c r="G11" s="154"/>
+      <c r="H11" s="154"/>
+      <c r="I11" s="154"/>
+      <c r="J11" s="154"/>
+      <c r="K11" s="154"/>
+      <c r="L11" s="154"/>
+      <c r="M11" s="155"/>
+      <c r="N11" s="147"/>
+      <c r="O11" s="148"/>
+      <c r="P11" s="148"/>
+      <c r="Q11" s="148"/>
+      <c r="R11" s="148"/>
+      <c r="S11" s="148"/>
+      <c r="T11" s="148"/>
+      <c r="U11" s="148"/>
+      <c r="V11" s="148"/>
+      <c r="W11" s="148"/>
+      <c r="X11" s="149"/>
+      <c r="Y11" s="147" t="s">
         <v>44</v>
       </c>
-      <c r="Z11" s="145"/>
-      <c r="AA11" s="145"/>
-      <c r="AB11" s="145"/>
-      <c r="AC11" s="145"/>
-      <c r="AD11" s="145"/>
-      <c r="AE11" s="145"/>
-      <c r="AF11" s="145"/>
-      <c r="AG11" s="145"/>
-      <c r="AH11" s="145"/>
-      <c r="AI11" s="145"/>
-      <c r="AJ11" s="145"/>
-      <c r="AK11" s="146"/>
-      <c r="AL11" s="136"/>
-      <c r="AM11" s="137"/>
-      <c r="AN11" s="137"/>
-      <c r="AO11" s="137"/>
-      <c r="AP11" s="137"/>
-      <c r="AQ11" s="137"/>
-      <c r="AR11" s="137"/>
-      <c r="AS11" s="137"/>
-      <c r="AT11" s="137"/>
-      <c r="AU11" s="137"/>
-      <c r="AV11" s="137"/>
-      <c r="AW11" s="137"/>
-      <c r="AX11" s="137"/>
-      <c r="AY11" s="137"/>
-      <c r="AZ11" s="137"/>
-      <c r="BA11" s="137"/>
-      <c r="BB11" s="137"/>
-      <c r="BC11" s="137"/>
-      <c r="BD11" s="137"/>
-      <c r="BE11" s="137"/>
-      <c r="BF11" s="137"/>
-      <c r="BG11" s="137"/>
-      <c r="BH11" s="137"/>
-      <c r="BI11" s="137"/>
-      <c r="BJ11" s="137"/>
-      <c r="BK11" s="137"/>
-      <c r="BL11" s="137"/>
-      <c r="BM11" s="137"/>
-      <c r="BN11" s="137"/>
-      <c r="BO11" s="137"/>
-      <c r="BP11" s="137"/>
-      <c r="BQ11" s="137"/>
-      <c r="BR11" s="137"/>
-      <c r="BS11" s="137"/>
-      <c r="BT11" s="137"/>
-      <c r="BU11" s="137"/>
-      <c r="BV11" s="137"/>
-      <c r="BW11" s="137"/>
-      <c r="BX11" s="137"/>
-      <c r="BY11" s="137"/>
-      <c r="BZ11" s="137"/>
-      <c r="CA11" s="137"/>
-      <c r="CB11" s="137"/>
-      <c r="CC11" s="137"/>
-      <c r="CD11" s="137"/>
-      <c r="CE11" s="138"/>
+      <c r="Z11" s="148"/>
+      <c r="AA11" s="148"/>
+      <c r="AB11" s="148"/>
+      <c r="AC11" s="148"/>
+      <c r="AD11" s="148"/>
+      <c r="AE11" s="148"/>
+      <c r="AF11" s="148"/>
+      <c r="AG11" s="148"/>
+      <c r="AH11" s="148"/>
+      <c r="AI11" s="148"/>
+      <c r="AJ11" s="148"/>
+      <c r="AK11" s="149"/>
+      <c r="AL11" s="139"/>
+      <c r="AM11" s="140"/>
+      <c r="AN11" s="140"/>
+      <c r="AO11" s="140"/>
+      <c r="AP11" s="140"/>
+      <c r="AQ11" s="140"/>
+      <c r="AR11" s="140"/>
+      <c r="AS11" s="140"/>
+      <c r="AT11" s="140"/>
+      <c r="AU11" s="140"/>
+      <c r="AV11" s="140"/>
+      <c r="AW11" s="140"/>
+      <c r="AX11" s="140"/>
+      <c r="AY11" s="140"/>
+      <c r="AZ11" s="140"/>
+      <c r="BA11" s="140"/>
+      <c r="BB11" s="140"/>
+      <c r="BC11" s="140"/>
+      <c r="BD11" s="140"/>
+      <c r="BE11" s="140"/>
+      <c r="BF11" s="140"/>
+      <c r="BG11" s="140"/>
+      <c r="BH11" s="140"/>
+      <c r="BI11" s="140"/>
+      <c r="BJ11" s="140"/>
+      <c r="BK11" s="140"/>
+      <c r="BL11" s="140"/>
+      <c r="BM11" s="140"/>
+      <c r="BN11" s="140"/>
+      <c r="BO11" s="140"/>
+      <c r="BP11" s="140"/>
+      <c r="BQ11" s="140"/>
+      <c r="BR11" s="140"/>
+      <c r="BS11" s="140"/>
+      <c r="BT11" s="140"/>
+      <c r="BU11" s="140"/>
+      <c r="BV11" s="140"/>
+      <c r="BW11" s="140"/>
+      <c r="BX11" s="140"/>
+      <c r="BY11" s="140"/>
+      <c r="BZ11" s="140"/>
+      <c r="CA11" s="140"/>
+      <c r="CB11" s="140"/>
+      <c r="CC11" s="140"/>
+      <c r="CD11" s="140"/>
+      <c r="CE11" s="141"/>
     </row>
     <row r="12" spans="2:83" s="42" customFormat="1" ht="17" customHeight="1">
-      <c r="B12" s="139">
+      <c r="B12" s="142">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C12" s="140"/>
-      <c r="D12" s="150"/>
-      <c r="E12" s="151"/>
-      <c r="F12" s="151"/>
-      <c r="G12" s="151"/>
-      <c r="H12" s="151"/>
-      <c r="I12" s="151"/>
-      <c r="J12" s="151"/>
-      <c r="K12" s="151"/>
-      <c r="L12" s="151"/>
-      <c r="M12" s="152"/>
-      <c r="N12" s="144"/>
-      <c r="O12" s="145"/>
-      <c r="P12" s="145"/>
-      <c r="Q12" s="145"/>
-      <c r="R12" s="145"/>
-      <c r="S12" s="145"/>
-      <c r="T12" s="145"/>
-      <c r="U12" s="145"/>
-      <c r="V12" s="145"/>
-      <c r="W12" s="145"/>
-      <c r="X12" s="146"/>
-      <c r="Y12" s="144" t="s">
+      <c r="C12" s="143"/>
+      <c r="D12" s="153"/>
+      <c r="E12" s="154"/>
+      <c r="F12" s="154"/>
+      <c r="G12" s="154"/>
+      <c r="H12" s="154"/>
+      <c r="I12" s="154"/>
+      <c r="J12" s="154"/>
+      <c r="K12" s="154"/>
+      <c r="L12" s="154"/>
+      <c r="M12" s="155"/>
+      <c r="N12" s="147"/>
+      <c r="O12" s="148"/>
+      <c r="P12" s="148"/>
+      <c r="Q12" s="148"/>
+      <c r="R12" s="148"/>
+      <c r="S12" s="148"/>
+      <c r="T12" s="148"/>
+      <c r="U12" s="148"/>
+      <c r="V12" s="148"/>
+      <c r="W12" s="148"/>
+      <c r="X12" s="149"/>
+      <c r="Y12" s="147" t="s">
         <v>45</v>
       </c>
-      <c r="Z12" s="145"/>
-      <c r="AA12" s="145"/>
-      <c r="AB12" s="145"/>
-      <c r="AC12" s="145"/>
-      <c r="AD12" s="145"/>
-      <c r="AE12" s="145"/>
-      <c r="AF12" s="145"/>
-      <c r="AG12" s="145"/>
-      <c r="AH12" s="145"/>
-      <c r="AI12" s="145"/>
-      <c r="AJ12" s="145"/>
-      <c r="AK12" s="146"/>
-      <c r="AL12" s="136"/>
-      <c r="AM12" s="137"/>
-      <c r="AN12" s="137"/>
-      <c r="AO12" s="137"/>
-      <c r="AP12" s="137"/>
-      <c r="AQ12" s="137"/>
-      <c r="AR12" s="137"/>
-      <c r="AS12" s="137"/>
-      <c r="AT12" s="137"/>
-      <c r="AU12" s="137"/>
-      <c r="AV12" s="137"/>
-      <c r="AW12" s="137"/>
-      <c r="AX12" s="137"/>
-      <c r="AY12" s="137"/>
-      <c r="AZ12" s="137"/>
-      <c r="BA12" s="137"/>
-      <c r="BB12" s="137"/>
-      <c r="BC12" s="137"/>
-      <c r="BD12" s="137"/>
-      <c r="BE12" s="137"/>
-      <c r="BF12" s="137"/>
-      <c r="BG12" s="137"/>
-      <c r="BH12" s="137"/>
-      <c r="BI12" s="137"/>
-      <c r="BJ12" s="137"/>
-      <c r="BK12" s="137"/>
-      <c r="BL12" s="137"/>
-      <c r="BM12" s="137"/>
-      <c r="BN12" s="137"/>
-      <c r="BO12" s="137"/>
-      <c r="BP12" s="137"/>
-      <c r="BQ12" s="137"/>
-      <c r="BR12" s="137"/>
-      <c r="BS12" s="137"/>
-      <c r="BT12" s="137"/>
-      <c r="BU12" s="137"/>
-      <c r="BV12" s="137"/>
-      <c r="BW12" s="137"/>
-      <c r="BX12" s="137"/>
-      <c r="BY12" s="137"/>
-      <c r="BZ12" s="137"/>
-      <c r="CA12" s="137"/>
-      <c r="CB12" s="137"/>
-      <c r="CC12" s="137"/>
-      <c r="CD12" s="137"/>
-      <c r="CE12" s="138"/>
+      <c r="Z12" s="148"/>
+      <c r="AA12" s="148"/>
+      <c r="AB12" s="148"/>
+      <c r="AC12" s="148"/>
+      <c r="AD12" s="148"/>
+      <c r="AE12" s="148"/>
+      <c r="AF12" s="148"/>
+      <c r="AG12" s="148"/>
+      <c r="AH12" s="148"/>
+      <c r="AI12" s="148"/>
+      <c r="AJ12" s="148"/>
+      <c r="AK12" s="149"/>
+      <c r="AL12" s="139"/>
+      <c r="AM12" s="140"/>
+      <c r="AN12" s="140"/>
+      <c r="AO12" s="140"/>
+      <c r="AP12" s="140"/>
+      <c r="AQ12" s="140"/>
+      <c r="AR12" s="140"/>
+      <c r="AS12" s="140"/>
+      <c r="AT12" s="140"/>
+      <c r="AU12" s="140"/>
+      <c r="AV12" s="140"/>
+      <c r="AW12" s="140"/>
+      <c r="AX12" s="140"/>
+      <c r="AY12" s="140"/>
+      <c r="AZ12" s="140"/>
+      <c r="BA12" s="140"/>
+      <c r="BB12" s="140"/>
+      <c r="BC12" s="140"/>
+      <c r="BD12" s="140"/>
+      <c r="BE12" s="140"/>
+      <c r="BF12" s="140"/>
+      <c r="BG12" s="140"/>
+      <c r="BH12" s="140"/>
+      <c r="BI12" s="140"/>
+      <c r="BJ12" s="140"/>
+      <c r="BK12" s="140"/>
+      <c r="BL12" s="140"/>
+      <c r="BM12" s="140"/>
+      <c r="BN12" s="140"/>
+      <c r="BO12" s="140"/>
+      <c r="BP12" s="140"/>
+      <c r="BQ12" s="140"/>
+      <c r="BR12" s="140"/>
+      <c r="BS12" s="140"/>
+      <c r="BT12" s="140"/>
+      <c r="BU12" s="140"/>
+      <c r="BV12" s="140"/>
+      <c r="BW12" s="140"/>
+      <c r="BX12" s="140"/>
+      <c r="BY12" s="140"/>
+      <c r="BZ12" s="140"/>
+      <c r="CA12" s="140"/>
+      <c r="CB12" s="140"/>
+      <c r="CC12" s="140"/>
+      <c r="CD12" s="140"/>
+      <c r="CE12" s="141"/>
     </row>
     <row r="13" spans="2:83" s="42" customFormat="1" ht="17" customHeight="1">
-      <c r="B13" s="139">
+      <c r="B13" s="142">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C13" s="140"/>
-      <c r="D13" s="150"/>
-      <c r="E13" s="151"/>
-      <c r="F13" s="151"/>
-      <c r="G13" s="151"/>
-      <c r="H13" s="151"/>
-      <c r="I13" s="151"/>
-      <c r="J13" s="151"/>
-      <c r="K13" s="151"/>
-      <c r="L13" s="151"/>
-      <c r="M13" s="152"/>
-      <c r="N13" s="144"/>
-      <c r="O13" s="145"/>
-      <c r="P13" s="145"/>
-      <c r="Q13" s="145"/>
-      <c r="R13" s="145"/>
-      <c r="S13" s="145"/>
-      <c r="T13" s="145"/>
-      <c r="U13" s="145"/>
-      <c r="V13" s="145"/>
-      <c r="W13" s="145"/>
-      <c r="X13" s="146"/>
-      <c r="Y13" s="144" t="s">
+      <c r="C13" s="143"/>
+      <c r="D13" s="153"/>
+      <c r="E13" s="154"/>
+      <c r="F13" s="154"/>
+      <c r="G13" s="154"/>
+      <c r="H13" s="154"/>
+      <c r="I13" s="154"/>
+      <c r="J13" s="154"/>
+      <c r="K13" s="154"/>
+      <c r="L13" s="154"/>
+      <c r="M13" s="155"/>
+      <c r="N13" s="147"/>
+      <c r="O13" s="148"/>
+      <c r="P13" s="148"/>
+      <c r="Q13" s="148"/>
+      <c r="R13" s="148"/>
+      <c r="S13" s="148"/>
+      <c r="T13" s="148"/>
+      <c r="U13" s="148"/>
+      <c r="V13" s="148"/>
+      <c r="W13" s="148"/>
+      <c r="X13" s="149"/>
+      <c r="Y13" s="147" t="s">
         <v>46</v>
       </c>
-      <c r="Z13" s="145"/>
-      <c r="AA13" s="145"/>
-      <c r="AB13" s="145"/>
-      <c r="AC13" s="145"/>
-      <c r="AD13" s="145"/>
-      <c r="AE13" s="145"/>
-      <c r="AF13" s="145"/>
-      <c r="AG13" s="145"/>
-      <c r="AH13" s="145"/>
-      <c r="AI13" s="145"/>
-      <c r="AJ13" s="145"/>
-      <c r="AK13" s="146"/>
-      <c r="AL13" s="136"/>
-      <c r="AM13" s="137"/>
-      <c r="AN13" s="137"/>
-      <c r="AO13" s="137"/>
-      <c r="AP13" s="137"/>
-      <c r="AQ13" s="137"/>
-      <c r="AR13" s="137"/>
-      <c r="AS13" s="137"/>
-      <c r="AT13" s="137"/>
-      <c r="AU13" s="137"/>
-      <c r="AV13" s="137"/>
-      <c r="AW13" s="137"/>
-      <c r="AX13" s="137"/>
-      <c r="AY13" s="137"/>
-      <c r="AZ13" s="137"/>
-      <c r="BA13" s="137"/>
-      <c r="BB13" s="137"/>
-      <c r="BC13" s="137"/>
-      <c r="BD13" s="137"/>
-      <c r="BE13" s="137"/>
-      <c r="BF13" s="137"/>
-      <c r="BG13" s="137"/>
-      <c r="BH13" s="137"/>
-      <c r="BI13" s="137"/>
-      <c r="BJ13" s="137"/>
-      <c r="BK13" s="137"/>
-      <c r="BL13" s="137"/>
-      <c r="BM13" s="137"/>
-      <c r="BN13" s="137"/>
-      <c r="BO13" s="137"/>
-      <c r="BP13" s="137"/>
-      <c r="BQ13" s="137"/>
-      <c r="BR13" s="137"/>
-      <c r="BS13" s="137"/>
-      <c r="BT13" s="137"/>
-      <c r="BU13" s="137"/>
-      <c r="BV13" s="137"/>
-      <c r="BW13" s="137"/>
-      <c r="BX13" s="137"/>
-      <c r="BY13" s="137"/>
-      <c r="BZ13" s="137"/>
-      <c r="CA13" s="137"/>
-      <c r="CB13" s="137"/>
-      <c r="CC13" s="137"/>
-      <c r="CD13" s="137"/>
-      <c r="CE13" s="138"/>
+      <c r="Z13" s="148"/>
+      <c r="AA13" s="148"/>
+      <c r="AB13" s="148"/>
+      <c r="AC13" s="148"/>
+      <c r="AD13" s="148"/>
+      <c r="AE13" s="148"/>
+      <c r="AF13" s="148"/>
+      <c r="AG13" s="148"/>
+      <c r="AH13" s="148"/>
+      <c r="AI13" s="148"/>
+      <c r="AJ13" s="148"/>
+      <c r="AK13" s="149"/>
+      <c r="AL13" s="139"/>
+      <c r="AM13" s="140"/>
+      <c r="AN13" s="140"/>
+      <c r="AO13" s="140"/>
+      <c r="AP13" s="140"/>
+      <c r="AQ13" s="140"/>
+      <c r="AR13" s="140"/>
+      <c r="AS13" s="140"/>
+      <c r="AT13" s="140"/>
+      <c r="AU13" s="140"/>
+      <c r="AV13" s="140"/>
+      <c r="AW13" s="140"/>
+      <c r="AX13" s="140"/>
+      <c r="AY13" s="140"/>
+      <c r="AZ13" s="140"/>
+      <c r="BA13" s="140"/>
+      <c r="BB13" s="140"/>
+      <c r="BC13" s="140"/>
+      <c r="BD13" s="140"/>
+      <c r="BE13" s="140"/>
+      <c r="BF13" s="140"/>
+      <c r="BG13" s="140"/>
+      <c r="BH13" s="140"/>
+      <c r="BI13" s="140"/>
+      <c r="BJ13" s="140"/>
+      <c r="BK13" s="140"/>
+      <c r="BL13" s="140"/>
+      <c r="BM13" s="140"/>
+      <c r="BN13" s="140"/>
+      <c r="BO13" s="140"/>
+      <c r="BP13" s="140"/>
+      <c r="BQ13" s="140"/>
+      <c r="BR13" s="140"/>
+      <c r="BS13" s="140"/>
+      <c r="BT13" s="140"/>
+      <c r="BU13" s="140"/>
+      <c r="BV13" s="140"/>
+      <c r="BW13" s="140"/>
+      <c r="BX13" s="140"/>
+      <c r="BY13" s="140"/>
+      <c r="BZ13" s="140"/>
+      <c r="CA13" s="140"/>
+      <c r="CB13" s="140"/>
+      <c r="CC13" s="140"/>
+      <c r="CD13" s="140"/>
+      <c r="CE13" s="141"/>
     </row>
     <row r="14" spans="2:83" s="42" customFormat="1" ht="17" customHeight="1">
-      <c r="B14" s="139">
+      <c r="B14" s="142">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C14" s="140"/>
-      <c r="D14" s="150"/>
-      <c r="E14" s="151"/>
-      <c r="F14" s="151"/>
-      <c r="G14" s="151"/>
-      <c r="H14" s="151"/>
-      <c r="I14" s="151"/>
-      <c r="J14" s="151"/>
-      <c r="K14" s="151"/>
-      <c r="L14" s="151"/>
-      <c r="M14" s="152"/>
-      <c r="N14" s="144"/>
-      <c r="O14" s="145"/>
-      <c r="P14" s="145"/>
-      <c r="Q14" s="145"/>
-      <c r="R14" s="145"/>
-      <c r="S14" s="145"/>
-      <c r="T14" s="145"/>
-      <c r="U14" s="145"/>
-      <c r="V14" s="145"/>
-      <c r="W14" s="145"/>
-      <c r="X14" s="146"/>
-      <c r="Y14" s="144" t="s">
+      <c r="C14" s="143"/>
+      <c r="D14" s="153"/>
+      <c r="E14" s="154"/>
+      <c r="F14" s="154"/>
+      <c r="G14" s="154"/>
+      <c r="H14" s="154"/>
+      <c r="I14" s="154"/>
+      <c r="J14" s="154"/>
+      <c r="K14" s="154"/>
+      <c r="L14" s="154"/>
+      <c r="M14" s="155"/>
+      <c r="N14" s="147"/>
+      <c r="O14" s="148"/>
+      <c r="P14" s="148"/>
+      <c r="Q14" s="148"/>
+      <c r="R14" s="148"/>
+      <c r="S14" s="148"/>
+      <c r="T14" s="148"/>
+      <c r="U14" s="148"/>
+      <c r="V14" s="148"/>
+      <c r="W14" s="148"/>
+      <c r="X14" s="149"/>
+      <c r="Y14" s="147" t="s">
         <v>47</v>
       </c>
-      <c r="Z14" s="145"/>
-      <c r="AA14" s="145"/>
-      <c r="AB14" s="145"/>
-      <c r="AC14" s="145"/>
-      <c r="AD14" s="145"/>
-      <c r="AE14" s="145"/>
-      <c r="AF14" s="145"/>
-      <c r="AG14" s="145"/>
-      <c r="AH14" s="145"/>
-      <c r="AI14" s="145"/>
-      <c r="AJ14" s="145"/>
-      <c r="AK14" s="146"/>
-      <c r="AL14" s="136"/>
-      <c r="AM14" s="137"/>
-      <c r="AN14" s="137"/>
-      <c r="AO14" s="137"/>
-      <c r="AP14" s="137"/>
-      <c r="AQ14" s="137"/>
-      <c r="AR14" s="137"/>
-      <c r="AS14" s="137"/>
-      <c r="AT14" s="137"/>
-      <c r="AU14" s="137"/>
-      <c r="AV14" s="137"/>
-      <c r="AW14" s="137"/>
-      <c r="AX14" s="137"/>
-      <c r="AY14" s="137"/>
-      <c r="AZ14" s="137"/>
-      <c r="BA14" s="137"/>
-      <c r="BB14" s="137"/>
-      <c r="BC14" s="137"/>
-      <c r="BD14" s="137"/>
-      <c r="BE14" s="137"/>
-      <c r="BF14" s="137"/>
-      <c r="BG14" s="137"/>
-      <c r="BH14" s="137"/>
-      <c r="BI14" s="137"/>
-      <c r="BJ14" s="137"/>
-      <c r="BK14" s="137"/>
-      <c r="BL14" s="137"/>
-      <c r="BM14" s="137"/>
-      <c r="BN14" s="137"/>
-      <c r="BO14" s="137"/>
-      <c r="BP14" s="137"/>
-      <c r="BQ14" s="137"/>
-      <c r="BR14" s="137"/>
-      <c r="BS14" s="137"/>
-      <c r="BT14" s="137"/>
-      <c r="BU14" s="137"/>
-      <c r="BV14" s="137"/>
-      <c r="BW14" s="137"/>
-      <c r="BX14" s="137"/>
-      <c r="BY14" s="137"/>
-      <c r="BZ14" s="137"/>
-      <c r="CA14" s="137"/>
-      <c r="CB14" s="137"/>
-      <c r="CC14" s="137"/>
-      <c r="CD14" s="137"/>
-      <c r="CE14" s="138"/>
+      <c r="Z14" s="148"/>
+      <c r="AA14" s="148"/>
+      <c r="AB14" s="148"/>
+      <c r="AC14" s="148"/>
+      <c r="AD14" s="148"/>
+      <c r="AE14" s="148"/>
+      <c r="AF14" s="148"/>
+      <c r="AG14" s="148"/>
+      <c r="AH14" s="148"/>
+      <c r="AI14" s="148"/>
+      <c r="AJ14" s="148"/>
+      <c r="AK14" s="149"/>
+      <c r="AL14" s="139"/>
+      <c r="AM14" s="140"/>
+      <c r="AN14" s="140"/>
+      <c r="AO14" s="140"/>
+      <c r="AP14" s="140"/>
+      <c r="AQ14" s="140"/>
+      <c r="AR14" s="140"/>
+      <c r="AS14" s="140"/>
+      <c r="AT14" s="140"/>
+      <c r="AU14" s="140"/>
+      <c r="AV14" s="140"/>
+      <c r="AW14" s="140"/>
+      <c r="AX14" s="140"/>
+      <c r="AY14" s="140"/>
+      <c r="AZ14" s="140"/>
+      <c r="BA14" s="140"/>
+      <c r="BB14" s="140"/>
+      <c r="BC14" s="140"/>
+      <c r="BD14" s="140"/>
+      <c r="BE14" s="140"/>
+      <c r="BF14" s="140"/>
+      <c r="BG14" s="140"/>
+      <c r="BH14" s="140"/>
+      <c r="BI14" s="140"/>
+      <c r="BJ14" s="140"/>
+      <c r="BK14" s="140"/>
+      <c r="BL14" s="140"/>
+      <c r="BM14" s="140"/>
+      <c r="BN14" s="140"/>
+      <c r="BO14" s="140"/>
+      <c r="BP14" s="140"/>
+      <c r="BQ14" s="140"/>
+      <c r="BR14" s="140"/>
+      <c r="BS14" s="140"/>
+      <c r="BT14" s="140"/>
+      <c r="BU14" s="140"/>
+      <c r="BV14" s="140"/>
+      <c r="BW14" s="140"/>
+      <c r="BX14" s="140"/>
+      <c r="BY14" s="140"/>
+      <c r="BZ14" s="140"/>
+      <c r="CA14" s="140"/>
+      <c r="CB14" s="140"/>
+      <c r="CC14" s="140"/>
+      <c r="CD14" s="140"/>
+      <c r="CE14" s="141"/>
     </row>
     <row r="15" spans="2:83" s="42" customFormat="1" ht="17" customHeight="1">
-      <c r="B15" s="139">
+      <c r="B15" s="142">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C15" s="140"/>
-      <c r="D15" s="150"/>
-      <c r="E15" s="151"/>
-      <c r="F15" s="151"/>
-      <c r="G15" s="151"/>
-      <c r="H15" s="151"/>
-      <c r="I15" s="151"/>
-      <c r="J15" s="151"/>
-      <c r="K15" s="151"/>
-      <c r="L15" s="151"/>
-      <c r="M15" s="152"/>
-      <c r="N15" s="144"/>
-      <c r="O15" s="145"/>
-      <c r="P15" s="145"/>
-      <c r="Q15" s="145"/>
-      <c r="R15" s="145"/>
-      <c r="S15" s="145"/>
-      <c r="T15" s="145"/>
-      <c r="U15" s="145"/>
-      <c r="V15" s="145"/>
-      <c r="W15" s="145"/>
-      <c r="X15" s="146"/>
-      <c r="Y15" s="144" t="s">
+      <c r="C15" s="143"/>
+      <c r="D15" s="153"/>
+      <c r="E15" s="154"/>
+      <c r="F15" s="154"/>
+      <c r="G15" s="154"/>
+      <c r="H15" s="154"/>
+      <c r="I15" s="154"/>
+      <c r="J15" s="154"/>
+      <c r="K15" s="154"/>
+      <c r="L15" s="154"/>
+      <c r="M15" s="155"/>
+      <c r="N15" s="147"/>
+      <c r="O15" s="148"/>
+      <c r="P15" s="148"/>
+      <c r="Q15" s="148"/>
+      <c r="R15" s="148"/>
+      <c r="S15" s="148"/>
+      <c r="T15" s="148"/>
+      <c r="U15" s="148"/>
+      <c r="V15" s="148"/>
+      <c r="W15" s="148"/>
+      <c r="X15" s="149"/>
+      <c r="Y15" s="147" t="s">
         <v>48</v>
       </c>
-      <c r="Z15" s="145"/>
-      <c r="AA15" s="145"/>
-      <c r="AB15" s="145"/>
-      <c r="AC15" s="145"/>
-      <c r="AD15" s="145"/>
-      <c r="AE15" s="145"/>
-      <c r="AF15" s="145"/>
-      <c r="AG15" s="145"/>
-      <c r="AH15" s="145"/>
-      <c r="AI15" s="145"/>
-      <c r="AJ15" s="145"/>
-      <c r="AK15" s="146"/>
-      <c r="AL15" s="136"/>
-      <c r="AM15" s="137"/>
-      <c r="AN15" s="137"/>
-      <c r="AO15" s="137"/>
-      <c r="AP15" s="137"/>
-      <c r="AQ15" s="137"/>
-      <c r="AR15" s="137"/>
-      <c r="AS15" s="137"/>
-      <c r="AT15" s="137"/>
-      <c r="AU15" s="137"/>
-      <c r="AV15" s="137"/>
-      <c r="AW15" s="137"/>
-      <c r="AX15" s="137"/>
-      <c r="AY15" s="137"/>
-      <c r="AZ15" s="137"/>
-      <c r="BA15" s="137"/>
-      <c r="BB15" s="137"/>
-      <c r="BC15" s="137"/>
-      <c r="BD15" s="137"/>
-      <c r="BE15" s="137"/>
-      <c r="BF15" s="137"/>
-      <c r="BG15" s="137"/>
-      <c r="BH15" s="137"/>
-      <c r="BI15" s="137"/>
-      <c r="BJ15" s="137"/>
-      <c r="BK15" s="137"/>
-      <c r="BL15" s="137"/>
-      <c r="BM15" s="137"/>
-      <c r="BN15" s="137"/>
-      <c r="BO15" s="137"/>
-      <c r="BP15" s="137"/>
-      <c r="BQ15" s="137"/>
-      <c r="BR15" s="137"/>
-      <c r="BS15" s="137"/>
-      <c r="BT15" s="137"/>
-      <c r="BU15" s="137"/>
-      <c r="BV15" s="137"/>
-      <c r="BW15" s="137"/>
-      <c r="BX15" s="137"/>
-      <c r="BY15" s="137"/>
-      <c r="BZ15" s="137"/>
-      <c r="CA15" s="137"/>
-      <c r="CB15" s="137"/>
-      <c r="CC15" s="137"/>
-      <c r="CD15" s="137"/>
-      <c r="CE15" s="138"/>
+      <c r="Z15" s="148"/>
+      <c r="AA15" s="148"/>
+      <c r="AB15" s="148"/>
+      <c r="AC15" s="148"/>
+      <c r="AD15" s="148"/>
+      <c r="AE15" s="148"/>
+      <c r="AF15" s="148"/>
+      <c r="AG15" s="148"/>
+      <c r="AH15" s="148"/>
+      <c r="AI15" s="148"/>
+      <c r="AJ15" s="148"/>
+      <c r="AK15" s="149"/>
+      <c r="AL15" s="139"/>
+      <c r="AM15" s="140"/>
+      <c r="AN15" s="140"/>
+      <c r="AO15" s="140"/>
+      <c r="AP15" s="140"/>
+      <c r="AQ15" s="140"/>
+      <c r="AR15" s="140"/>
+      <c r="AS15" s="140"/>
+      <c r="AT15" s="140"/>
+      <c r="AU15" s="140"/>
+      <c r="AV15" s="140"/>
+      <c r="AW15" s="140"/>
+      <c r="AX15" s="140"/>
+      <c r="AY15" s="140"/>
+      <c r="AZ15" s="140"/>
+      <c r="BA15" s="140"/>
+      <c r="BB15" s="140"/>
+      <c r="BC15" s="140"/>
+      <c r="BD15" s="140"/>
+      <c r="BE15" s="140"/>
+      <c r="BF15" s="140"/>
+      <c r="BG15" s="140"/>
+      <c r="BH15" s="140"/>
+      <c r="BI15" s="140"/>
+      <c r="BJ15" s="140"/>
+      <c r="BK15" s="140"/>
+      <c r="BL15" s="140"/>
+      <c r="BM15" s="140"/>
+      <c r="BN15" s="140"/>
+      <c r="BO15" s="140"/>
+      <c r="BP15" s="140"/>
+      <c r="BQ15" s="140"/>
+      <c r="BR15" s="140"/>
+      <c r="BS15" s="140"/>
+      <c r="BT15" s="140"/>
+      <c r="BU15" s="140"/>
+      <c r="BV15" s="140"/>
+      <c r="BW15" s="140"/>
+      <c r="BX15" s="140"/>
+      <c r="BY15" s="140"/>
+      <c r="BZ15" s="140"/>
+      <c r="CA15" s="140"/>
+      <c r="CB15" s="140"/>
+      <c r="CC15" s="140"/>
+      <c r="CD15" s="140"/>
+      <c r="CE15" s="141"/>
     </row>
     <row r="16" spans="2:83" s="42" customFormat="1" ht="17" customHeight="1">
-      <c r="B16" s="139">
+      <c r="B16" s="142">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C16" s="140"/>
-      <c r="D16" s="150"/>
-      <c r="E16" s="151"/>
-      <c r="F16" s="151"/>
-      <c r="G16" s="151"/>
-      <c r="H16" s="151"/>
-      <c r="I16" s="151"/>
-      <c r="J16" s="151"/>
-      <c r="K16" s="151"/>
-      <c r="L16" s="151"/>
-      <c r="M16" s="152"/>
-      <c r="N16" s="144"/>
-      <c r="O16" s="145"/>
-      <c r="P16" s="145"/>
-      <c r="Q16" s="145"/>
-      <c r="R16" s="145"/>
-      <c r="S16" s="145"/>
-      <c r="T16" s="145"/>
-      <c r="U16" s="145"/>
-      <c r="V16" s="145"/>
-      <c r="W16" s="145"/>
-      <c r="X16" s="146"/>
-      <c r="Y16" s="144" t="s">
+      <c r="C16" s="143"/>
+      <c r="D16" s="153"/>
+      <c r="E16" s="154"/>
+      <c r="F16" s="154"/>
+      <c r="G16" s="154"/>
+      <c r="H16" s="154"/>
+      <c r="I16" s="154"/>
+      <c r="J16" s="154"/>
+      <c r="K16" s="154"/>
+      <c r="L16" s="154"/>
+      <c r="M16" s="155"/>
+      <c r="N16" s="147"/>
+      <c r="O16" s="148"/>
+      <c r="P16" s="148"/>
+      <c r="Q16" s="148"/>
+      <c r="R16" s="148"/>
+      <c r="S16" s="148"/>
+      <c r="T16" s="148"/>
+      <c r="U16" s="148"/>
+      <c r="V16" s="148"/>
+      <c r="W16" s="148"/>
+      <c r="X16" s="149"/>
+      <c r="Y16" s="147" t="s">
         <v>49</v>
       </c>
-      <c r="Z16" s="145"/>
-      <c r="AA16" s="145"/>
-      <c r="AB16" s="145"/>
-      <c r="AC16" s="145"/>
-      <c r="AD16" s="145"/>
-      <c r="AE16" s="145"/>
-      <c r="AF16" s="145"/>
-      <c r="AG16" s="145"/>
-      <c r="AH16" s="145"/>
-      <c r="AI16" s="145"/>
-      <c r="AJ16" s="145"/>
-      <c r="AK16" s="146"/>
-      <c r="AL16" s="136"/>
-      <c r="AM16" s="137"/>
-      <c r="AN16" s="137"/>
-      <c r="AO16" s="137"/>
-      <c r="AP16" s="137"/>
-      <c r="AQ16" s="137"/>
-      <c r="AR16" s="137"/>
-      <c r="AS16" s="137"/>
-      <c r="AT16" s="137"/>
-      <c r="AU16" s="137"/>
-      <c r="AV16" s="137"/>
-      <c r="AW16" s="137"/>
-      <c r="AX16" s="137"/>
-      <c r="AY16" s="137"/>
-      <c r="AZ16" s="137"/>
-      <c r="BA16" s="137"/>
-      <c r="BB16" s="137"/>
-      <c r="BC16" s="137"/>
-      <c r="BD16" s="137"/>
-      <c r="BE16" s="137"/>
-      <c r="BF16" s="137"/>
-      <c r="BG16" s="137"/>
-      <c r="BH16" s="137"/>
-      <c r="BI16" s="137"/>
-      <c r="BJ16" s="137"/>
-      <c r="BK16" s="137"/>
-      <c r="BL16" s="137"/>
-      <c r="BM16" s="137"/>
-      <c r="BN16" s="137"/>
-      <c r="BO16" s="137"/>
-      <c r="BP16" s="137"/>
-      <c r="BQ16" s="137"/>
-      <c r="BR16" s="137"/>
-      <c r="BS16" s="137"/>
-      <c r="BT16" s="137"/>
-      <c r="BU16" s="137"/>
-      <c r="BV16" s="137"/>
-      <c r="BW16" s="137"/>
-      <c r="BX16" s="137"/>
-      <c r="BY16" s="137"/>
-      <c r="BZ16" s="137"/>
-      <c r="CA16" s="137"/>
-      <c r="CB16" s="137"/>
-      <c r="CC16" s="137"/>
-      <c r="CD16" s="137"/>
-      <c r="CE16" s="138"/>
+      <c r="Z16" s="148"/>
+      <c r="AA16" s="148"/>
+      <c r="AB16" s="148"/>
+      <c r="AC16" s="148"/>
+      <c r="AD16" s="148"/>
+      <c r="AE16" s="148"/>
+      <c r="AF16" s="148"/>
+      <c r="AG16" s="148"/>
+      <c r="AH16" s="148"/>
+      <c r="AI16" s="148"/>
+      <c r="AJ16" s="148"/>
+      <c r="AK16" s="149"/>
+      <c r="AL16" s="139"/>
+      <c r="AM16" s="140"/>
+      <c r="AN16" s="140"/>
+      <c r="AO16" s="140"/>
+      <c r="AP16" s="140"/>
+      <c r="AQ16" s="140"/>
+      <c r="AR16" s="140"/>
+      <c r="AS16" s="140"/>
+      <c r="AT16" s="140"/>
+      <c r="AU16" s="140"/>
+      <c r="AV16" s="140"/>
+      <c r="AW16" s="140"/>
+      <c r="AX16" s="140"/>
+      <c r="AY16" s="140"/>
+      <c r="AZ16" s="140"/>
+      <c r="BA16" s="140"/>
+      <c r="BB16" s="140"/>
+      <c r="BC16" s="140"/>
+      <c r="BD16" s="140"/>
+      <c r="BE16" s="140"/>
+      <c r="BF16" s="140"/>
+      <c r="BG16" s="140"/>
+      <c r="BH16" s="140"/>
+      <c r="BI16" s="140"/>
+      <c r="BJ16" s="140"/>
+      <c r="BK16" s="140"/>
+      <c r="BL16" s="140"/>
+      <c r="BM16" s="140"/>
+      <c r="BN16" s="140"/>
+      <c r="BO16" s="140"/>
+      <c r="BP16" s="140"/>
+      <c r="BQ16" s="140"/>
+      <c r="BR16" s="140"/>
+      <c r="BS16" s="140"/>
+      <c r="BT16" s="140"/>
+      <c r="BU16" s="140"/>
+      <c r="BV16" s="140"/>
+      <c r="BW16" s="140"/>
+      <c r="BX16" s="140"/>
+      <c r="BY16" s="140"/>
+      <c r="BZ16" s="140"/>
+      <c r="CA16" s="140"/>
+      <c r="CB16" s="140"/>
+      <c r="CC16" s="140"/>
+      <c r="CD16" s="140"/>
+      <c r="CE16" s="141"/>
     </row>
     <row r="17" spans="2:83" s="42" customFormat="1" ht="17" customHeight="1">
-      <c r="B17" s="139">
+      <c r="B17" s="142">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C17" s="140"/>
+      <c r="C17" s="143"/>
       <c r="D17" s="56" t="s">
         <v>123</v>
       </c>
@@ -9893,7 +9966,7 @@
       <c r="W17" s="54"/>
       <c r="X17" s="55"/>
       <c r="Y17" s="53" t="s">
-        <v>42</v>
+        <v>133</v>
       </c>
       <c r="Z17" s="54"/>
       <c r="AA17" s="54"/>
@@ -9955,11 +10028,11 @@
       <c r="CE17" s="52"/>
     </row>
     <row r="18" spans="2:83" s="42" customFormat="1" ht="17" customHeight="1">
-      <c r="B18" s="139">
+      <c r="B18" s="142">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C18" s="140"/>
+      <c r="C18" s="143"/>
       <c r="D18" s="59"/>
       <c r="E18" s="60"/>
       <c r="F18" s="60"/>
@@ -9982,7 +10055,7 @@
       <c r="W18" s="54"/>
       <c r="X18" s="55"/>
       <c r="Y18" s="53" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="Z18" s="54"/>
       <c r="AA18" s="54"/>
@@ -10044,11 +10117,11 @@
       <c r="CE18" s="52"/>
     </row>
     <row r="19" spans="2:83" s="42" customFormat="1" ht="17" customHeight="1">
-      <c r="B19" s="139">
+      <c r="B19" s="142">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C19" s="140"/>
+      <c r="C19" s="143"/>
       <c r="D19" s="59"/>
       <c r="E19" s="60"/>
       <c r="F19" s="60"/>
@@ -10071,7 +10144,7 @@
       <c r="W19" s="54"/>
       <c r="X19" s="55"/>
       <c r="Y19" s="53" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="Z19" s="54"/>
       <c r="AA19" s="54"/>
@@ -10133,11 +10206,11 @@
       <c r="CE19" s="52"/>
     </row>
     <row r="20" spans="2:83" s="42" customFormat="1" ht="17" customHeight="1">
-      <c r="B20" s="139">
+      <c r="B20" s="142">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C20" s="140"/>
+      <c r="C20" s="143"/>
       <c r="D20" s="59"/>
       <c r="E20" s="60"/>
       <c r="F20" s="60"/>
@@ -10160,7 +10233,7 @@
       <c r="W20" s="54"/>
       <c r="X20" s="55"/>
       <c r="Y20" s="53" t="s">
-        <v>47</v>
+        <v>136</v>
       </c>
       <c r="Z20" s="54"/>
       <c r="AA20" s="54"/>
@@ -10222,21 +10295,21 @@
       <c r="CE20" s="52"/>
     </row>
     <row r="21" spans="2:83" s="42" customFormat="1" ht="17" customHeight="1">
-      <c r="B21" s="139">
+      <c r="B21" s="142">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C21" s="140"/>
-      <c r="D21" s="141"/>
-      <c r="E21" s="142"/>
-      <c r="F21" s="142"/>
-      <c r="G21" s="142"/>
-      <c r="H21" s="142"/>
-      <c r="I21" s="142"/>
-      <c r="J21" s="142"/>
-      <c r="K21" s="142"/>
-      <c r="L21" s="142"/>
-      <c r="M21" s="143"/>
+      <c r="C21" s="143"/>
+      <c r="D21" s="144"/>
+      <c r="E21" s="145"/>
+      <c r="F21" s="145"/>
+      <c r="G21" s="145"/>
+      <c r="H21" s="145"/>
+      <c r="I21" s="145"/>
+      <c r="J21" s="145"/>
+      <c r="K21" s="145"/>
+      <c r="L21" s="145"/>
+      <c r="M21" s="146"/>
       <c r="N21" s="156"/>
       <c r="O21" s="156"/>
       <c r="P21" s="156"/>
@@ -10248,84 +10321,84 @@
       <c r="V21" s="156"/>
       <c r="W21" s="156"/>
       <c r="X21" s="156"/>
-      <c r="Y21" s="144"/>
-      <c r="Z21" s="145"/>
-      <c r="AA21" s="145"/>
-      <c r="AB21" s="145"/>
-      <c r="AC21" s="145"/>
-      <c r="AD21" s="145"/>
-      <c r="AE21" s="145"/>
-      <c r="AF21" s="145"/>
-      <c r="AG21" s="145"/>
-      <c r="AH21" s="145"/>
-      <c r="AI21" s="145"/>
-      <c r="AJ21" s="145"/>
-      <c r="AK21" s="146"/>
-      <c r="AL21" s="136"/>
-      <c r="AM21" s="137"/>
-      <c r="AN21" s="137"/>
-      <c r="AO21" s="137"/>
-      <c r="AP21" s="137"/>
-      <c r="AQ21" s="137"/>
-      <c r="AR21" s="137"/>
-      <c r="AS21" s="137"/>
-      <c r="AT21" s="137"/>
-      <c r="AU21" s="137"/>
-      <c r="AV21" s="137"/>
-      <c r="AW21" s="137"/>
-      <c r="AX21" s="137"/>
-      <c r="AY21" s="137"/>
-      <c r="AZ21" s="137"/>
-      <c r="BA21" s="137"/>
-      <c r="BB21" s="137"/>
-      <c r="BC21" s="137"/>
-      <c r="BD21" s="137"/>
-      <c r="BE21" s="137"/>
-      <c r="BF21" s="137"/>
-      <c r="BG21" s="137"/>
-      <c r="BH21" s="137"/>
-      <c r="BI21" s="137"/>
-      <c r="BJ21" s="137"/>
-      <c r="BK21" s="137"/>
-      <c r="BL21" s="137"/>
-      <c r="BM21" s="137"/>
-      <c r="BN21" s="137"/>
-      <c r="BO21" s="137"/>
-      <c r="BP21" s="137"/>
-      <c r="BQ21" s="137"/>
-      <c r="BR21" s="137"/>
-      <c r="BS21" s="137"/>
-      <c r="BT21" s="137"/>
-      <c r="BU21" s="137"/>
-      <c r="BV21" s="137"/>
-      <c r="BW21" s="137"/>
-      <c r="BX21" s="137"/>
-      <c r="BY21" s="137"/>
-      <c r="BZ21" s="137"/>
-      <c r="CA21" s="137"/>
-      <c r="CB21" s="137"/>
-      <c r="CC21" s="137"/>
-      <c r="CD21" s="137"/>
-      <c r="CE21" s="138"/>
+      <c r="Y21" s="147"/>
+      <c r="Z21" s="148"/>
+      <c r="AA21" s="148"/>
+      <c r="AB21" s="148"/>
+      <c r="AC21" s="148"/>
+      <c r="AD21" s="148"/>
+      <c r="AE21" s="148"/>
+      <c r="AF21" s="148"/>
+      <c r="AG21" s="148"/>
+      <c r="AH21" s="148"/>
+      <c r="AI21" s="148"/>
+      <c r="AJ21" s="148"/>
+      <c r="AK21" s="149"/>
+      <c r="AL21" s="139"/>
+      <c r="AM21" s="140"/>
+      <c r="AN21" s="140"/>
+      <c r="AO21" s="140"/>
+      <c r="AP21" s="140"/>
+      <c r="AQ21" s="140"/>
+      <c r="AR21" s="140"/>
+      <c r="AS21" s="140"/>
+      <c r="AT21" s="140"/>
+      <c r="AU21" s="140"/>
+      <c r="AV21" s="140"/>
+      <c r="AW21" s="140"/>
+      <c r="AX21" s="140"/>
+      <c r="AY21" s="140"/>
+      <c r="AZ21" s="140"/>
+      <c r="BA21" s="140"/>
+      <c r="BB21" s="140"/>
+      <c r="BC21" s="140"/>
+      <c r="BD21" s="140"/>
+      <c r="BE21" s="140"/>
+      <c r="BF21" s="140"/>
+      <c r="BG21" s="140"/>
+      <c r="BH21" s="140"/>
+      <c r="BI21" s="140"/>
+      <c r="BJ21" s="140"/>
+      <c r="BK21" s="140"/>
+      <c r="BL21" s="140"/>
+      <c r="BM21" s="140"/>
+      <c r="BN21" s="140"/>
+      <c r="BO21" s="140"/>
+      <c r="BP21" s="140"/>
+      <c r="BQ21" s="140"/>
+      <c r="BR21" s="140"/>
+      <c r="BS21" s="140"/>
+      <c r="BT21" s="140"/>
+      <c r="BU21" s="140"/>
+      <c r="BV21" s="140"/>
+      <c r="BW21" s="140"/>
+      <c r="BX21" s="140"/>
+      <c r="BY21" s="140"/>
+      <c r="BZ21" s="140"/>
+      <c r="CA21" s="140"/>
+      <c r="CB21" s="140"/>
+      <c r="CC21" s="140"/>
+      <c r="CD21" s="140"/>
+      <c r="CE21" s="141"/>
     </row>
     <row r="22" spans="2:83" s="42" customFormat="1" ht="17" customHeight="1">
-      <c r="B22" s="139">
+      <c r="B22" s="142">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C22" s="140"/>
-      <c r="D22" s="147" t="s">
+      <c r="C22" s="143"/>
+      <c r="D22" s="150" t="s">
         <v>81</v>
       </c>
-      <c r="E22" s="148"/>
-      <c r="F22" s="148"/>
-      <c r="G22" s="148"/>
-      <c r="H22" s="148"/>
-      <c r="I22" s="148"/>
-      <c r="J22" s="148"/>
-      <c r="K22" s="148"/>
-      <c r="L22" s="148"/>
-      <c r="M22" s="148"/>
+      <c r="E22" s="151"/>
+      <c r="F22" s="151"/>
+      <c r="G22" s="151"/>
+      <c r="H22" s="151"/>
+      <c r="I22" s="151"/>
+      <c r="J22" s="151"/>
+      <c r="K22" s="151"/>
+      <c r="L22" s="151"/>
+      <c r="M22" s="151"/>
       <c r="N22" s="156"/>
       <c r="O22" s="156"/>
       <c r="P22" s="156"/>
@@ -10337,84 +10410,84 @@
       <c r="V22" s="156"/>
       <c r="W22" s="156"/>
       <c r="X22" s="156"/>
-      <c r="Y22" s="144" t="s">
+      <c r="Y22" s="147" t="s">
         <v>79</v>
       </c>
-      <c r="Z22" s="145"/>
-      <c r="AA22" s="145"/>
-      <c r="AB22" s="145"/>
-      <c r="AC22" s="145"/>
-      <c r="AD22" s="145"/>
-      <c r="AE22" s="145"/>
-      <c r="AF22" s="145"/>
-      <c r="AG22" s="145"/>
-      <c r="AH22" s="145"/>
-      <c r="AI22" s="145"/>
-      <c r="AJ22" s="145"/>
-      <c r="AK22" s="146"/>
-      <c r="AL22" s="136"/>
-      <c r="AM22" s="137"/>
-      <c r="AN22" s="137"/>
-      <c r="AO22" s="137"/>
-      <c r="AP22" s="137"/>
-      <c r="AQ22" s="137"/>
-      <c r="AR22" s="137"/>
-      <c r="AS22" s="137"/>
-      <c r="AT22" s="137"/>
-      <c r="AU22" s="137"/>
-      <c r="AV22" s="137"/>
-      <c r="AW22" s="137"/>
-      <c r="AX22" s="137"/>
-      <c r="AY22" s="137"/>
-      <c r="AZ22" s="137"/>
-      <c r="BA22" s="137"/>
-      <c r="BB22" s="137"/>
-      <c r="BC22" s="137"/>
-      <c r="BD22" s="137"/>
-      <c r="BE22" s="137"/>
-      <c r="BF22" s="137"/>
-      <c r="BG22" s="137"/>
-      <c r="BH22" s="137"/>
-      <c r="BI22" s="137"/>
-      <c r="BJ22" s="137"/>
-      <c r="BK22" s="137"/>
-      <c r="BL22" s="137"/>
-      <c r="BM22" s="137"/>
-      <c r="BN22" s="137"/>
-      <c r="BO22" s="137"/>
-      <c r="BP22" s="137"/>
-      <c r="BQ22" s="137"/>
-      <c r="BR22" s="137"/>
-      <c r="BS22" s="137"/>
-      <c r="BT22" s="137"/>
-      <c r="BU22" s="137"/>
-      <c r="BV22" s="137"/>
-      <c r="BW22" s="137"/>
-      <c r="BX22" s="137"/>
-      <c r="BY22" s="137"/>
-      <c r="BZ22" s="137"/>
-      <c r="CA22" s="137"/>
-      <c r="CB22" s="137"/>
-      <c r="CC22" s="137"/>
-      <c r="CD22" s="137"/>
-      <c r="CE22" s="138"/>
+      <c r="Z22" s="148"/>
+      <c r="AA22" s="148"/>
+      <c r="AB22" s="148"/>
+      <c r="AC22" s="148"/>
+      <c r="AD22" s="148"/>
+      <c r="AE22" s="148"/>
+      <c r="AF22" s="148"/>
+      <c r="AG22" s="148"/>
+      <c r="AH22" s="148"/>
+      <c r="AI22" s="148"/>
+      <c r="AJ22" s="148"/>
+      <c r="AK22" s="149"/>
+      <c r="AL22" s="139"/>
+      <c r="AM22" s="140"/>
+      <c r="AN22" s="140"/>
+      <c r="AO22" s="140"/>
+      <c r="AP22" s="140"/>
+      <c r="AQ22" s="140"/>
+      <c r="AR22" s="140"/>
+      <c r="AS22" s="140"/>
+      <c r="AT22" s="140"/>
+      <c r="AU22" s="140"/>
+      <c r="AV22" s="140"/>
+      <c r="AW22" s="140"/>
+      <c r="AX22" s="140"/>
+      <c r="AY22" s="140"/>
+      <c r="AZ22" s="140"/>
+      <c r="BA22" s="140"/>
+      <c r="BB22" s="140"/>
+      <c r="BC22" s="140"/>
+      <c r="BD22" s="140"/>
+      <c r="BE22" s="140"/>
+      <c r="BF22" s="140"/>
+      <c r="BG22" s="140"/>
+      <c r="BH22" s="140"/>
+      <c r="BI22" s="140"/>
+      <c r="BJ22" s="140"/>
+      <c r="BK22" s="140"/>
+      <c r="BL22" s="140"/>
+      <c r="BM22" s="140"/>
+      <c r="BN22" s="140"/>
+      <c r="BO22" s="140"/>
+      <c r="BP22" s="140"/>
+      <c r="BQ22" s="140"/>
+      <c r="BR22" s="140"/>
+      <c r="BS22" s="140"/>
+      <c r="BT22" s="140"/>
+      <c r="BU22" s="140"/>
+      <c r="BV22" s="140"/>
+      <c r="BW22" s="140"/>
+      <c r="BX22" s="140"/>
+      <c r="BY22" s="140"/>
+      <c r="BZ22" s="140"/>
+      <c r="CA22" s="140"/>
+      <c r="CB22" s="140"/>
+      <c r="CC22" s="140"/>
+      <c r="CD22" s="140"/>
+      <c r="CE22" s="141"/>
     </row>
     <row r="23" spans="2:83" s="42" customFormat="1" ht="17" customHeight="1">
-      <c r="B23" s="139">
+      <c r="B23" s="142">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C23" s="140"/>
-      <c r="D23" s="150"/>
-      <c r="E23" s="151"/>
-      <c r="F23" s="151"/>
-      <c r="G23" s="151"/>
-      <c r="H23" s="151"/>
-      <c r="I23" s="151"/>
-      <c r="J23" s="151"/>
-      <c r="K23" s="151"/>
-      <c r="L23" s="151"/>
-      <c r="M23" s="151"/>
+      <c r="C23" s="143"/>
+      <c r="D23" s="153"/>
+      <c r="E23" s="154"/>
+      <c r="F23" s="154"/>
+      <c r="G23" s="154"/>
+      <c r="H23" s="154"/>
+      <c r="I23" s="154"/>
+      <c r="J23" s="154"/>
+      <c r="K23" s="154"/>
+      <c r="L23" s="154"/>
+      <c r="M23" s="154"/>
       <c r="N23" s="156"/>
       <c r="O23" s="156"/>
       <c r="P23" s="156"/>
@@ -10426,84 +10499,84 @@
       <c r="V23" s="156"/>
       <c r="W23" s="156"/>
       <c r="X23" s="156"/>
-      <c r="Y23" s="144" t="s">
+      <c r="Y23" s="147" t="s">
         <v>80</v>
       </c>
-      <c r="Z23" s="145"/>
-      <c r="AA23" s="145"/>
-      <c r="AB23" s="145"/>
-      <c r="AC23" s="145"/>
-      <c r="AD23" s="145"/>
-      <c r="AE23" s="145"/>
-      <c r="AF23" s="145"/>
-      <c r="AG23" s="145"/>
-      <c r="AH23" s="145"/>
-      <c r="AI23" s="145"/>
-      <c r="AJ23" s="145"/>
-      <c r="AK23" s="146"/>
-      <c r="AL23" s="136"/>
-      <c r="AM23" s="137"/>
-      <c r="AN23" s="137"/>
-      <c r="AO23" s="137"/>
-      <c r="AP23" s="137"/>
-      <c r="AQ23" s="137"/>
-      <c r="AR23" s="137"/>
-      <c r="AS23" s="137"/>
-      <c r="AT23" s="137"/>
-      <c r="AU23" s="137"/>
-      <c r="AV23" s="137"/>
-      <c r="AW23" s="137"/>
-      <c r="AX23" s="137"/>
-      <c r="AY23" s="137"/>
-      <c r="AZ23" s="137"/>
-      <c r="BA23" s="137"/>
-      <c r="BB23" s="137"/>
-      <c r="BC23" s="137"/>
-      <c r="BD23" s="137"/>
-      <c r="BE23" s="137"/>
-      <c r="BF23" s="137"/>
-      <c r="BG23" s="137"/>
-      <c r="BH23" s="137"/>
-      <c r="BI23" s="137"/>
-      <c r="BJ23" s="137"/>
-      <c r="BK23" s="137"/>
-      <c r="BL23" s="137"/>
-      <c r="BM23" s="137"/>
-      <c r="BN23" s="137"/>
-      <c r="BO23" s="137"/>
-      <c r="BP23" s="137"/>
-      <c r="BQ23" s="137"/>
-      <c r="BR23" s="137"/>
-      <c r="BS23" s="137"/>
-      <c r="BT23" s="137"/>
-      <c r="BU23" s="137"/>
-      <c r="BV23" s="137"/>
-      <c r="BW23" s="137"/>
-      <c r="BX23" s="137"/>
-      <c r="BY23" s="137"/>
-      <c r="BZ23" s="137"/>
-      <c r="CA23" s="137"/>
-      <c r="CB23" s="137"/>
-      <c r="CC23" s="137"/>
-      <c r="CD23" s="137"/>
-      <c r="CE23" s="138"/>
+      <c r="Z23" s="148"/>
+      <c r="AA23" s="148"/>
+      <c r="AB23" s="148"/>
+      <c r="AC23" s="148"/>
+      <c r="AD23" s="148"/>
+      <c r="AE23" s="148"/>
+      <c r="AF23" s="148"/>
+      <c r="AG23" s="148"/>
+      <c r="AH23" s="148"/>
+      <c r="AI23" s="148"/>
+      <c r="AJ23" s="148"/>
+      <c r="AK23" s="149"/>
+      <c r="AL23" s="139"/>
+      <c r="AM23" s="140"/>
+      <c r="AN23" s="140"/>
+      <c r="AO23" s="140"/>
+      <c r="AP23" s="140"/>
+      <c r="AQ23" s="140"/>
+      <c r="AR23" s="140"/>
+      <c r="AS23" s="140"/>
+      <c r="AT23" s="140"/>
+      <c r="AU23" s="140"/>
+      <c r="AV23" s="140"/>
+      <c r="AW23" s="140"/>
+      <c r="AX23" s="140"/>
+      <c r="AY23" s="140"/>
+      <c r="AZ23" s="140"/>
+      <c r="BA23" s="140"/>
+      <c r="BB23" s="140"/>
+      <c r="BC23" s="140"/>
+      <c r="BD23" s="140"/>
+      <c r="BE23" s="140"/>
+      <c r="BF23" s="140"/>
+      <c r="BG23" s="140"/>
+      <c r="BH23" s="140"/>
+      <c r="BI23" s="140"/>
+      <c r="BJ23" s="140"/>
+      <c r="BK23" s="140"/>
+      <c r="BL23" s="140"/>
+      <c r="BM23" s="140"/>
+      <c r="BN23" s="140"/>
+      <c r="BO23" s="140"/>
+      <c r="BP23" s="140"/>
+      <c r="BQ23" s="140"/>
+      <c r="BR23" s="140"/>
+      <c r="BS23" s="140"/>
+      <c r="BT23" s="140"/>
+      <c r="BU23" s="140"/>
+      <c r="BV23" s="140"/>
+      <c r="BW23" s="140"/>
+      <c r="BX23" s="140"/>
+      <c r="BY23" s="140"/>
+      <c r="BZ23" s="140"/>
+      <c r="CA23" s="140"/>
+      <c r="CB23" s="140"/>
+      <c r="CC23" s="140"/>
+      <c r="CD23" s="140"/>
+      <c r="CE23" s="141"/>
     </row>
     <row r="24" spans="2:83" s="42" customFormat="1" ht="17" customHeight="1">
-      <c r="B24" s="139">
+      <c r="B24" s="142">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C24" s="140"/>
-      <c r="D24" s="141"/>
-      <c r="E24" s="142"/>
-      <c r="F24" s="142"/>
-      <c r="G24" s="142"/>
-      <c r="H24" s="142"/>
-      <c r="I24" s="142"/>
-      <c r="J24" s="142"/>
-      <c r="K24" s="142"/>
-      <c r="L24" s="142"/>
-      <c r="M24" s="142"/>
+      <c r="C24" s="143"/>
+      <c r="D24" s="144"/>
+      <c r="E24" s="145"/>
+      <c r="F24" s="145"/>
+      <c r="G24" s="145"/>
+      <c r="H24" s="145"/>
+      <c r="I24" s="145"/>
+      <c r="J24" s="145"/>
+      <c r="K24" s="145"/>
+      <c r="L24" s="145"/>
+      <c r="M24" s="145"/>
       <c r="N24" s="156"/>
       <c r="O24" s="156"/>
       <c r="P24" s="156"/>
@@ -10515,72 +10588,72 @@
       <c r="V24" s="156"/>
       <c r="W24" s="156"/>
       <c r="X24" s="156"/>
-      <c r="Y24" s="144"/>
-      <c r="Z24" s="145"/>
-      <c r="AA24" s="145"/>
-      <c r="AB24" s="145"/>
-      <c r="AC24" s="145"/>
-      <c r="AD24" s="145"/>
-      <c r="AE24" s="145"/>
-      <c r="AF24" s="145"/>
-      <c r="AG24" s="145"/>
-      <c r="AH24" s="145"/>
-      <c r="AI24" s="145"/>
-      <c r="AJ24" s="145"/>
-      <c r="AK24" s="146"/>
-      <c r="AL24" s="136"/>
-      <c r="AM24" s="137"/>
-      <c r="AN24" s="137"/>
-      <c r="AO24" s="137"/>
-      <c r="AP24" s="137"/>
-      <c r="AQ24" s="137"/>
-      <c r="AR24" s="137"/>
-      <c r="AS24" s="137"/>
-      <c r="AT24" s="137"/>
-      <c r="AU24" s="137"/>
-      <c r="AV24" s="137"/>
-      <c r="AW24" s="137"/>
-      <c r="AX24" s="137"/>
-      <c r="AY24" s="137"/>
-      <c r="AZ24" s="137"/>
-      <c r="BA24" s="137"/>
-      <c r="BB24" s="137"/>
-      <c r="BC24" s="137"/>
-      <c r="BD24" s="137"/>
-      <c r="BE24" s="137"/>
-      <c r="BF24" s="137"/>
-      <c r="BG24" s="137"/>
-      <c r="BH24" s="137"/>
-      <c r="BI24" s="137"/>
-      <c r="BJ24" s="137"/>
-      <c r="BK24" s="137"/>
-      <c r="BL24" s="137"/>
-      <c r="BM24" s="137"/>
-      <c r="BN24" s="137"/>
-      <c r="BO24" s="137"/>
-      <c r="BP24" s="137"/>
-      <c r="BQ24" s="137"/>
-      <c r="BR24" s="137"/>
-      <c r="BS24" s="137"/>
-      <c r="BT24" s="137"/>
-      <c r="BU24" s="137"/>
-      <c r="BV24" s="137"/>
-      <c r="BW24" s="137"/>
-      <c r="BX24" s="137"/>
-      <c r="BY24" s="137"/>
-      <c r="BZ24" s="137"/>
-      <c r="CA24" s="137"/>
-      <c r="CB24" s="137"/>
-      <c r="CC24" s="137"/>
-      <c r="CD24" s="137"/>
-      <c r="CE24" s="138"/>
+      <c r="Y24" s="147"/>
+      <c r="Z24" s="148"/>
+      <c r="AA24" s="148"/>
+      <c r="AB24" s="148"/>
+      <c r="AC24" s="148"/>
+      <c r="AD24" s="148"/>
+      <c r="AE24" s="148"/>
+      <c r="AF24" s="148"/>
+      <c r="AG24" s="148"/>
+      <c r="AH24" s="148"/>
+      <c r="AI24" s="148"/>
+      <c r="AJ24" s="148"/>
+      <c r="AK24" s="149"/>
+      <c r="AL24" s="139"/>
+      <c r="AM24" s="140"/>
+      <c r="AN24" s="140"/>
+      <c r="AO24" s="140"/>
+      <c r="AP24" s="140"/>
+      <c r="AQ24" s="140"/>
+      <c r="AR24" s="140"/>
+      <c r="AS24" s="140"/>
+      <c r="AT24" s="140"/>
+      <c r="AU24" s="140"/>
+      <c r="AV24" s="140"/>
+      <c r="AW24" s="140"/>
+      <c r="AX24" s="140"/>
+      <c r="AY24" s="140"/>
+      <c r="AZ24" s="140"/>
+      <c r="BA24" s="140"/>
+      <c r="BB24" s="140"/>
+      <c r="BC24" s="140"/>
+      <c r="BD24" s="140"/>
+      <c r="BE24" s="140"/>
+      <c r="BF24" s="140"/>
+      <c r="BG24" s="140"/>
+      <c r="BH24" s="140"/>
+      <c r="BI24" s="140"/>
+      <c r="BJ24" s="140"/>
+      <c r="BK24" s="140"/>
+      <c r="BL24" s="140"/>
+      <c r="BM24" s="140"/>
+      <c r="BN24" s="140"/>
+      <c r="BO24" s="140"/>
+      <c r="BP24" s="140"/>
+      <c r="BQ24" s="140"/>
+      <c r="BR24" s="140"/>
+      <c r="BS24" s="140"/>
+      <c r="BT24" s="140"/>
+      <c r="BU24" s="140"/>
+      <c r="BV24" s="140"/>
+      <c r="BW24" s="140"/>
+      <c r="BX24" s="140"/>
+      <c r="BY24" s="140"/>
+      <c r="BZ24" s="140"/>
+      <c r="CA24" s="140"/>
+      <c r="CB24" s="140"/>
+      <c r="CC24" s="140"/>
+      <c r="CD24" s="140"/>
+      <c r="CE24" s="141"/>
     </row>
     <row r="25" spans="2:83" s="42" customFormat="1" ht="17" customHeight="1">
-      <c r="B25" s="139">
+      <c r="B25" s="142">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C25" s="140"/>
+      <c r="C25" s="143"/>
       <c r="D25" s="157" t="s">
         <v>82</v>
       </c>
@@ -10619,59 +10692,59 @@
       <c r="AI25" s="162"/>
       <c r="AJ25" s="162"/>
       <c r="AK25" s="163"/>
-      <c r="AL25" s="136"/>
-      <c r="AM25" s="137"/>
-      <c r="AN25" s="137"/>
-      <c r="AO25" s="137"/>
-      <c r="AP25" s="137"/>
-      <c r="AQ25" s="137"/>
-      <c r="AR25" s="137"/>
-      <c r="AS25" s="137"/>
-      <c r="AT25" s="137"/>
-      <c r="AU25" s="137"/>
-      <c r="AV25" s="137"/>
-      <c r="AW25" s="137"/>
-      <c r="AX25" s="137"/>
-      <c r="AY25" s="137"/>
-      <c r="AZ25" s="137"/>
-      <c r="BA25" s="137"/>
-      <c r="BB25" s="137"/>
-      <c r="BC25" s="137"/>
-      <c r="BD25" s="137"/>
-      <c r="BE25" s="137"/>
-      <c r="BF25" s="137"/>
-      <c r="BG25" s="137"/>
-      <c r="BH25" s="137"/>
-      <c r="BI25" s="137"/>
-      <c r="BJ25" s="137"/>
-      <c r="BK25" s="137"/>
-      <c r="BL25" s="137"/>
-      <c r="BM25" s="137"/>
-      <c r="BN25" s="137"/>
-      <c r="BO25" s="137"/>
-      <c r="BP25" s="137"/>
-      <c r="BQ25" s="137"/>
-      <c r="BR25" s="137"/>
-      <c r="BS25" s="137"/>
-      <c r="BT25" s="137"/>
-      <c r="BU25" s="137"/>
-      <c r="BV25" s="137"/>
-      <c r="BW25" s="137"/>
-      <c r="BX25" s="137"/>
-      <c r="BY25" s="137"/>
-      <c r="BZ25" s="137"/>
-      <c r="CA25" s="137"/>
-      <c r="CB25" s="137"/>
-      <c r="CC25" s="137"/>
-      <c r="CD25" s="137"/>
-      <c r="CE25" s="138"/>
+      <c r="AL25" s="139"/>
+      <c r="AM25" s="140"/>
+      <c r="AN25" s="140"/>
+      <c r="AO25" s="140"/>
+      <c r="AP25" s="140"/>
+      <c r="AQ25" s="140"/>
+      <c r="AR25" s="140"/>
+      <c r="AS25" s="140"/>
+      <c r="AT25" s="140"/>
+      <c r="AU25" s="140"/>
+      <c r="AV25" s="140"/>
+      <c r="AW25" s="140"/>
+      <c r="AX25" s="140"/>
+      <c r="AY25" s="140"/>
+      <c r="AZ25" s="140"/>
+      <c r="BA25" s="140"/>
+      <c r="BB25" s="140"/>
+      <c r="BC25" s="140"/>
+      <c r="BD25" s="140"/>
+      <c r="BE25" s="140"/>
+      <c r="BF25" s="140"/>
+      <c r="BG25" s="140"/>
+      <c r="BH25" s="140"/>
+      <c r="BI25" s="140"/>
+      <c r="BJ25" s="140"/>
+      <c r="BK25" s="140"/>
+      <c r="BL25" s="140"/>
+      <c r="BM25" s="140"/>
+      <c r="BN25" s="140"/>
+      <c r="BO25" s="140"/>
+      <c r="BP25" s="140"/>
+      <c r="BQ25" s="140"/>
+      <c r="BR25" s="140"/>
+      <c r="BS25" s="140"/>
+      <c r="BT25" s="140"/>
+      <c r="BU25" s="140"/>
+      <c r="BV25" s="140"/>
+      <c r="BW25" s="140"/>
+      <c r="BX25" s="140"/>
+      <c r="BY25" s="140"/>
+      <c r="BZ25" s="140"/>
+      <c r="CA25" s="140"/>
+      <c r="CB25" s="140"/>
+      <c r="CC25" s="140"/>
+      <c r="CD25" s="140"/>
+      <c r="CE25" s="141"/>
     </row>
     <row r="26" spans="2:83" s="42" customFormat="1" ht="17" customHeight="1">
-      <c r="B26" s="139">
+      <c r="B26" s="142">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C26" s="140"/>
+      <c r="C26" s="143"/>
       <c r="D26" s="164"/>
       <c r="E26" s="165"/>
       <c r="F26" s="165"/>
@@ -10708,862 +10781,862 @@
       <c r="AI26" s="162"/>
       <c r="AJ26" s="162"/>
       <c r="AK26" s="163"/>
-      <c r="AL26" s="136"/>
-      <c r="AM26" s="137"/>
-      <c r="AN26" s="137"/>
-      <c r="AO26" s="137"/>
-      <c r="AP26" s="137"/>
-      <c r="AQ26" s="137"/>
-      <c r="AR26" s="137"/>
-      <c r="AS26" s="137"/>
-      <c r="AT26" s="137"/>
-      <c r="AU26" s="137"/>
-      <c r="AV26" s="137"/>
-      <c r="AW26" s="137"/>
-      <c r="AX26" s="137"/>
-      <c r="AY26" s="137"/>
-      <c r="AZ26" s="137"/>
-      <c r="BA26" s="137"/>
-      <c r="BB26" s="137"/>
-      <c r="BC26" s="137"/>
-      <c r="BD26" s="137"/>
-      <c r="BE26" s="137"/>
-      <c r="BF26" s="137"/>
-      <c r="BG26" s="137"/>
-      <c r="BH26" s="137"/>
-      <c r="BI26" s="137"/>
-      <c r="BJ26" s="137"/>
-      <c r="BK26" s="137"/>
-      <c r="BL26" s="137"/>
-      <c r="BM26" s="137"/>
-      <c r="BN26" s="137"/>
-      <c r="BO26" s="137"/>
-      <c r="BP26" s="137"/>
-      <c r="BQ26" s="137"/>
-      <c r="BR26" s="137"/>
-      <c r="BS26" s="137"/>
-      <c r="BT26" s="137"/>
-      <c r="BU26" s="137"/>
-      <c r="BV26" s="137"/>
-      <c r="BW26" s="137"/>
-      <c r="BX26" s="137"/>
-      <c r="BY26" s="137"/>
-      <c r="BZ26" s="137"/>
-      <c r="CA26" s="137"/>
-      <c r="CB26" s="137"/>
-      <c r="CC26" s="137"/>
-      <c r="CD26" s="137"/>
-      <c r="CE26" s="138"/>
+      <c r="AL26" s="139"/>
+      <c r="AM26" s="140"/>
+      <c r="AN26" s="140"/>
+      <c r="AO26" s="140"/>
+      <c r="AP26" s="140"/>
+      <c r="AQ26" s="140"/>
+      <c r="AR26" s="140"/>
+      <c r="AS26" s="140"/>
+      <c r="AT26" s="140"/>
+      <c r="AU26" s="140"/>
+      <c r="AV26" s="140"/>
+      <c r="AW26" s="140"/>
+      <c r="AX26" s="140"/>
+      <c r="AY26" s="140"/>
+      <c r="AZ26" s="140"/>
+      <c r="BA26" s="140"/>
+      <c r="BB26" s="140"/>
+      <c r="BC26" s="140"/>
+      <c r="BD26" s="140"/>
+      <c r="BE26" s="140"/>
+      <c r="BF26" s="140"/>
+      <c r="BG26" s="140"/>
+      <c r="BH26" s="140"/>
+      <c r="BI26" s="140"/>
+      <c r="BJ26" s="140"/>
+      <c r="BK26" s="140"/>
+      <c r="BL26" s="140"/>
+      <c r="BM26" s="140"/>
+      <c r="BN26" s="140"/>
+      <c r="BO26" s="140"/>
+      <c r="BP26" s="140"/>
+      <c r="BQ26" s="140"/>
+      <c r="BR26" s="140"/>
+      <c r="BS26" s="140"/>
+      <c r="BT26" s="140"/>
+      <c r="BU26" s="140"/>
+      <c r="BV26" s="140"/>
+      <c r="BW26" s="140"/>
+      <c r="BX26" s="140"/>
+      <c r="BY26" s="140"/>
+      <c r="BZ26" s="140"/>
+      <c r="CA26" s="140"/>
+      <c r="CB26" s="140"/>
+      <c r="CC26" s="140"/>
+      <c r="CD26" s="140"/>
+      <c r="CE26" s="141"/>
     </row>
     <row r="27" spans="2:83" s="42" customFormat="1" ht="17" customHeight="1">
-      <c r="B27" s="139">
+      <c r="B27" s="142">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C27" s="140"/>
-      <c r="D27" s="147" t="s">
+      <c r="C27" s="143"/>
+      <c r="D27" s="150" t="s">
         <v>85</v>
       </c>
-      <c r="E27" s="148"/>
-      <c r="F27" s="148"/>
-      <c r="G27" s="148"/>
-      <c r="H27" s="148"/>
-      <c r="I27" s="148"/>
-      <c r="J27" s="148"/>
-      <c r="K27" s="148"/>
-      <c r="L27" s="148"/>
-      <c r="M27" s="149"/>
-      <c r="N27" s="144"/>
-      <c r="O27" s="145"/>
-      <c r="P27" s="145"/>
-      <c r="Q27" s="145"/>
-      <c r="R27" s="145"/>
-      <c r="S27" s="145"/>
-      <c r="T27" s="145"/>
-      <c r="U27" s="145"/>
-      <c r="V27" s="145"/>
-      <c r="W27" s="145"/>
-      <c r="X27" s="146"/>
-      <c r="Y27" s="144" t="s">
+      <c r="E27" s="151"/>
+      <c r="F27" s="151"/>
+      <c r="G27" s="151"/>
+      <c r="H27" s="151"/>
+      <c r="I27" s="151"/>
+      <c r="J27" s="151"/>
+      <c r="K27" s="151"/>
+      <c r="L27" s="151"/>
+      <c r="M27" s="152"/>
+      <c r="N27" s="147"/>
+      <c r="O27" s="148"/>
+      <c r="P27" s="148"/>
+      <c r="Q27" s="148"/>
+      <c r="R27" s="148"/>
+      <c r="S27" s="148"/>
+      <c r="T27" s="148"/>
+      <c r="U27" s="148"/>
+      <c r="V27" s="148"/>
+      <c r="W27" s="148"/>
+      <c r="X27" s="149"/>
+      <c r="Y27" s="147" t="s">
         <v>86</v>
       </c>
-      <c r="Z27" s="145"/>
-      <c r="AA27" s="145"/>
-      <c r="AB27" s="145"/>
-      <c r="AC27" s="145"/>
-      <c r="AD27" s="145"/>
-      <c r="AE27" s="145"/>
-      <c r="AF27" s="145"/>
-      <c r="AG27" s="145"/>
-      <c r="AH27" s="145"/>
-      <c r="AI27" s="145"/>
-      <c r="AJ27" s="145"/>
-      <c r="AK27" s="146"/>
-      <c r="AL27" s="136"/>
-      <c r="AM27" s="137"/>
-      <c r="AN27" s="137"/>
-      <c r="AO27" s="137"/>
-      <c r="AP27" s="137"/>
-      <c r="AQ27" s="137"/>
-      <c r="AR27" s="137"/>
-      <c r="AS27" s="137"/>
-      <c r="AT27" s="137"/>
-      <c r="AU27" s="137"/>
-      <c r="AV27" s="137"/>
-      <c r="AW27" s="137"/>
-      <c r="AX27" s="137"/>
-      <c r="AY27" s="137"/>
-      <c r="AZ27" s="137"/>
-      <c r="BA27" s="137"/>
-      <c r="BB27" s="137"/>
-      <c r="BC27" s="137"/>
-      <c r="BD27" s="137"/>
-      <c r="BE27" s="137"/>
-      <c r="BF27" s="137"/>
-      <c r="BG27" s="137"/>
-      <c r="BH27" s="137"/>
-      <c r="BI27" s="137"/>
-      <c r="BJ27" s="137"/>
-      <c r="BK27" s="137"/>
-      <c r="BL27" s="137"/>
-      <c r="BM27" s="137"/>
-      <c r="BN27" s="137"/>
-      <c r="BO27" s="137"/>
-      <c r="BP27" s="137"/>
-      <c r="BQ27" s="137"/>
-      <c r="BR27" s="137"/>
-      <c r="BS27" s="137"/>
-      <c r="BT27" s="137"/>
-      <c r="BU27" s="137"/>
-      <c r="BV27" s="137"/>
-      <c r="BW27" s="137"/>
-      <c r="BX27" s="137"/>
-      <c r="BY27" s="137"/>
-      <c r="BZ27" s="137"/>
-      <c r="CA27" s="137"/>
-      <c r="CB27" s="137"/>
-      <c r="CC27" s="137"/>
-      <c r="CD27" s="137"/>
-      <c r="CE27" s="138"/>
+      <c r="Z27" s="148"/>
+      <c r="AA27" s="148"/>
+      <c r="AB27" s="148"/>
+      <c r="AC27" s="148"/>
+      <c r="AD27" s="148"/>
+      <c r="AE27" s="148"/>
+      <c r="AF27" s="148"/>
+      <c r="AG27" s="148"/>
+      <c r="AH27" s="148"/>
+      <c r="AI27" s="148"/>
+      <c r="AJ27" s="148"/>
+      <c r="AK27" s="149"/>
+      <c r="AL27" s="139"/>
+      <c r="AM27" s="140"/>
+      <c r="AN27" s="140"/>
+      <c r="AO27" s="140"/>
+      <c r="AP27" s="140"/>
+      <c r="AQ27" s="140"/>
+      <c r="AR27" s="140"/>
+      <c r="AS27" s="140"/>
+      <c r="AT27" s="140"/>
+      <c r="AU27" s="140"/>
+      <c r="AV27" s="140"/>
+      <c r="AW27" s="140"/>
+      <c r="AX27" s="140"/>
+      <c r="AY27" s="140"/>
+      <c r="AZ27" s="140"/>
+      <c r="BA27" s="140"/>
+      <c r="BB27" s="140"/>
+      <c r="BC27" s="140"/>
+      <c r="BD27" s="140"/>
+      <c r="BE27" s="140"/>
+      <c r="BF27" s="140"/>
+      <c r="BG27" s="140"/>
+      <c r="BH27" s="140"/>
+      <c r="BI27" s="140"/>
+      <c r="BJ27" s="140"/>
+      <c r="BK27" s="140"/>
+      <c r="BL27" s="140"/>
+      <c r="BM27" s="140"/>
+      <c r="BN27" s="140"/>
+      <c r="BO27" s="140"/>
+      <c r="BP27" s="140"/>
+      <c r="BQ27" s="140"/>
+      <c r="BR27" s="140"/>
+      <c r="BS27" s="140"/>
+      <c r="BT27" s="140"/>
+      <c r="BU27" s="140"/>
+      <c r="BV27" s="140"/>
+      <c r="BW27" s="140"/>
+      <c r="BX27" s="140"/>
+      <c r="BY27" s="140"/>
+      <c r="BZ27" s="140"/>
+      <c r="CA27" s="140"/>
+      <c r="CB27" s="140"/>
+      <c r="CC27" s="140"/>
+      <c r="CD27" s="140"/>
+      <c r="CE27" s="141"/>
     </row>
     <row r="28" spans="2:83" s="42" customFormat="1" ht="17" customHeight="1">
-      <c r="B28" s="139">
+      <c r="B28" s="142">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C28" s="140"/>
-      <c r="D28" s="150"/>
-      <c r="E28" s="151"/>
-      <c r="F28" s="151"/>
-      <c r="G28" s="151"/>
-      <c r="H28" s="151"/>
-      <c r="I28" s="151"/>
-      <c r="J28" s="151"/>
-      <c r="K28" s="151"/>
-      <c r="L28" s="151"/>
-      <c r="M28" s="152"/>
-      <c r="N28" s="144"/>
-      <c r="O28" s="145"/>
-      <c r="P28" s="145"/>
-      <c r="Q28" s="145"/>
-      <c r="R28" s="145"/>
-      <c r="S28" s="145"/>
-      <c r="T28" s="145"/>
-      <c r="U28" s="145"/>
-      <c r="V28" s="145"/>
-      <c r="W28" s="145"/>
-      <c r="X28" s="146"/>
-      <c r="Y28" s="144" t="s">
+      <c r="C28" s="143"/>
+      <c r="D28" s="153"/>
+      <c r="E28" s="154"/>
+      <c r="F28" s="154"/>
+      <c r="G28" s="154"/>
+      <c r="H28" s="154"/>
+      <c r="I28" s="154"/>
+      <c r="J28" s="154"/>
+      <c r="K28" s="154"/>
+      <c r="L28" s="154"/>
+      <c r="M28" s="155"/>
+      <c r="N28" s="147"/>
+      <c r="O28" s="148"/>
+      <c r="P28" s="148"/>
+      <c r="Q28" s="148"/>
+      <c r="R28" s="148"/>
+      <c r="S28" s="148"/>
+      <c r="T28" s="148"/>
+      <c r="U28" s="148"/>
+      <c r="V28" s="148"/>
+      <c r="W28" s="148"/>
+      <c r="X28" s="149"/>
+      <c r="Y28" s="147" t="s">
         <v>122</v>
       </c>
-      <c r="Z28" s="145"/>
-      <c r="AA28" s="145"/>
-      <c r="AB28" s="145"/>
-      <c r="AC28" s="145"/>
-      <c r="AD28" s="145"/>
-      <c r="AE28" s="145"/>
-      <c r="AF28" s="145"/>
-      <c r="AG28" s="145"/>
-      <c r="AH28" s="145"/>
-      <c r="AI28" s="145"/>
-      <c r="AJ28" s="145"/>
-      <c r="AK28" s="146"/>
-      <c r="AL28" s="136"/>
-      <c r="AM28" s="137"/>
-      <c r="AN28" s="137"/>
-      <c r="AO28" s="137"/>
-      <c r="AP28" s="137"/>
-      <c r="AQ28" s="137"/>
-      <c r="AR28" s="137"/>
-      <c r="AS28" s="137"/>
-      <c r="AT28" s="137"/>
-      <c r="AU28" s="137"/>
-      <c r="AV28" s="137"/>
-      <c r="AW28" s="137"/>
-      <c r="AX28" s="137"/>
-      <c r="AY28" s="137"/>
-      <c r="AZ28" s="137"/>
-      <c r="BA28" s="137"/>
-      <c r="BB28" s="137"/>
-      <c r="BC28" s="137"/>
-      <c r="BD28" s="137"/>
-      <c r="BE28" s="137"/>
-      <c r="BF28" s="137"/>
-      <c r="BG28" s="137"/>
-      <c r="BH28" s="137"/>
-      <c r="BI28" s="137"/>
-      <c r="BJ28" s="137"/>
-      <c r="BK28" s="137"/>
-      <c r="BL28" s="137"/>
-      <c r="BM28" s="137"/>
-      <c r="BN28" s="137"/>
-      <c r="BO28" s="137"/>
-      <c r="BP28" s="137"/>
-      <c r="BQ28" s="137"/>
-      <c r="BR28" s="137"/>
-      <c r="BS28" s="137"/>
-      <c r="BT28" s="137"/>
-      <c r="BU28" s="137"/>
-      <c r="BV28" s="137"/>
-      <c r="BW28" s="137"/>
-      <c r="BX28" s="137"/>
-      <c r="BY28" s="137"/>
-      <c r="BZ28" s="137"/>
-      <c r="CA28" s="137"/>
-      <c r="CB28" s="137"/>
-      <c r="CC28" s="137"/>
-      <c r="CD28" s="137"/>
-      <c r="CE28" s="138"/>
+      <c r="Z28" s="148"/>
+      <c r="AA28" s="148"/>
+      <c r="AB28" s="148"/>
+      <c r="AC28" s="148"/>
+      <c r="AD28" s="148"/>
+      <c r="AE28" s="148"/>
+      <c r="AF28" s="148"/>
+      <c r="AG28" s="148"/>
+      <c r="AH28" s="148"/>
+      <c r="AI28" s="148"/>
+      <c r="AJ28" s="148"/>
+      <c r="AK28" s="149"/>
+      <c r="AL28" s="139"/>
+      <c r="AM28" s="140"/>
+      <c r="AN28" s="140"/>
+      <c r="AO28" s="140"/>
+      <c r="AP28" s="140"/>
+      <c r="AQ28" s="140"/>
+      <c r="AR28" s="140"/>
+      <c r="AS28" s="140"/>
+      <c r="AT28" s="140"/>
+      <c r="AU28" s="140"/>
+      <c r="AV28" s="140"/>
+      <c r="AW28" s="140"/>
+      <c r="AX28" s="140"/>
+      <c r="AY28" s="140"/>
+      <c r="AZ28" s="140"/>
+      <c r="BA28" s="140"/>
+      <c r="BB28" s="140"/>
+      <c r="BC28" s="140"/>
+      <c r="BD28" s="140"/>
+      <c r="BE28" s="140"/>
+      <c r="BF28" s="140"/>
+      <c r="BG28" s="140"/>
+      <c r="BH28" s="140"/>
+      <c r="BI28" s="140"/>
+      <c r="BJ28" s="140"/>
+      <c r="BK28" s="140"/>
+      <c r="BL28" s="140"/>
+      <c r="BM28" s="140"/>
+      <c r="BN28" s="140"/>
+      <c r="BO28" s="140"/>
+      <c r="BP28" s="140"/>
+      <c r="BQ28" s="140"/>
+      <c r="BR28" s="140"/>
+      <c r="BS28" s="140"/>
+      <c r="BT28" s="140"/>
+      <c r="BU28" s="140"/>
+      <c r="BV28" s="140"/>
+      <c r="BW28" s="140"/>
+      <c r="BX28" s="140"/>
+      <c r="BY28" s="140"/>
+      <c r="BZ28" s="140"/>
+      <c r="CA28" s="140"/>
+      <c r="CB28" s="140"/>
+      <c r="CC28" s="140"/>
+      <c r="CD28" s="140"/>
+      <c r="CE28" s="141"/>
     </row>
     <row r="29" spans="2:83" s="42" customFormat="1" ht="17" customHeight="1">
-      <c r="B29" s="139">
+      <c r="B29" s="142">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C29" s="140"/>
-      <c r="D29" s="150"/>
-      <c r="E29" s="151"/>
-      <c r="F29" s="151"/>
-      <c r="G29" s="151"/>
-      <c r="H29" s="151"/>
-      <c r="I29" s="151"/>
-      <c r="J29" s="151"/>
-      <c r="K29" s="151"/>
-      <c r="L29" s="151"/>
-      <c r="M29" s="152"/>
-      <c r="N29" s="144"/>
-      <c r="O29" s="145"/>
-      <c r="P29" s="145"/>
-      <c r="Q29" s="145"/>
-      <c r="R29" s="145"/>
-      <c r="S29" s="145"/>
-      <c r="T29" s="145"/>
-      <c r="U29" s="145"/>
-      <c r="V29" s="145"/>
-      <c r="W29" s="145"/>
-      <c r="X29" s="146"/>
-      <c r="Y29" s="144" t="s">
+      <c r="C29" s="143"/>
+      <c r="D29" s="153"/>
+      <c r="E29" s="154"/>
+      <c r="F29" s="154"/>
+      <c r="G29" s="154"/>
+      <c r="H29" s="154"/>
+      <c r="I29" s="154"/>
+      <c r="J29" s="154"/>
+      <c r="K29" s="154"/>
+      <c r="L29" s="154"/>
+      <c r="M29" s="155"/>
+      <c r="N29" s="147"/>
+      <c r="O29" s="148"/>
+      <c r="P29" s="148"/>
+      <c r="Q29" s="148"/>
+      <c r="R29" s="148"/>
+      <c r="S29" s="148"/>
+      <c r="T29" s="148"/>
+      <c r="U29" s="148"/>
+      <c r="V29" s="148"/>
+      <c r="W29" s="148"/>
+      <c r="X29" s="149"/>
+      <c r="Y29" s="147" t="s">
         <v>121</v>
       </c>
-      <c r="Z29" s="145"/>
-      <c r="AA29" s="145"/>
-      <c r="AB29" s="145"/>
-      <c r="AC29" s="145"/>
-      <c r="AD29" s="145"/>
-      <c r="AE29" s="145"/>
-      <c r="AF29" s="145"/>
-      <c r="AG29" s="145"/>
-      <c r="AH29" s="145"/>
-      <c r="AI29" s="145"/>
-      <c r="AJ29" s="145"/>
-      <c r="AK29" s="146"/>
-      <c r="AL29" s="136"/>
-      <c r="AM29" s="137"/>
-      <c r="AN29" s="137"/>
-      <c r="AO29" s="137"/>
-      <c r="AP29" s="137"/>
-      <c r="AQ29" s="137"/>
-      <c r="AR29" s="137"/>
-      <c r="AS29" s="137"/>
-      <c r="AT29" s="137"/>
-      <c r="AU29" s="137"/>
-      <c r="AV29" s="137"/>
-      <c r="AW29" s="137"/>
-      <c r="AX29" s="137"/>
-      <c r="AY29" s="137"/>
-      <c r="AZ29" s="137"/>
-      <c r="BA29" s="137"/>
-      <c r="BB29" s="137"/>
-      <c r="BC29" s="137"/>
-      <c r="BD29" s="137"/>
-      <c r="BE29" s="137"/>
-      <c r="BF29" s="137"/>
-      <c r="BG29" s="137"/>
-      <c r="BH29" s="137"/>
-      <c r="BI29" s="137"/>
-      <c r="BJ29" s="137"/>
-      <c r="BK29" s="137"/>
-      <c r="BL29" s="137"/>
-      <c r="BM29" s="137"/>
-      <c r="BN29" s="137"/>
-      <c r="BO29" s="137"/>
-      <c r="BP29" s="137"/>
-      <c r="BQ29" s="137"/>
-      <c r="BR29" s="137"/>
-      <c r="BS29" s="137"/>
-      <c r="BT29" s="137"/>
-      <c r="BU29" s="137"/>
-      <c r="BV29" s="137"/>
-      <c r="BW29" s="137"/>
-      <c r="BX29" s="137"/>
-      <c r="BY29" s="137"/>
-      <c r="BZ29" s="137"/>
-      <c r="CA29" s="137"/>
-      <c r="CB29" s="137"/>
-      <c r="CC29" s="137"/>
-      <c r="CD29" s="137"/>
-      <c r="CE29" s="138"/>
+      <c r="Z29" s="148"/>
+      <c r="AA29" s="148"/>
+      <c r="AB29" s="148"/>
+      <c r="AC29" s="148"/>
+      <c r="AD29" s="148"/>
+      <c r="AE29" s="148"/>
+      <c r="AF29" s="148"/>
+      <c r="AG29" s="148"/>
+      <c r="AH29" s="148"/>
+      <c r="AI29" s="148"/>
+      <c r="AJ29" s="148"/>
+      <c r="AK29" s="149"/>
+      <c r="AL29" s="139"/>
+      <c r="AM29" s="140"/>
+      <c r="AN29" s="140"/>
+      <c r="AO29" s="140"/>
+      <c r="AP29" s="140"/>
+      <c r="AQ29" s="140"/>
+      <c r="AR29" s="140"/>
+      <c r="AS29" s="140"/>
+      <c r="AT29" s="140"/>
+      <c r="AU29" s="140"/>
+      <c r="AV29" s="140"/>
+      <c r="AW29" s="140"/>
+      <c r="AX29" s="140"/>
+      <c r="AY29" s="140"/>
+      <c r="AZ29" s="140"/>
+      <c r="BA29" s="140"/>
+      <c r="BB29" s="140"/>
+      <c r="BC29" s="140"/>
+      <c r="BD29" s="140"/>
+      <c r="BE29" s="140"/>
+      <c r="BF29" s="140"/>
+      <c r="BG29" s="140"/>
+      <c r="BH29" s="140"/>
+      <c r="BI29" s="140"/>
+      <c r="BJ29" s="140"/>
+      <c r="BK29" s="140"/>
+      <c r="BL29" s="140"/>
+      <c r="BM29" s="140"/>
+      <c r="BN29" s="140"/>
+      <c r="BO29" s="140"/>
+      <c r="BP29" s="140"/>
+      <c r="BQ29" s="140"/>
+      <c r="BR29" s="140"/>
+      <c r="BS29" s="140"/>
+      <c r="BT29" s="140"/>
+      <c r="BU29" s="140"/>
+      <c r="BV29" s="140"/>
+      <c r="BW29" s="140"/>
+      <c r="BX29" s="140"/>
+      <c r="BY29" s="140"/>
+      <c r="BZ29" s="140"/>
+      <c r="CA29" s="140"/>
+      <c r="CB29" s="140"/>
+      <c r="CC29" s="140"/>
+      <c r="CD29" s="140"/>
+      <c r="CE29" s="141"/>
     </row>
     <row r="30" spans="2:83" s="42" customFormat="1" ht="17" customHeight="1">
-      <c r="B30" s="139">
+      <c r="B30" s="142">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="C30" s="140"/>
-      <c r="D30" s="150"/>
-      <c r="E30" s="151"/>
-      <c r="F30" s="151"/>
-      <c r="G30" s="151"/>
-      <c r="H30" s="151"/>
-      <c r="I30" s="151"/>
-      <c r="J30" s="151"/>
-      <c r="K30" s="151"/>
-      <c r="L30" s="151"/>
-      <c r="M30" s="152"/>
-      <c r="N30" s="144"/>
-      <c r="O30" s="145"/>
-      <c r="P30" s="145"/>
-      <c r="Q30" s="145"/>
-      <c r="R30" s="145"/>
-      <c r="S30" s="145"/>
-      <c r="T30" s="145"/>
-      <c r="U30" s="145"/>
-      <c r="V30" s="145"/>
-      <c r="W30" s="145"/>
-      <c r="X30" s="146"/>
-      <c r="Y30" s="144" t="s">
+      <c r="C30" s="143"/>
+      <c r="D30" s="153"/>
+      <c r="E30" s="154"/>
+      <c r="F30" s="154"/>
+      <c r="G30" s="154"/>
+      <c r="H30" s="154"/>
+      <c r="I30" s="154"/>
+      <c r="J30" s="154"/>
+      <c r="K30" s="154"/>
+      <c r="L30" s="154"/>
+      <c r="M30" s="155"/>
+      <c r="N30" s="147"/>
+      <c r="O30" s="148"/>
+      <c r="P30" s="148"/>
+      <c r="Q30" s="148"/>
+      <c r="R30" s="148"/>
+      <c r="S30" s="148"/>
+      <c r="T30" s="148"/>
+      <c r="U30" s="148"/>
+      <c r="V30" s="148"/>
+      <c r="W30" s="148"/>
+      <c r="X30" s="149"/>
+      <c r="Y30" s="147" t="s">
         <v>87</v>
       </c>
-      <c r="Z30" s="145"/>
-      <c r="AA30" s="145"/>
-      <c r="AB30" s="145"/>
-      <c r="AC30" s="145"/>
-      <c r="AD30" s="145"/>
-      <c r="AE30" s="145"/>
-      <c r="AF30" s="145"/>
-      <c r="AG30" s="145"/>
-      <c r="AH30" s="145"/>
-      <c r="AI30" s="145"/>
-      <c r="AJ30" s="145"/>
-      <c r="AK30" s="146"/>
-      <c r="AL30" s="136"/>
-      <c r="AM30" s="137"/>
-      <c r="AN30" s="137"/>
-      <c r="AO30" s="137"/>
-      <c r="AP30" s="137"/>
-      <c r="AQ30" s="137"/>
-      <c r="AR30" s="137"/>
-      <c r="AS30" s="137"/>
-      <c r="AT30" s="137"/>
-      <c r="AU30" s="137"/>
-      <c r="AV30" s="137"/>
-      <c r="AW30" s="137"/>
-      <c r="AX30" s="137"/>
-      <c r="AY30" s="137"/>
-      <c r="AZ30" s="137"/>
-      <c r="BA30" s="137"/>
-      <c r="BB30" s="137"/>
-      <c r="BC30" s="137"/>
-      <c r="BD30" s="137"/>
-      <c r="BE30" s="137"/>
-      <c r="BF30" s="137"/>
-      <c r="BG30" s="137"/>
-      <c r="BH30" s="137"/>
-      <c r="BI30" s="137"/>
-      <c r="BJ30" s="137"/>
-      <c r="BK30" s="137"/>
-      <c r="BL30" s="137"/>
-      <c r="BM30" s="137"/>
-      <c r="BN30" s="137"/>
-      <c r="BO30" s="137"/>
-      <c r="BP30" s="137"/>
-      <c r="BQ30" s="137"/>
-      <c r="BR30" s="137"/>
-      <c r="BS30" s="137"/>
-      <c r="BT30" s="137"/>
-      <c r="BU30" s="137"/>
-      <c r="BV30" s="137"/>
-      <c r="BW30" s="137"/>
-      <c r="BX30" s="137"/>
-      <c r="BY30" s="137"/>
-      <c r="BZ30" s="137"/>
-      <c r="CA30" s="137"/>
-      <c r="CB30" s="137"/>
-      <c r="CC30" s="137"/>
-      <c r="CD30" s="137"/>
-      <c r="CE30" s="138"/>
+      <c r="Z30" s="148"/>
+      <c r="AA30" s="148"/>
+      <c r="AB30" s="148"/>
+      <c r="AC30" s="148"/>
+      <c r="AD30" s="148"/>
+      <c r="AE30" s="148"/>
+      <c r="AF30" s="148"/>
+      <c r="AG30" s="148"/>
+      <c r="AH30" s="148"/>
+      <c r="AI30" s="148"/>
+      <c r="AJ30" s="148"/>
+      <c r="AK30" s="149"/>
+      <c r="AL30" s="139"/>
+      <c r="AM30" s="140"/>
+      <c r="AN30" s="140"/>
+      <c r="AO30" s="140"/>
+      <c r="AP30" s="140"/>
+      <c r="AQ30" s="140"/>
+      <c r="AR30" s="140"/>
+      <c r="AS30" s="140"/>
+      <c r="AT30" s="140"/>
+      <c r="AU30" s="140"/>
+      <c r="AV30" s="140"/>
+      <c r="AW30" s="140"/>
+      <c r="AX30" s="140"/>
+      <c r="AY30" s="140"/>
+      <c r="AZ30" s="140"/>
+      <c r="BA30" s="140"/>
+      <c r="BB30" s="140"/>
+      <c r="BC30" s="140"/>
+      <c r="BD30" s="140"/>
+      <c r="BE30" s="140"/>
+      <c r="BF30" s="140"/>
+      <c r="BG30" s="140"/>
+      <c r="BH30" s="140"/>
+      <c r="BI30" s="140"/>
+      <c r="BJ30" s="140"/>
+      <c r="BK30" s="140"/>
+      <c r="BL30" s="140"/>
+      <c r="BM30" s="140"/>
+      <c r="BN30" s="140"/>
+      <c r="BO30" s="140"/>
+      <c r="BP30" s="140"/>
+      <c r="BQ30" s="140"/>
+      <c r="BR30" s="140"/>
+      <c r="BS30" s="140"/>
+      <c r="BT30" s="140"/>
+      <c r="BU30" s="140"/>
+      <c r="BV30" s="140"/>
+      <c r="BW30" s="140"/>
+      <c r="BX30" s="140"/>
+      <c r="BY30" s="140"/>
+      <c r="BZ30" s="140"/>
+      <c r="CA30" s="140"/>
+      <c r="CB30" s="140"/>
+      <c r="CC30" s="140"/>
+      <c r="CD30" s="140"/>
+      <c r="CE30" s="141"/>
     </row>
     <row r="31" spans="2:83" s="42" customFormat="1" ht="17" customHeight="1">
-      <c r="B31" s="139">
+      <c r="B31" s="142">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="C31" s="140"/>
-      <c r="D31" s="150"/>
-      <c r="E31" s="151"/>
-      <c r="F31" s="151"/>
-      <c r="G31" s="151"/>
-      <c r="H31" s="151"/>
-      <c r="I31" s="151"/>
-      <c r="J31" s="151"/>
-      <c r="K31" s="151"/>
-      <c r="L31" s="151"/>
-      <c r="M31" s="152"/>
-      <c r="N31" s="144"/>
-      <c r="O31" s="145"/>
-      <c r="P31" s="145"/>
-      <c r="Q31" s="145"/>
-      <c r="R31" s="145"/>
-      <c r="S31" s="145"/>
-      <c r="T31" s="145"/>
-      <c r="U31" s="145"/>
-      <c r="V31" s="145"/>
-      <c r="W31" s="145"/>
-      <c r="X31" s="146"/>
-      <c r="Y31" s="144" t="s">
+      <c r="C31" s="143"/>
+      <c r="D31" s="153"/>
+      <c r="E31" s="154"/>
+      <c r="F31" s="154"/>
+      <c r="G31" s="154"/>
+      <c r="H31" s="154"/>
+      <c r="I31" s="154"/>
+      <c r="J31" s="154"/>
+      <c r="K31" s="154"/>
+      <c r="L31" s="154"/>
+      <c r="M31" s="155"/>
+      <c r="N31" s="147"/>
+      <c r="O31" s="148"/>
+      <c r="P31" s="148"/>
+      <c r="Q31" s="148"/>
+      <c r="R31" s="148"/>
+      <c r="S31" s="148"/>
+      <c r="T31" s="148"/>
+      <c r="U31" s="148"/>
+      <c r="V31" s="148"/>
+      <c r="W31" s="148"/>
+      <c r="X31" s="149"/>
+      <c r="Y31" s="147" t="s">
         <v>88</v>
       </c>
-      <c r="Z31" s="145"/>
-      <c r="AA31" s="145"/>
-      <c r="AB31" s="145"/>
-      <c r="AC31" s="145"/>
-      <c r="AD31" s="145"/>
-      <c r="AE31" s="145"/>
-      <c r="AF31" s="145"/>
-      <c r="AG31" s="145"/>
-      <c r="AH31" s="145"/>
-      <c r="AI31" s="145"/>
-      <c r="AJ31" s="145"/>
-      <c r="AK31" s="146"/>
-      <c r="AL31" s="136"/>
-      <c r="AM31" s="137"/>
-      <c r="AN31" s="137"/>
-      <c r="AO31" s="137"/>
-      <c r="AP31" s="137"/>
-      <c r="AQ31" s="137"/>
-      <c r="AR31" s="137"/>
-      <c r="AS31" s="137"/>
-      <c r="AT31" s="137"/>
-      <c r="AU31" s="137"/>
-      <c r="AV31" s="137"/>
-      <c r="AW31" s="137"/>
-      <c r="AX31" s="137"/>
-      <c r="AY31" s="137"/>
-      <c r="AZ31" s="137"/>
-      <c r="BA31" s="137"/>
-      <c r="BB31" s="137"/>
-      <c r="BC31" s="137"/>
-      <c r="BD31" s="137"/>
-      <c r="BE31" s="137"/>
-      <c r="BF31" s="137"/>
-      <c r="BG31" s="137"/>
-      <c r="BH31" s="137"/>
-      <c r="BI31" s="137"/>
-      <c r="BJ31" s="137"/>
-      <c r="BK31" s="137"/>
-      <c r="BL31" s="137"/>
-      <c r="BM31" s="137"/>
-      <c r="BN31" s="137"/>
-      <c r="BO31" s="137"/>
-      <c r="BP31" s="137"/>
-      <c r="BQ31" s="137"/>
-      <c r="BR31" s="137"/>
-      <c r="BS31" s="137"/>
-      <c r="BT31" s="137"/>
-      <c r="BU31" s="137"/>
-      <c r="BV31" s="137"/>
-      <c r="BW31" s="137"/>
-      <c r="BX31" s="137"/>
-      <c r="BY31" s="137"/>
-      <c r="BZ31" s="137"/>
-      <c r="CA31" s="137"/>
-      <c r="CB31" s="137"/>
-      <c r="CC31" s="137"/>
-      <c r="CD31" s="137"/>
-      <c r="CE31" s="138"/>
+      <c r="Z31" s="148"/>
+      <c r="AA31" s="148"/>
+      <c r="AB31" s="148"/>
+      <c r="AC31" s="148"/>
+      <c r="AD31" s="148"/>
+      <c r="AE31" s="148"/>
+      <c r="AF31" s="148"/>
+      <c r="AG31" s="148"/>
+      <c r="AH31" s="148"/>
+      <c r="AI31" s="148"/>
+      <c r="AJ31" s="148"/>
+      <c r="AK31" s="149"/>
+      <c r="AL31" s="139"/>
+      <c r="AM31" s="140"/>
+      <c r="AN31" s="140"/>
+      <c r="AO31" s="140"/>
+      <c r="AP31" s="140"/>
+      <c r="AQ31" s="140"/>
+      <c r="AR31" s="140"/>
+      <c r="AS31" s="140"/>
+      <c r="AT31" s="140"/>
+      <c r="AU31" s="140"/>
+      <c r="AV31" s="140"/>
+      <c r="AW31" s="140"/>
+      <c r="AX31" s="140"/>
+      <c r="AY31" s="140"/>
+      <c r="AZ31" s="140"/>
+      <c r="BA31" s="140"/>
+      <c r="BB31" s="140"/>
+      <c r="BC31" s="140"/>
+      <c r="BD31" s="140"/>
+      <c r="BE31" s="140"/>
+      <c r="BF31" s="140"/>
+      <c r="BG31" s="140"/>
+      <c r="BH31" s="140"/>
+      <c r="BI31" s="140"/>
+      <c r="BJ31" s="140"/>
+      <c r="BK31" s="140"/>
+      <c r="BL31" s="140"/>
+      <c r="BM31" s="140"/>
+      <c r="BN31" s="140"/>
+      <c r="BO31" s="140"/>
+      <c r="BP31" s="140"/>
+      <c r="BQ31" s="140"/>
+      <c r="BR31" s="140"/>
+      <c r="BS31" s="140"/>
+      <c r="BT31" s="140"/>
+      <c r="BU31" s="140"/>
+      <c r="BV31" s="140"/>
+      <c r="BW31" s="140"/>
+      <c r="BX31" s="140"/>
+      <c r="BY31" s="140"/>
+      <c r="BZ31" s="140"/>
+      <c r="CA31" s="140"/>
+      <c r="CB31" s="140"/>
+      <c r="CC31" s="140"/>
+      <c r="CD31" s="140"/>
+      <c r="CE31" s="141"/>
     </row>
     <row r="32" spans="2:83" s="42" customFormat="1" ht="17" customHeight="1">
-      <c r="B32" s="139">
+      <c r="B32" s="142">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="C32" s="140"/>
-      <c r="D32" s="150"/>
-      <c r="E32" s="151"/>
-      <c r="F32" s="151"/>
-      <c r="G32" s="151"/>
-      <c r="H32" s="151"/>
-      <c r="I32" s="151"/>
-      <c r="J32" s="151"/>
-      <c r="K32" s="151"/>
-      <c r="L32" s="151"/>
-      <c r="M32" s="152"/>
-      <c r="N32" s="144"/>
-      <c r="O32" s="145"/>
-      <c r="P32" s="145"/>
-      <c r="Q32" s="145"/>
-      <c r="R32" s="145"/>
-      <c r="S32" s="145"/>
-      <c r="T32" s="145"/>
-      <c r="U32" s="145"/>
-      <c r="V32" s="145"/>
-      <c r="W32" s="145"/>
-      <c r="X32" s="146"/>
-      <c r="Y32" s="144" t="s">
+      <c r="C32" s="143"/>
+      <c r="D32" s="153"/>
+      <c r="E32" s="154"/>
+      <c r="F32" s="154"/>
+      <c r="G32" s="154"/>
+      <c r="H32" s="154"/>
+      <c r="I32" s="154"/>
+      <c r="J32" s="154"/>
+      <c r="K32" s="154"/>
+      <c r="L32" s="154"/>
+      <c r="M32" s="155"/>
+      <c r="N32" s="147"/>
+      <c r="O32" s="148"/>
+      <c r="P32" s="148"/>
+      <c r="Q32" s="148"/>
+      <c r="R32" s="148"/>
+      <c r="S32" s="148"/>
+      <c r="T32" s="148"/>
+      <c r="U32" s="148"/>
+      <c r="V32" s="148"/>
+      <c r="W32" s="148"/>
+      <c r="X32" s="149"/>
+      <c r="Y32" s="147" t="s">
         <v>89</v>
       </c>
-      <c r="Z32" s="145"/>
-      <c r="AA32" s="145"/>
-      <c r="AB32" s="145"/>
-      <c r="AC32" s="145"/>
-      <c r="AD32" s="145"/>
-      <c r="AE32" s="145"/>
-      <c r="AF32" s="145"/>
-      <c r="AG32" s="145"/>
-      <c r="AH32" s="145"/>
-      <c r="AI32" s="145"/>
-      <c r="AJ32" s="145"/>
-      <c r="AK32" s="146"/>
-      <c r="AL32" s="136"/>
-      <c r="AM32" s="137"/>
-      <c r="AN32" s="137"/>
-      <c r="AO32" s="137"/>
-      <c r="AP32" s="137"/>
-      <c r="AQ32" s="137"/>
-      <c r="AR32" s="137"/>
-      <c r="AS32" s="137"/>
-      <c r="AT32" s="137"/>
-      <c r="AU32" s="137"/>
-      <c r="AV32" s="137"/>
-      <c r="AW32" s="137"/>
-      <c r="AX32" s="137"/>
-      <c r="AY32" s="137"/>
-      <c r="AZ32" s="137"/>
-      <c r="BA32" s="137"/>
-      <c r="BB32" s="137"/>
-      <c r="BC32" s="137"/>
-      <c r="BD32" s="137"/>
-      <c r="BE32" s="137"/>
-      <c r="BF32" s="137"/>
-      <c r="BG32" s="137"/>
-      <c r="BH32" s="137"/>
-      <c r="BI32" s="137"/>
-      <c r="BJ32" s="137"/>
-      <c r="BK32" s="137"/>
-      <c r="BL32" s="137"/>
-      <c r="BM32" s="137"/>
-      <c r="BN32" s="137"/>
-      <c r="BO32" s="137"/>
-      <c r="BP32" s="137"/>
-      <c r="BQ32" s="137"/>
-      <c r="BR32" s="137"/>
-      <c r="BS32" s="137"/>
-      <c r="BT32" s="137"/>
-      <c r="BU32" s="137"/>
-      <c r="BV32" s="137"/>
-      <c r="BW32" s="137"/>
-      <c r="BX32" s="137"/>
-      <c r="BY32" s="137"/>
-      <c r="BZ32" s="137"/>
-      <c r="CA32" s="137"/>
-      <c r="CB32" s="137"/>
-      <c r="CC32" s="137"/>
-      <c r="CD32" s="137"/>
-      <c r="CE32" s="138"/>
+      <c r="Z32" s="148"/>
+      <c r="AA32" s="148"/>
+      <c r="AB32" s="148"/>
+      <c r="AC32" s="148"/>
+      <c r="AD32" s="148"/>
+      <c r="AE32" s="148"/>
+      <c r="AF32" s="148"/>
+      <c r="AG32" s="148"/>
+      <c r="AH32" s="148"/>
+      <c r="AI32" s="148"/>
+      <c r="AJ32" s="148"/>
+      <c r="AK32" s="149"/>
+      <c r="AL32" s="139"/>
+      <c r="AM32" s="140"/>
+      <c r="AN32" s="140"/>
+      <c r="AO32" s="140"/>
+      <c r="AP32" s="140"/>
+      <c r="AQ32" s="140"/>
+      <c r="AR32" s="140"/>
+      <c r="AS32" s="140"/>
+      <c r="AT32" s="140"/>
+      <c r="AU32" s="140"/>
+      <c r="AV32" s="140"/>
+      <c r="AW32" s="140"/>
+      <c r="AX32" s="140"/>
+      <c r="AY32" s="140"/>
+      <c r="AZ32" s="140"/>
+      <c r="BA32" s="140"/>
+      <c r="BB32" s="140"/>
+      <c r="BC32" s="140"/>
+      <c r="BD32" s="140"/>
+      <c r="BE32" s="140"/>
+      <c r="BF32" s="140"/>
+      <c r="BG32" s="140"/>
+      <c r="BH32" s="140"/>
+      <c r="BI32" s="140"/>
+      <c r="BJ32" s="140"/>
+      <c r="BK32" s="140"/>
+      <c r="BL32" s="140"/>
+      <c r="BM32" s="140"/>
+      <c r="BN32" s="140"/>
+      <c r="BO32" s="140"/>
+      <c r="BP32" s="140"/>
+      <c r="BQ32" s="140"/>
+      <c r="BR32" s="140"/>
+      <c r="BS32" s="140"/>
+      <c r="BT32" s="140"/>
+      <c r="BU32" s="140"/>
+      <c r="BV32" s="140"/>
+      <c r="BW32" s="140"/>
+      <c r="BX32" s="140"/>
+      <c r="BY32" s="140"/>
+      <c r="BZ32" s="140"/>
+      <c r="CA32" s="140"/>
+      <c r="CB32" s="140"/>
+      <c r="CC32" s="140"/>
+      <c r="CD32" s="140"/>
+      <c r="CE32" s="141"/>
     </row>
     <row r="33" spans="2:83" s="42" customFormat="1" ht="17" customHeight="1">
-      <c r="B33" s="139">
+      <c r="B33" s="142">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="C33" s="140"/>
-      <c r="D33" s="150"/>
-      <c r="E33" s="151"/>
-      <c r="F33" s="151"/>
-      <c r="G33" s="151"/>
-      <c r="H33" s="151"/>
-      <c r="I33" s="151"/>
-      <c r="J33" s="151"/>
-      <c r="K33" s="151"/>
-      <c r="L33" s="151"/>
-      <c r="M33" s="152"/>
-      <c r="N33" s="144"/>
-      <c r="O33" s="145"/>
-      <c r="P33" s="145"/>
-      <c r="Q33" s="145"/>
-      <c r="R33" s="145"/>
-      <c r="S33" s="145"/>
-      <c r="T33" s="145"/>
-      <c r="U33" s="145"/>
-      <c r="V33" s="145"/>
-      <c r="W33" s="145"/>
-      <c r="X33" s="146"/>
-      <c r="Y33" s="144" t="s">
+      <c r="C33" s="143"/>
+      <c r="D33" s="153"/>
+      <c r="E33" s="154"/>
+      <c r="F33" s="154"/>
+      <c r="G33" s="154"/>
+      <c r="H33" s="154"/>
+      <c r="I33" s="154"/>
+      <c r="J33" s="154"/>
+      <c r="K33" s="154"/>
+      <c r="L33" s="154"/>
+      <c r="M33" s="155"/>
+      <c r="N33" s="147"/>
+      <c r="O33" s="148"/>
+      <c r="P33" s="148"/>
+      <c r="Q33" s="148"/>
+      <c r="R33" s="148"/>
+      <c r="S33" s="148"/>
+      <c r="T33" s="148"/>
+      <c r="U33" s="148"/>
+      <c r="V33" s="148"/>
+      <c r="W33" s="148"/>
+      <c r="X33" s="149"/>
+      <c r="Y33" s="147" t="s">
         <v>90</v>
       </c>
-      <c r="Z33" s="145"/>
-      <c r="AA33" s="145"/>
-      <c r="AB33" s="145"/>
-      <c r="AC33" s="145"/>
-      <c r="AD33" s="145"/>
-      <c r="AE33" s="145"/>
-      <c r="AF33" s="145"/>
-      <c r="AG33" s="145"/>
-      <c r="AH33" s="145"/>
-      <c r="AI33" s="145"/>
-      <c r="AJ33" s="145"/>
-      <c r="AK33" s="146"/>
-      <c r="AL33" s="136"/>
-      <c r="AM33" s="137"/>
-      <c r="AN33" s="137"/>
-      <c r="AO33" s="137"/>
-      <c r="AP33" s="137"/>
-      <c r="AQ33" s="137"/>
-      <c r="AR33" s="137"/>
-      <c r="AS33" s="137"/>
-      <c r="AT33" s="137"/>
-      <c r="AU33" s="137"/>
-      <c r="AV33" s="137"/>
-      <c r="AW33" s="137"/>
-      <c r="AX33" s="137"/>
-      <c r="AY33" s="137"/>
-      <c r="AZ33" s="137"/>
-      <c r="BA33" s="137"/>
-      <c r="BB33" s="137"/>
-      <c r="BC33" s="137"/>
-      <c r="BD33" s="137"/>
-      <c r="BE33" s="137"/>
-      <c r="BF33" s="137"/>
-      <c r="BG33" s="137"/>
-      <c r="BH33" s="137"/>
-      <c r="BI33" s="137"/>
-      <c r="BJ33" s="137"/>
-      <c r="BK33" s="137"/>
-      <c r="BL33" s="137"/>
-      <c r="BM33" s="137"/>
-      <c r="BN33" s="137"/>
-      <c r="BO33" s="137"/>
-      <c r="BP33" s="137"/>
-      <c r="BQ33" s="137"/>
-      <c r="BR33" s="137"/>
-      <c r="BS33" s="137"/>
-      <c r="BT33" s="137"/>
-      <c r="BU33" s="137"/>
-      <c r="BV33" s="137"/>
-      <c r="BW33" s="137"/>
-      <c r="BX33" s="137"/>
-      <c r="BY33" s="137"/>
-      <c r="BZ33" s="137"/>
-      <c r="CA33" s="137"/>
-      <c r="CB33" s="137"/>
-      <c r="CC33" s="137"/>
-      <c r="CD33" s="137"/>
-      <c r="CE33" s="138"/>
+      <c r="Z33" s="148"/>
+      <c r="AA33" s="148"/>
+      <c r="AB33" s="148"/>
+      <c r="AC33" s="148"/>
+      <c r="AD33" s="148"/>
+      <c r="AE33" s="148"/>
+      <c r="AF33" s="148"/>
+      <c r="AG33" s="148"/>
+      <c r="AH33" s="148"/>
+      <c r="AI33" s="148"/>
+      <c r="AJ33" s="148"/>
+      <c r="AK33" s="149"/>
+      <c r="AL33" s="139"/>
+      <c r="AM33" s="140"/>
+      <c r="AN33" s="140"/>
+      <c r="AO33" s="140"/>
+      <c r="AP33" s="140"/>
+      <c r="AQ33" s="140"/>
+      <c r="AR33" s="140"/>
+      <c r="AS33" s="140"/>
+      <c r="AT33" s="140"/>
+      <c r="AU33" s="140"/>
+      <c r="AV33" s="140"/>
+      <c r="AW33" s="140"/>
+      <c r="AX33" s="140"/>
+      <c r="AY33" s="140"/>
+      <c r="AZ33" s="140"/>
+      <c r="BA33" s="140"/>
+      <c r="BB33" s="140"/>
+      <c r="BC33" s="140"/>
+      <c r="BD33" s="140"/>
+      <c r="BE33" s="140"/>
+      <c r="BF33" s="140"/>
+      <c r="BG33" s="140"/>
+      <c r="BH33" s="140"/>
+      <c r="BI33" s="140"/>
+      <c r="BJ33" s="140"/>
+      <c r="BK33" s="140"/>
+      <c r="BL33" s="140"/>
+      <c r="BM33" s="140"/>
+      <c r="BN33" s="140"/>
+      <c r="BO33" s="140"/>
+      <c r="BP33" s="140"/>
+      <c r="BQ33" s="140"/>
+      <c r="BR33" s="140"/>
+      <c r="BS33" s="140"/>
+      <c r="BT33" s="140"/>
+      <c r="BU33" s="140"/>
+      <c r="BV33" s="140"/>
+      <c r="BW33" s="140"/>
+      <c r="BX33" s="140"/>
+      <c r="BY33" s="140"/>
+      <c r="BZ33" s="140"/>
+      <c r="CA33" s="140"/>
+      <c r="CB33" s="140"/>
+      <c r="CC33" s="140"/>
+      <c r="CD33" s="140"/>
+      <c r="CE33" s="141"/>
     </row>
     <row r="34" spans="2:83" s="42" customFormat="1" ht="17" customHeight="1">
-      <c r="B34" s="139">
+      <c r="B34" s="142">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="C34" s="140"/>
-      <c r="D34" s="150"/>
-      <c r="E34" s="151"/>
-      <c r="F34" s="151"/>
-      <c r="G34" s="151"/>
-      <c r="H34" s="151"/>
-      <c r="I34" s="151"/>
-      <c r="J34" s="151"/>
-      <c r="K34" s="151"/>
-      <c r="L34" s="151"/>
-      <c r="M34" s="152"/>
-      <c r="N34" s="144"/>
-      <c r="O34" s="145"/>
-      <c r="P34" s="145"/>
-      <c r="Q34" s="145"/>
-      <c r="R34" s="145"/>
-      <c r="S34" s="145"/>
-      <c r="T34" s="145"/>
-      <c r="U34" s="145"/>
-      <c r="V34" s="145"/>
-      <c r="W34" s="145"/>
-      <c r="X34" s="146"/>
-      <c r="Y34" s="144" t="s">
+      <c r="C34" s="143"/>
+      <c r="D34" s="153"/>
+      <c r="E34" s="154"/>
+      <c r="F34" s="154"/>
+      <c r="G34" s="154"/>
+      <c r="H34" s="154"/>
+      <c r="I34" s="154"/>
+      <c r="J34" s="154"/>
+      <c r="K34" s="154"/>
+      <c r="L34" s="154"/>
+      <c r="M34" s="155"/>
+      <c r="N34" s="147"/>
+      <c r="O34" s="148"/>
+      <c r="P34" s="148"/>
+      <c r="Q34" s="148"/>
+      <c r="R34" s="148"/>
+      <c r="S34" s="148"/>
+      <c r="T34" s="148"/>
+      <c r="U34" s="148"/>
+      <c r="V34" s="148"/>
+      <c r="W34" s="148"/>
+      <c r="X34" s="149"/>
+      <c r="Y34" s="147" t="s">
         <v>91</v>
       </c>
-      <c r="Z34" s="145"/>
-      <c r="AA34" s="145"/>
-      <c r="AB34" s="145"/>
-      <c r="AC34" s="145"/>
-      <c r="AD34" s="145"/>
-      <c r="AE34" s="145"/>
-      <c r="AF34" s="145"/>
-      <c r="AG34" s="145"/>
-      <c r="AH34" s="145"/>
-      <c r="AI34" s="145"/>
-      <c r="AJ34" s="145"/>
-      <c r="AK34" s="146"/>
-      <c r="AL34" s="136"/>
-      <c r="AM34" s="137"/>
-      <c r="AN34" s="137"/>
-      <c r="AO34" s="137"/>
-      <c r="AP34" s="137"/>
-      <c r="AQ34" s="137"/>
-      <c r="AR34" s="137"/>
-      <c r="AS34" s="137"/>
-      <c r="AT34" s="137"/>
-      <c r="AU34" s="137"/>
-      <c r="AV34" s="137"/>
-      <c r="AW34" s="137"/>
-      <c r="AX34" s="137"/>
-      <c r="AY34" s="137"/>
-      <c r="AZ34" s="137"/>
-      <c r="BA34" s="137"/>
-      <c r="BB34" s="137"/>
-      <c r="BC34" s="137"/>
-      <c r="BD34" s="137"/>
-      <c r="BE34" s="137"/>
-      <c r="BF34" s="137"/>
-      <c r="BG34" s="137"/>
-      <c r="BH34" s="137"/>
-      <c r="BI34" s="137"/>
-      <c r="BJ34" s="137"/>
-      <c r="BK34" s="137"/>
-      <c r="BL34" s="137"/>
-      <c r="BM34" s="137"/>
-      <c r="BN34" s="137"/>
-      <c r="BO34" s="137"/>
-      <c r="BP34" s="137"/>
-      <c r="BQ34" s="137"/>
-      <c r="BR34" s="137"/>
-      <c r="BS34" s="137"/>
-      <c r="BT34" s="137"/>
-      <c r="BU34" s="137"/>
-      <c r="BV34" s="137"/>
-      <c r="BW34" s="137"/>
-      <c r="BX34" s="137"/>
-      <c r="BY34" s="137"/>
-      <c r="BZ34" s="137"/>
-      <c r="CA34" s="137"/>
-      <c r="CB34" s="137"/>
-      <c r="CC34" s="137"/>
-      <c r="CD34" s="137"/>
-      <c r="CE34" s="138"/>
+      <c r="Z34" s="148"/>
+      <c r="AA34" s="148"/>
+      <c r="AB34" s="148"/>
+      <c r="AC34" s="148"/>
+      <c r="AD34" s="148"/>
+      <c r="AE34" s="148"/>
+      <c r="AF34" s="148"/>
+      <c r="AG34" s="148"/>
+      <c r="AH34" s="148"/>
+      <c r="AI34" s="148"/>
+      <c r="AJ34" s="148"/>
+      <c r="AK34" s="149"/>
+      <c r="AL34" s="139"/>
+      <c r="AM34" s="140"/>
+      <c r="AN34" s="140"/>
+      <c r="AO34" s="140"/>
+      <c r="AP34" s="140"/>
+      <c r="AQ34" s="140"/>
+      <c r="AR34" s="140"/>
+      <c r="AS34" s="140"/>
+      <c r="AT34" s="140"/>
+      <c r="AU34" s="140"/>
+      <c r="AV34" s="140"/>
+      <c r="AW34" s="140"/>
+      <c r="AX34" s="140"/>
+      <c r="AY34" s="140"/>
+      <c r="AZ34" s="140"/>
+      <c r="BA34" s="140"/>
+      <c r="BB34" s="140"/>
+      <c r="BC34" s="140"/>
+      <c r="BD34" s="140"/>
+      <c r="BE34" s="140"/>
+      <c r="BF34" s="140"/>
+      <c r="BG34" s="140"/>
+      <c r="BH34" s="140"/>
+      <c r="BI34" s="140"/>
+      <c r="BJ34" s="140"/>
+      <c r="BK34" s="140"/>
+      <c r="BL34" s="140"/>
+      <c r="BM34" s="140"/>
+      <c r="BN34" s="140"/>
+      <c r="BO34" s="140"/>
+      <c r="BP34" s="140"/>
+      <c r="BQ34" s="140"/>
+      <c r="BR34" s="140"/>
+      <c r="BS34" s="140"/>
+      <c r="BT34" s="140"/>
+      <c r="BU34" s="140"/>
+      <c r="BV34" s="140"/>
+      <c r="BW34" s="140"/>
+      <c r="BX34" s="140"/>
+      <c r="BY34" s="140"/>
+      <c r="BZ34" s="140"/>
+      <c r="CA34" s="140"/>
+      <c r="CB34" s="140"/>
+      <c r="CC34" s="140"/>
+      <c r="CD34" s="140"/>
+      <c r="CE34" s="141"/>
     </row>
     <row r="35" spans="2:83" s="42" customFormat="1" ht="17" customHeight="1">
-      <c r="B35" s="139">
+      <c r="B35" s="142">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="C35" s="140"/>
-      <c r="D35" s="141"/>
-      <c r="E35" s="142"/>
-      <c r="F35" s="142"/>
-      <c r="G35" s="142"/>
-      <c r="H35" s="142"/>
-      <c r="I35" s="142"/>
-      <c r="J35" s="142"/>
-      <c r="K35" s="142"/>
-      <c r="L35" s="142"/>
-      <c r="M35" s="143"/>
-      <c r="N35" s="144"/>
-      <c r="O35" s="145"/>
-      <c r="P35" s="145"/>
-      <c r="Q35" s="145"/>
-      <c r="R35" s="145"/>
-      <c r="S35" s="145"/>
-      <c r="T35" s="145"/>
-      <c r="U35" s="145"/>
-      <c r="V35" s="145"/>
-      <c r="W35" s="145"/>
-      <c r="X35" s="146"/>
-      <c r="Y35" s="144" t="s">
+      <c r="C35" s="143"/>
+      <c r="D35" s="144"/>
+      <c r="E35" s="145"/>
+      <c r="F35" s="145"/>
+      <c r="G35" s="145"/>
+      <c r="H35" s="145"/>
+      <c r="I35" s="145"/>
+      <c r="J35" s="145"/>
+      <c r="K35" s="145"/>
+      <c r="L35" s="145"/>
+      <c r="M35" s="146"/>
+      <c r="N35" s="147"/>
+      <c r="O35" s="148"/>
+      <c r="P35" s="148"/>
+      <c r="Q35" s="148"/>
+      <c r="R35" s="148"/>
+      <c r="S35" s="148"/>
+      <c r="T35" s="148"/>
+      <c r="U35" s="148"/>
+      <c r="V35" s="148"/>
+      <c r="W35" s="148"/>
+      <c r="X35" s="149"/>
+      <c r="Y35" s="147" t="s">
         <v>92</v>
       </c>
-      <c r="Z35" s="145"/>
-      <c r="AA35" s="145"/>
-      <c r="AB35" s="145"/>
-      <c r="AC35" s="145"/>
-      <c r="AD35" s="145"/>
-      <c r="AE35" s="145"/>
-      <c r="AF35" s="145"/>
-      <c r="AG35" s="145"/>
-      <c r="AH35" s="145"/>
-      <c r="AI35" s="145"/>
-      <c r="AJ35" s="145"/>
-      <c r="AK35" s="146"/>
-      <c r="AL35" s="136"/>
-      <c r="AM35" s="137"/>
-      <c r="AN35" s="137"/>
-      <c r="AO35" s="137"/>
-      <c r="AP35" s="137"/>
-      <c r="AQ35" s="137"/>
-      <c r="AR35" s="137"/>
-      <c r="AS35" s="137"/>
-      <c r="AT35" s="137"/>
-      <c r="AU35" s="137"/>
-      <c r="AV35" s="137"/>
-      <c r="AW35" s="137"/>
-      <c r="AX35" s="137"/>
-      <c r="AY35" s="137"/>
-      <c r="AZ35" s="137"/>
-      <c r="BA35" s="137"/>
-      <c r="BB35" s="137"/>
-      <c r="BC35" s="137"/>
-      <c r="BD35" s="137"/>
-      <c r="BE35" s="137"/>
-      <c r="BF35" s="137"/>
-      <c r="BG35" s="137"/>
-      <c r="BH35" s="137"/>
-      <c r="BI35" s="137"/>
-      <c r="BJ35" s="137"/>
-      <c r="BK35" s="137"/>
-      <c r="BL35" s="137"/>
-      <c r="BM35" s="137"/>
-      <c r="BN35" s="137"/>
-      <c r="BO35" s="137"/>
-      <c r="BP35" s="137"/>
-      <c r="BQ35" s="137"/>
-      <c r="BR35" s="137"/>
-      <c r="BS35" s="137"/>
-      <c r="BT35" s="137"/>
-      <c r="BU35" s="137"/>
-      <c r="BV35" s="137"/>
-      <c r="BW35" s="137"/>
-      <c r="BX35" s="137"/>
-      <c r="BY35" s="137"/>
-      <c r="BZ35" s="137"/>
-      <c r="CA35" s="137"/>
-      <c r="CB35" s="137"/>
-      <c r="CC35" s="137"/>
-      <c r="CD35" s="137"/>
-      <c r="CE35" s="138"/>
+      <c r="Z35" s="148"/>
+      <c r="AA35" s="148"/>
+      <c r="AB35" s="148"/>
+      <c r="AC35" s="148"/>
+      <c r="AD35" s="148"/>
+      <c r="AE35" s="148"/>
+      <c r="AF35" s="148"/>
+      <c r="AG35" s="148"/>
+      <c r="AH35" s="148"/>
+      <c r="AI35" s="148"/>
+      <c r="AJ35" s="148"/>
+      <c r="AK35" s="149"/>
+      <c r="AL35" s="139"/>
+      <c r="AM35" s="140"/>
+      <c r="AN35" s="140"/>
+      <c r="AO35" s="140"/>
+      <c r="AP35" s="140"/>
+      <c r="AQ35" s="140"/>
+      <c r="AR35" s="140"/>
+      <c r="AS35" s="140"/>
+      <c r="AT35" s="140"/>
+      <c r="AU35" s="140"/>
+      <c r="AV35" s="140"/>
+      <c r="AW35" s="140"/>
+      <c r="AX35" s="140"/>
+      <c r="AY35" s="140"/>
+      <c r="AZ35" s="140"/>
+      <c r="BA35" s="140"/>
+      <c r="BB35" s="140"/>
+      <c r="BC35" s="140"/>
+      <c r="BD35" s="140"/>
+      <c r="BE35" s="140"/>
+      <c r="BF35" s="140"/>
+      <c r="BG35" s="140"/>
+      <c r="BH35" s="140"/>
+      <c r="BI35" s="140"/>
+      <c r="BJ35" s="140"/>
+      <c r="BK35" s="140"/>
+      <c r="BL35" s="140"/>
+      <c r="BM35" s="140"/>
+      <c r="BN35" s="140"/>
+      <c r="BO35" s="140"/>
+      <c r="BP35" s="140"/>
+      <c r="BQ35" s="140"/>
+      <c r="BR35" s="140"/>
+      <c r="BS35" s="140"/>
+      <c r="BT35" s="140"/>
+      <c r="BU35" s="140"/>
+      <c r="BV35" s="140"/>
+      <c r="BW35" s="140"/>
+      <c r="BX35" s="140"/>
+      <c r="BY35" s="140"/>
+      <c r="BZ35" s="140"/>
+      <c r="CA35" s="140"/>
+      <c r="CB35" s="140"/>
+      <c r="CC35" s="140"/>
+      <c r="CD35" s="140"/>
+      <c r="CE35" s="141"/>
     </row>
     <row r="36" spans="2:83" s="42" customFormat="1" ht="17" customHeight="1">
-      <c r="B36" s="139">
+      <c r="B36" s="142">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="C36" s="140"/>
+      <c r="C36" s="143"/>
       <c r="D36" s="157" t="s">
         <v>93</v>
       </c>
@@ -11602,59 +11675,59 @@
       <c r="AI36" s="162"/>
       <c r="AJ36" s="162"/>
       <c r="AK36" s="163"/>
-      <c r="AL36" s="136"/>
-      <c r="AM36" s="137"/>
-      <c r="AN36" s="137"/>
-      <c r="AO36" s="137"/>
-      <c r="AP36" s="137"/>
-      <c r="AQ36" s="137"/>
-      <c r="AR36" s="137"/>
-      <c r="AS36" s="137"/>
-      <c r="AT36" s="137"/>
-      <c r="AU36" s="137"/>
-      <c r="AV36" s="137"/>
-      <c r="AW36" s="137"/>
-      <c r="AX36" s="137"/>
-      <c r="AY36" s="137"/>
-      <c r="AZ36" s="137"/>
-      <c r="BA36" s="137"/>
-      <c r="BB36" s="137"/>
-      <c r="BC36" s="137"/>
-      <c r="BD36" s="137"/>
-      <c r="BE36" s="137"/>
-      <c r="BF36" s="137"/>
-      <c r="BG36" s="137"/>
-      <c r="BH36" s="137"/>
-      <c r="BI36" s="137"/>
-      <c r="BJ36" s="137"/>
-      <c r="BK36" s="137"/>
-      <c r="BL36" s="137"/>
-      <c r="BM36" s="137"/>
-      <c r="BN36" s="137"/>
-      <c r="BO36" s="137"/>
-      <c r="BP36" s="137"/>
-      <c r="BQ36" s="137"/>
-      <c r="BR36" s="137"/>
-      <c r="BS36" s="137"/>
-      <c r="BT36" s="137"/>
-      <c r="BU36" s="137"/>
-      <c r="BV36" s="137"/>
-      <c r="BW36" s="137"/>
-      <c r="BX36" s="137"/>
-      <c r="BY36" s="137"/>
-      <c r="BZ36" s="137"/>
-      <c r="CA36" s="137"/>
-      <c r="CB36" s="137"/>
-      <c r="CC36" s="137"/>
-      <c r="CD36" s="137"/>
-      <c r="CE36" s="138"/>
+      <c r="AL36" s="139"/>
+      <c r="AM36" s="140"/>
+      <c r="AN36" s="140"/>
+      <c r="AO36" s="140"/>
+      <c r="AP36" s="140"/>
+      <c r="AQ36" s="140"/>
+      <c r="AR36" s="140"/>
+      <c r="AS36" s="140"/>
+      <c r="AT36" s="140"/>
+      <c r="AU36" s="140"/>
+      <c r="AV36" s="140"/>
+      <c r="AW36" s="140"/>
+      <c r="AX36" s="140"/>
+      <c r="AY36" s="140"/>
+      <c r="AZ36" s="140"/>
+      <c r="BA36" s="140"/>
+      <c r="BB36" s="140"/>
+      <c r="BC36" s="140"/>
+      <c r="BD36" s="140"/>
+      <c r="BE36" s="140"/>
+      <c r="BF36" s="140"/>
+      <c r="BG36" s="140"/>
+      <c r="BH36" s="140"/>
+      <c r="BI36" s="140"/>
+      <c r="BJ36" s="140"/>
+      <c r="BK36" s="140"/>
+      <c r="BL36" s="140"/>
+      <c r="BM36" s="140"/>
+      <c r="BN36" s="140"/>
+      <c r="BO36" s="140"/>
+      <c r="BP36" s="140"/>
+      <c r="BQ36" s="140"/>
+      <c r="BR36" s="140"/>
+      <c r="BS36" s="140"/>
+      <c r="BT36" s="140"/>
+      <c r="BU36" s="140"/>
+      <c r="BV36" s="140"/>
+      <c r="BW36" s="140"/>
+      <c r="BX36" s="140"/>
+      <c r="BY36" s="140"/>
+      <c r="BZ36" s="140"/>
+      <c r="CA36" s="140"/>
+      <c r="CB36" s="140"/>
+      <c r="CC36" s="140"/>
+      <c r="CD36" s="140"/>
+      <c r="CE36" s="141"/>
     </row>
     <row r="37" spans="2:83" s="42" customFormat="1" ht="17" customHeight="1">
-      <c r="B37" s="139">
+      <c r="B37" s="142">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="C37" s="140"/>
+      <c r="C37" s="143"/>
       <c r="D37" s="167"/>
       <c r="E37" s="168"/>
       <c r="F37" s="168"/>
@@ -11691,59 +11764,59 @@
       <c r="AI37" s="162"/>
       <c r="AJ37" s="162"/>
       <c r="AK37" s="163"/>
-      <c r="AL37" s="136"/>
-      <c r="AM37" s="137"/>
-      <c r="AN37" s="137"/>
-      <c r="AO37" s="137"/>
-      <c r="AP37" s="137"/>
-      <c r="AQ37" s="137"/>
-      <c r="AR37" s="137"/>
-      <c r="AS37" s="137"/>
-      <c r="AT37" s="137"/>
-      <c r="AU37" s="137"/>
-      <c r="AV37" s="137"/>
-      <c r="AW37" s="137"/>
-      <c r="AX37" s="137"/>
-      <c r="AY37" s="137"/>
-      <c r="AZ37" s="137"/>
-      <c r="BA37" s="137"/>
-      <c r="BB37" s="137"/>
-      <c r="BC37" s="137"/>
-      <c r="BD37" s="137"/>
-      <c r="BE37" s="137"/>
-      <c r="BF37" s="137"/>
-      <c r="BG37" s="137"/>
-      <c r="BH37" s="137"/>
-      <c r="BI37" s="137"/>
-      <c r="BJ37" s="137"/>
-      <c r="BK37" s="137"/>
-      <c r="BL37" s="137"/>
-      <c r="BM37" s="137"/>
-      <c r="BN37" s="137"/>
-      <c r="BO37" s="137"/>
-      <c r="BP37" s="137"/>
-      <c r="BQ37" s="137"/>
-      <c r="BR37" s="137"/>
-      <c r="BS37" s="137"/>
-      <c r="BT37" s="137"/>
-      <c r="BU37" s="137"/>
-      <c r="BV37" s="137"/>
-      <c r="BW37" s="137"/>
-      <c r="BX37" s="137"/>
-      <c r="BY37" s="137"/>
-      <c r="BZ37" s="137"/>
-      <c r="CA37" s="137"/>
-      <c r="CB37" s="137"/>
-      <c r="CC37" s="137"/>
-      <c r="CD37" s="137"/>
-      <c r="CE37" s="138"/>
+      <c r="AL37" s="139"/>
+      <c r="AM37" s="140"/>
+      <c r="AN37" s="140"/>
+      <c r="AO37" s="140"/>
+      <c r="AP37" s="140"/>
+      <c r="AQ37" s="140"/>
+      <c r="AR37" s="140"/>
+      <c r="AS37" s="140"/>
+      <c r="AT37" s="140"/>
+      <c r="AU37" s="140"/>
+      <c r="AV37" s="140"/>
+      <c r="AW37" s="140"/>
+      <c r="AX37" s="140"/>
+      <c r="AY37" s="140"/>
+      <c r="AZ37" s="140"/>
+      <c r="BA37" s="140"/>
+      <c r="BB37" s="140"/>
+      <c r="BC37" s="140"/>
+      <c r="BD37" s="140"/>
+      <c r="BE37" s="140"/>
+      <c r="BF37" s="140"/>
+      <c r="BG37" s="140"/>
+      <c r="BH37" s="140"/>
+      <c r="BI37" s="140"/>
+      <c r="BJ37" s="140"/>
+      <c r="BK37" s="140"/>
+      <c r="BL37" s="140"/>
+      <c r="BM37" s="140"/>
+      <c r="BN37" s="140"/>
+      <c r="BO37" s="140"/>
+      <c r="BP37" s="140"/>
+      <c r="BQ37" s="140"/>
+      <c r="BR37" s="140"/>
+      <c r="BS37" s="140"/>
+      <c r="BT37" s="140"/>
+      <c r="BU37" s="140"/>
+      <c r="BV37" s="140"/>
+      <c r="BW37" s="140"/>
+      <c r="BX37" s="140"/>
+      <c r="BY37" s="140"/>
+      <c r="BZ37" s="140"/>
+      <c r="CA37" s="140"/>
+      <c r="CB37" s="140"/>
+      <c r="CC37" s="140"/>
+      <c r="CD37" s="140"/>
+      <c r="CE37" s="141"/>
     </row>
     <row r="38" spans="2:83" s="42" customFormat="1" ht="17" customHeight="1">
-      <c r="B38" s="139">
+      <c r="B38" s="142">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="C38" s="140"/>
+      <c r="C38" s="143"/>
       <c r="D38" s="164"/>
       <c r="E38" s="165"/>
       <c r="F38" s="165"/>
@@ -11780,686 +11853,686 @@
       <c r="AI38" s="162"/>
       <c r="AJ38" s="162"/>
       <c r="AK38" s="163"/>
-      <c r="AL38" s="136"/>
-      <c r="AM38" s="137"/>
-      <c r="AN38" s="137"/>
-      <c r="AO38" s="137"/>
-      <c r="AP38" s="137"/>
-      <c r="AQ38" s="137"/>
-      <c r="AR38" s="137"/>
-      <c r="AS38" s="137"/>
-      <c r="AT38" s="137"/>
-      <c r="AU38" s="137"/>
-      <c r="AV38" s="137"/>
-      <c r="AW38" s="137"/>
-      <c r="AX38" s="137"/>
-      <c r="AY38" s="137"/>
-      <c r="AZ38" s="137"/>
-      <c r="BA38" s="137"/>
-      <c r="BB38" s="137"/>
-      <c r="BC38" s="137"/>
-      <c r="BD38" s="137"/>
-      <c r="BE38" s="137"/>
-      <c r="BF38" s="137"/>
-      <c r="BG38" s="137"/>
-      <c r="BH38" s="137"/>
-      <c r="BI38" s="137"/>
-      <c r="BJ38" s="137"/>
-      <c r="BK38" s="137"/>
-      <c r="BL38" s="137"/>
-      <c r="BM38" s="137"/>
-      <c r="BN38" s="137"/>
-      <c r="BO38" s="137"/>
-      <c r="BP38" s="137"/>
-      <c r="BQ38" s="137"/>
-      <c r="BR38" s="137"/>
-      <c r="BS38" s="137"/>
-      <c r="BT38" s="137"/>
-      <c r="BU38" s="137"/>
-      <c r="BV38" s="137"/>
-      <c r="BW38" s="137"/>
-      <c r="BX38" s="137"/>
-      <c r="BY38" s="137"/>
-      <c r="BZ38" s="137"/>
-      <c r="CA38" s="137"/>
-      <c r="CB38" s="137"/>
-      <c r="CC38" s="137"/>
-      <c r="CD38" s="137"/>
-      <c r="CE38" s="138"/>
+      <c r="AL38" s="139"/>
+      <c r="AM38" s="140"/>
+      <c r="AN38" s="140"/>
+      <c r="AO38" s="140"/>
+      <c r="AP38" s="140"/>
+      <c r="AQ38" s="140"/>
+      <c r="AR38" s="140"/>
+      <c r="AS38" s="140"/>
+      <c r="AT38" s="140"/>
+      <c r="AU38" s="140"/>
+      <c r="AV38" s="140"/>
+      <c r="AW38" s="140"/>
+      <c r="AX38" s="140"/>
+      <c r="AY38" s="140"/>
+      <c r="AZ38" s="140"/>
+      <c r="BA38" s="140"/>
+      <c r="BB38" s="140"/>
+      <c r="BC38" s="140"/>
+      <c r="BD38" s="140"/>
+      <c r="BE38" s="140"/>
+      <c r="BF38" s="140"/>
+      <c r="BG38" s="140"/>
+      <c r="BH38" s="140"/>
+      <c r="BI38" s="140"/>
+      <c r="BJ38" s="140"/>
+      <c r="BK38" s="140"/>
+      <c r="BL38" s="140"/>
+      <c r="BM38" s="140"/>
+      <c r="BN38" s="140"/>
+      <c r="BO38" s="140"/>
+      <c r="BP38" s="140"/>
+      <c r="BQ38" s="140"/>
+      <c r="BR38" s="140"/>
+      <c r="BS38" s="140"/>
+      <c r="BT38" s="140"/>
+      <c r="BU38" s="140"/>
+      <c r="BV38" s="140"/>
+      <c r="BW38" s="140"/>
+      <c r="BX38" s="140"/>
+      <c r="BY38" s="140"/>
+      <c r="BZ38" s="140"/>
+      <c r="CA38" s="140"/>
+      <c r="CB38" s="140"/>
+      <c r="CC38" s="140"/>
+      <c r="CD38" s="140"/>
+      <c r="CE38" s="141"/>
     </row>
     <row r="39" spans="2:83" s="42" customFormat="1" ht="17" customHeight="1">
-      <c r="B39" s="139">
+      <c r="B39" s="142">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="C39" s="140"/>
-      <c r="D39" s="147" t="s">
+      <c r="C39" s="143"/>
+      <c r="D39" s="150" t="s">
         <v>97</v>
       </c>
-      <c r="E39" s="148"/>
-      <c r="F39" s="148"/>
-      <c r="G39" s="148"/>
-      <c r="H39" s="148"/>
-      <c r="I39" s="148"/>
-      <c r="J39" s="148"/>
-      <c r="K39" s="148"/>
-      <c r="L39" s="148"/>
-      <c r="M39" s="149"/>
-      <c r="N39" s="144"/>
-      <c r="O39" s="145"/>
-      <c r="P39" s="145"/>
-      <c r="Q39" s="145"/>
-      <c r="R39" s="145"/>
-      <c r="S39" s="145"/>
-      <c r="T39" s="145"/>
-      <c r="U39" s="145"/>
-      <c r="V39" s="145"/>
-      <c r="W39" s="145"/>
-      <c r="X39" s="146"/>
-      <c r="Y39" s="144" t="s">
+      <c r="E39" s="151"/>
+      <c r="F39" s="151"/>
+      <c r="G39" s="151"/>
+      <c r="H39" s="151"/>
+      <c r="I39" s="151"/>
+      <c r="J39" s="151"/>
+      <c r="K39" s="151"/>
+      <c r="L39" s="151"/>
+      <c r="M39" s="152"/>
+      <c r="N39" s="147"/>
+      <c r="O39" s="148"/>
+      <c r="P39" s="148"/>
+      <c r="Q39" s="148"/>
+      <c r="R39" s="148"/>
+      <c r="S39" s="148"/>
+      <c r="T39" s="148"/>
+      <c r="U39" s="148"/>
+      <c r="V39" s="148"/>
+      <c r="W39" s="148"/>
+      <c r="X39" s="149"/>
+      <c r="Y39" s="147" t="s">
         <v>98</v>
       </c>
-      <c r="Z39" s="145"/>
-      <c r="AA39" s="145"/>
-      <c r="AB39" s="145"/>
-      <c r="AC39" s="145"/>
-      <c r="AD39" s="145"/>
-      <c r="AE39" s="145"/>
-      <c r="AF39" s="145"/>
-      <c r="AG39" s="145"/>
-      <c r="AH39" s="145"/>
-      <c r="AI39" s="145"/>
-      <c r="AJ39" s="145"/>
-      <c r="AK39" s="146"/>
-      <c r="AL39" s="136"/>
-      <c r="AM39" s="137"/>
-      <c r="AN39" s="137"/>
-      <c r="AO39" s="137"/>
-      <c r="AP39" s="137"/>
-      <c r="AQ39" s="137"/>
-      <c r="AR39" s="137"/>
-      <c r="AS39" s="137"/>
-      <c r="AT39" s="137"/>
-      <c r="AU39" s="137"/>
-      <c r="AV39" s="137"/>
-      <c r="AW39" s="137"/>
-      <c r="AX39" s="137"/>
-      <c r="AY39" s="137"/>
-      <c r="AZ39" s="137"/>
-      <c r="BA39" s="137"/>
-      <c r="BB39" s="137"/>
-      <c r="BC39" s="137"/>
-      <c r="BD39" s="137"/>
-      <c r="BE39" s="137"/>
-      <c r="BF39" s="137"/>
-      <c r="BG39" s="137"/>
-      <c r="BH39" s="137"/>
-      <c r="BI39" s="137"/>
-      <c r="BJ39" s="137"/>
-      <c r="BK39" s="137"/>
-      <c r="BL39" s="137"/>
-      <c r="BM39" s="137"/>
-      <c r="BN39" s="137"/>
-      <c r="BO39" s="137"/>
-      <c r="BP39" s="137"/>
-      <c r="BQ39" s="137"/>
-      <c r="BR39" s="137"/>
-      <c r="BS39" s="137"/>
-      <c r="BT39" s="137"/>
-      <c r="BU39" s="137"/>
-      <c r="BV39" s="137"/>
-      <c r="BW39" s="137"/>
-      <c r="BX39" s="137"/>
-      <c r="BY39" s="137"/>
-      <c r="BZ39" s="137"/>
-      <c r="CA39" s="137"/>
-      <c r="CB39" s="137"/>
-      <c r="CC39" s="137"/>
-      <c r="CD39" s="137"/>
-      <c r="CE39" s="138"/>
+      <c r="Z39" s="148"/>
+      <c r="AA39" s="148"/>
+      <c r="AB39" s="148"/>
+      <c r="AC39" s="148"/>
+      <c r="AD39" s="148"/>
+      <c r="AE39" s="148"/>
+      <c r="AF39" s="148"/>
+      <c r="AG39" s="148"/>
+      <c r="AH39" s="148"/>
+      <c r="AI39" s="148"/>
+      <c r="AJ39" s="148"/>
+      <c r="AK39" s="149"/>
+      <c r="AL39" s="139"/>
+      <c r="AM39" s="140"/>
+      <c r="AN39" s="140"/>
+      <c r="AO39" s="140"/>
+      <c r="AP39" s="140"/>
+      <c r="AQ39" s="140"/>
+      <c r="AR39" s="140"/>
+      <c r="AS39" s="140"/>
+      <c r="AT39" s="140"/>
+      <c r="AU39" s="140"/>
+      <c r="AV39" s="140"/>
+      <c r="AW39" s="140"/>
+      <c r="AX39" s="140"/>
+      <c r="AY39" s="140"/>
+      <c r="AZ39" s="140"/>
+      <c r="BA39" s="140"/>
+      <c r="BB39" s="140"/>
+      <c r="BC39" s="140"/>
+      <c r="BD39" s="140"/>
+      <c r="BE39" s="140"/>
+      <c r="BF39" s="140"/>
+      <c r="BG39" s="140"/>
+      <c r="BH39" s="140"/>
+      <c r="BI39" s="140"/>
+      <c r="BJ39" s="140"/>
+      <c r="BK39" s="140"/>
+      <c r="BL39" s="140"/>
+      <c r="BM39" s="140"/>
+      <c r="BN39" s="140"/>
+      <c r="BO39" s="140"/>
+      <c r="BP39" s="140"/>
+      <c r="BQ39" s="140"/>
+      <c r="BR39" s="140"/>
+      <c r="BS39" s="140"/>
+      <c r="BT39" s="140"/>
+      <c r="BU39" s="140"/>
+      <c r="BV39" s="140"/>
+      <c r="BW39" s="140"/>
+      <c r="BX39" s="140"/>
+      <c r="BY39" s="140"/>
+      <c r="BZ39" s="140"/>
+      <c r="CA39" s="140"/>
+      <c r="CB39" s="140"/>
+      <c r="CC39" s="140"/>
+      <c r="CD39" s="140"/>
+      <c r="CE39" s="141"/>
     </row>
     <row r="40" spans="2:83" s="42" customFormat="1" ht="17" customHeight="1">
-      <c r="B40" s="139">
+      <c r="B40" s="142">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="C40" s="140"/>
-      <c r="D40" s="150"/>
-      <c r="E40" s="151"/>
-      <c r="F40" s="151"/>
-      <c r="G40" s="151"/>
-      <c r="H40" s="151"/>
-      <c r="I40" s="151"/>
-      <c r="J40" s="151"/>
-      <c r="K40" s="151"/>
-      <c r="L40" s="151"/>
-      <c r="M40" s="152"/>
-      <c r="N40" s="144"/>
-      <c r="O40" s="145"/>
-      <c r="P40" s="145"/>
-      <c r="Q40" s="145"/>
-      <c r="R40" s="145"/>
-      <c r="S40" s="145"/>
-      <c r="T40" s="145"/>
-      <c r="U40" s="145"/>
-      <c r="V40" s="145"/>
-      <c r="W40" s="145"/>
-      <c r="X40" s="146"/>
-      <c r="Y40" s="144" t="s">
+      <c r="C40" s="143"/>
+      <c r="D40" s="153"/>
+      <c r="E40" s="154"/>
+      <c r="F40" s="154"/>
+      <c r="G40" s="154"/>
+      <c r="H40" s="154"/>
+      <c r="I40" s="154"/>
+      <c r="J40" s="154"/>
+      <c r="K40" s="154"/>
+      <c r="L40" s="154"/>
+      <c r="M40" s="155"/>
+      <c r="N40" s="147"/>
+      <c r="O40" s="148"/>
+      <c r="P40" s="148"/>
+      <c r="Q40" s="148"/>
+      <c r="R40" s="148"/>
+      <c r="S40" s="148"/>
+      <c r="T40" s="148"/>
+      <c r="U40" s="148"/>
+      <c r="V40" s="148"/>
+      <c r="W40" s="148"/>
+      <c r="X40" s="149"/>
+      <c r="Y40" s="147" t="s">
         <v>99</v>
       </c>
-      <c r="Z40" s="145"/>
-      <c r="AA40" s="145"/>
-      <c r="AB40" s="145"/>
-      <c r="AC40" s="145"/>
-      <c r="AD40" s="145"/>
-      <c r="AE40" s="145"/>
-      <c r="AF40" s="145"/>
-      <c r="AG40" s="145"/>
-      <c r="AH40" s="145"/>
-      <c r="AI40" s="145"/>
-      <c r="AJ40" s="145"/>
-      <c r="AK40" s="146"/>
-      <c r="AL40" s="136"/>
-      <c r="AM40" s="137"/>
-      <c r="AN40" s="137"/>
-      <c r="AO40" s="137"/>
-      <c r="AP40" s="137"/>
-      <c r="AQ40" s="137"/>
-      <c r="AR40" s="137"/>
-      <c r="AS40" s="137"/>
-      <c r="AT40" s="137"/>
-      <c r="AU40" s="137"/>
-      <c r="AV40" s="137"/>
-      <c r="AW40" s="137"/>
-      <c r="AX40" s="137"/>
-      <c r="AY40" s="137"/>
-      <c r="AZ40" s="137"/>
-      <c r="BA40" s="137"/>
-      <c r="BB40" s="137"/>
-      <c r="BC40" s="137"/>
-      <c r="BD40" s="137"/>
-      <c r="BE40" s="137"/>
-      <c r="BF40" s="137"/>
-      <c r="BG40" s="137"/>
-      <c r="BH40" s="137"/>
-      <c r="BI40" s="137"/>
-      <c r="BJ40" s="137"/>
-      <c r="BK40" s="137"/>
-      <c r="BL40" s="137"/>
-      <c r="BM40" s="137"/>
-      <c r="BN40" s="137"/>
-      <c r="BO40" s="137"/>
-      <c r="BP40" s="137"/>
-      <c r="BQ40" s="137"/>
-      <c r="BR40" s="137"/>
-      <c r="BS40" s="137"/>
-      <c r="BT40" s="137"/>
-      <c r="BU40" s="137"/>
-      <c r="BV40" s="137"/>
-      <c r="BW40" s="137"/>
-      <c r="BX40" s="137"/>
-      <c r="BY40" s="137"/>
-      <c r="BZ40" s="137"/>
-      <c r="CA40" s="137"/>
-      <c r="CB40" s="137"/>
-      <c r="CC40" s="137"/>
-      <c r="CD40" s="137"/>
-      <c r="CE40" s="138"/>
+      <c r="Z40" s="148"/>
+      <c r="AA40" s="148"/>
+      <c r="AB40" s="148"/>
+      <c r="AC40" s="148"/>
+      <c r="AD40" s="148"/>
+      <c r="AE40" s="148"/>
+      <c r="AF40" s="148"/>
+      <c r="AG40" s="148"/>
+      <c r="AH40" s="148"/>
+      <c r="AI40" s="148"/>
+      <c r="AJ40" s="148"/>
+      <c r="AK40" s="149"/>
+      <c r="AL40" s="139"/>
+      <c r="AM40" s="140"/>
+      <c r="AN40" s="140"/>
+      <c r="AO40" s="140"/>
+      <c r="AP40" s="140"/>
+      <c r="AQ40" s="140"/>
+      <c r="AR40" s="140"/>
+      <c r="AS40" s="140"/>
+      <c r="AT40" s="140"/>
+      <c r="AU40" s="140"/>
+      <c r="AV40" s="140"/>
+      <c r="AW40" s="140"/>
+      <c r="AX40" s="140"/>
+      <c r="AY40" s="140"/>
+      <c r="AZ40" s="140"/>
+      <c r="BA40" s="140"/>
+      <c r="BB40" s="140"/>
+      <c r="BC40" s="140"/>
+      <c r="BD40" s="140"/>
+      <c r="BE40" s="140"/>
+      <c r="BF40" s="140"/>
+      <c r="BG40" s="140"/>
+      <c r="BH40" s="140"/>
+      <c r="BI40" s="140"/>
+      <c r="BJ40" s="140"/>
+      <c r="BK40" s="140"/>
+      <c r="BL40" s="140"/>
+      <c r="BM40" s="140"/>
+      <c r="BN40" s="140"/>
+      <c r="BO40" s="140"/>
+      <c r="BP40" s="140"/>
+      <c r="BQ40" s="140"/>
+      <c r="BR40" s="140"/>
+      <c r="BS40" s="140"/>
+      <c r="BT40" s="140"/>
+      <c r="BU40" s="140"/>
+      <c r="BV40" s="140"/>
+      <c r="BW40" s="140"/>
+      <c r="BX40" s="140"/>
+      <c r="BY40" s="140"/>
+      <c r="BZ40" s="140"/>
+      <c r="CA40" s="140"/>
+      <c r="CB40" s="140"/>
+      <c r="CC40" s="140"/>
+      <c r="CD40" s="140"/>
+      <c r="CE40" s="141"/>
     </row>
     <row r="41" spans="2:83" s="42" customFormat="1" ht="17" customHeight="1">
-      <c r="B41" s="139">
+      <c r="B41" s="142">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="C41" s="140"/>
-      <c r="D41" s="150"/>
-      <c r="E41" s="151"/>
-      <c r="F41" s="151"/>
-      <c r="G41" s="151"/>
-      <c r="H41" s="151"/>
-      <c r="I41" s="151"/>
-      <c r="J41" s="151"/>
-      <c r="K41" s="151"/>
-      <c r="L41" s="151"/>
-      <c r="M41" s="152"/>
-      <c r="N41" s="144"/>
-      <c r="O41" s="145"/>
-      <c r="P41" s="145"/>
-      <c r="Q41" s="145"/>
-      <c r="R41" s="145"/>
-      <c r="S41" s="145"/>
-      <c r="T41" s="145"/>
-      <c r="U41" s="145"/>
-      <c r="V41" s="145"/>
-      <c r="W41" s="145"/>
-      <c r="X41" s="146"/>
-      <c r="Y41" s="144" t="s">
+      <c r="C41" s="143"/>
+      <c r="D41" s="153"/>
+      <c r="E41" s="154"/>
+      <c r="F41" s="154"/>
+      <c r="G41" s="154"/>
+      <c r="H41" s="154"/>
+      <c r="I41" s="154"/>
+      <c r="J41" s="154"/>
+      <c r="K41" s="154"/>
+      <c r="L41" s="154"/>
+      <c r="M41" s="155"/>
+      <c r="N41" s="147"/>
+      <c r="O41" s="148"/>
+      <c r="P41" s="148"/>
+      <c r="Q41" s="148"/>
+      <c r="R41" s="148"/>
+      <c r="S41" s="148"/>
+      <c r="T41" s="148"/>
+      <c r="U41" s="148"/>
+      <c r="V41" s="148"/>
+      <c r="W41" s="148"/>
+      <c r="X41" s="149"/>
+      <c r="Y41" s="147" t="s">
         <v>100</v>
       </c>
-      <c r="Z41" s="145"/>
-      <c r="AA41" s="145"/>
-      <c r="AB41" s="145"/>
-      <c r="AC41" s="145"/>
-      <c r="AD41" s="145"/>
-      <c r="AE41" s="145"/>
-      <c r="AF41" s="145"/>
-      <c r="AG41" s="145"/>
-      <c r="AH41" s="145"/>
-      <c r="AI41" s="145"/>
-      <c r="AJ41" s="145"/>
-      <c r="AK41" s="146"/>
-      <c r="AL41" s="136"/>
-      <c r="AM41" s="137"/>
-      <c r="AN41" s="137"/>
-      <c r="AO41" s="137"/>
-      <c r="AP41" s="137"/>
-      <c r="AQ41" s="137"/>
-      <c r="AR41" s="137"/>
-      <c r="AS41" s="137"/>
-      <c r="AT41" s="137"/>
-      <c r="AU41" s="137"/>
-      <c r="AV41" s="137"/>
-      <c r="AW41" s="137"/>
-      <c r="AX41" s="137"/>
-      <c r="AY41" s="137"/>
-      <c r="AZ41" s="137"/>
-      <c r="BA41" s="137"/>
-      <c r="BB41" s="137"/>
-      <c r="BC41" s="137"/>
-      <c r="BD41" s="137"/>
-      <c r="BE41" s="137"/>
-      <c r="BF41" s="137"/>
-      <c r="BG41" s="137"/>
-      <c r="BH41" s="137"/>
-      <c r="BI41" s="137"/>
-      <c r="BJ41" s="137"/>
-      <c r="BK41" s="137"/>
-      <c r="BL41" s="137"/>
-      <c r="BM41" s="137"/>
-      <c r="BN41" s="137"/>
-      <c r="BO41" s="137"/>
-      <c r="BP41" s="137"/>
-      <c r="BQ41" s="137"/>
-      <c r="BR41" s="137"/>
-      <c r="BS41" s="137"/>
-      <c r="BT41" s="137"/>
-      <c r="BU41" s="137"/>
-      <c r="BV41" s="137"/>
-      <c r="BW41" s="137"/>
-      <c r="BX41" s="137"/>
-      <c r="BY41" s="137"/>
-      <c r="BZ41" s="137"/>
-      <c r="CA41" s="137"/>
-      <c r="CB41" s="137"/>
-      <c r="CC41" s="137"/>
-      <c r="CD41" s="137"/>
-      <c r="CE41" s="138"/>
+      <c r="Z41" s="148"/>
+      <c r="AA41" s="148"/>
+      <c r="AB41" s="148"/>
+      <c r="AC41" s="148"/>
+      <c r="AD41" s="148"/>
+      <c r="AE41" s="148"/>
+      <c r="AF41" s="148"/>
+      <c r="AG41" s="148"/>
+      <c r="AH41" s="148"/>
+      <c r="AI41" s="148"/>
+      <c r="AJ41" s="148"/>
+      <c r="AK41" s="149"/>
+      <c r="AL41" s="139"/>
+      <c r="AM41" s="140"/>
+      <c r="AN41" s="140"/>
+      <c r="AO41" s="140"/>
+      <c r="AP41" s="140"/>
+      <c r="AQ41" s="140"/>
+      <c r="AR41" s="140"/>
+      <c r="AS41" s="140"/>
+      <c r="AT41" s="140"/>
+      <c r="AU41" s="140"/>
+      <c r="AV41" s="140"/>
+      <c r="AW41" s="140"/>
+      <c r="AX41" s="140"/>
+      <c r="AY41" s="140"/>
+      <c r="AZ41" s="140"/>
+      <c r="BA41" s="140"/>
+      <c r="BB41" s="140"/>
+      <c r="BC41" s="140"/>
+      <c r="BD41" s="140"/>
+      <c r="BE41" s="140"/>
+      <c r="BF41" s="140"/>
+      <c r="BG41" s="140"/>
+      <c r="BH41" s="140"/>
+      <c r="BI41" s="140"/>
+      <c r="BJ41" s="140"/>
+      <c r="BK41" s="140"/>
+      <c r="BL41" s="140"/>
+      <c r="BM41" s="140"/>
+      <c r="BN41" s="140"/>
+      <c r="BO41" s="140"/>
+      <c r="BP41" s="140"/>
+      <c r="BQ41" s="140"/>
+      <c r="BR41" s="140"/>
+      <c r="BS41" s="140"/>
+      <c r="BT41" s="140"/>
+      <c r="BU41" s="140"/>
+      <c r="BV41" s="140"/>
+      <c r="BW41" s="140"/>
+      <c r="BX41" s="140"/>
+      <c r="BY41" s="140"/>
+      <c r="BZ41" s="140"/>
+      <c r="CA41" s="140"/>
+      <c r="CB41" s="140"/>
+      <c r="CC41" s="140"/>
+      <c r="CD41" s="140"/>
+      <c r="CE41" s="141"/>
     </row>
     <row r="42" spans="2:83" s="42" customFormat="1" ht="17" customHeight="1">
-      <c r="B42" s="139">
+      <c r="B42" s="142">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="C42" s="140"/>
-      <c r="D42" s="150"/>
-      <c r="E42" s="151"/>
-      <c r="F42" s="151"/>
-      <c r="G42" s="151"/>
-      <c r="H42" s="151"/>
-      <c r="I42" s="151"/>
-      <c r="J42" s="151"/>
-      <c r="K42" s="151"/>
-      <c r="L42" s="151"/>
-      <c r="M42" s="152"/>
-      <c r="N42" s="144"/>
-      <c r="O42" s="145"/>
-      <c r="P42" s="145"/>
-      <c r="Q42" s="145"/>
-      <c r="R42" s="145"/>
-      <c r="S42" s="145"/>
-      <c r="T42" s="145"/>
-      <c r="U42" s="145"/>
-      <c r="V42" s="145"/>
-      <c r="W42" s="145"/>
-      <c r="X42" s="146"/>
-      <c r="Y42" s="144" t="s">
+      <c r="C42" s="143"/>
+      <c r="D42" s="153"/>
+      <c r="E42" s="154"/>
+      <c r="F42" s="154"/>
+      <c r="G42" s="154"/>
+      <c r="H42" s="154"/>
+      <c r="I42" s="154"/>
+      <c r="J42" s="154"/>
+      <c r="K42" s="154"/>
+      <c r="L42" s="154"/>
+      <c r="M42" s="155"/>
+      <c r="N42" s="147"/>
+      <c r="O42" s="148"/>
+      <c r="P42" s="148"/>
+      <c r="Q42" s="148"/>
+      <c r="R42" s="148"/>
+      <c r="S42" s="148"/>
+      <c r="T42" s="148"/>
+      <c r="U42" s="148"/>
+      <c r="V42" s="148"/>
+      <c r="W42" s="148"/>
+      <c r="X42" s="149"/>
+      <c r="Y42" s="147" t="s">
         <v>102</v>
       </c>
-      <c r="Z42" s="145"/>
-      <c r="AA42" s="145"/>
-      <c r="AB42" s="145"/>
-      <c r="AC42" s="145"/>
-      <c r="AD42" s="145"/>
-      <c r="AE42" s="145"/>
-      <c r="AF42" s="145"/>
-      <c r="AG42" s="145"/>
-      <c r="AH42" s="145"/>
-      <c r="AI42" s="145"/>
-      <c r="AJ42" s="145"/>
-      <c r="AK42" s="146"/>
-      <c r="AL42" s="136"/>
-      <c r="AM42" s="137"/>
-      <c r="AN42" s="137"/>
-      <c r="AO42" s="137"/>
-      <c r="AP42" s="137"/>
-      <c r="AQ42" s="137"/>
-      <c r="AR42" s="137"/>
-      <c r="AS42" s="137"/>
-      <c r="AT42" s="137"/>
-      <c r="AU42" s="137"/>
-      <c r="AV42" s="137"/>
-      <c r="AW42" s="137"/>
-      <c r="AX42" s="137"/>
-      <c r="AY42" s="137"/>
-      <c r="AZ42" s="137"/>
-      <c r="BA42" s="137"/>
-      <c r="BB42" s="137"/>
-      <c r="BC42" s="137"/>
-      <c r="BD42" s="137"/>
-      <c r="BE42" s="137"/>
-      <c r="BF42" s="137"/>
-      <c r="BG42" s="137"/>
-      <c r="BH42" s="137"/>
-      <c r="BI42" s="137"/>
-      <c r="BJ42" s="137"/>
-      <c r="BK42" s="137"/>
-      <c r="BL42" s="137"/>
-      <c r="BM42" s="137"/>
-      <c r="BN42" s="137"/>
-      <c r="BO42" s="137"/>
-      <c r="BP42" s="137"/>
-      <c r="BQ42" s="137"/>
-      <c r="BR42" s="137"/>
-      <c r="BS42" s="137"/>
-      <c r="BT42" s="137"/>
-      <c r="BU42" s="137"/>
-      <c r="BV42" s="137"/>
-      <c r="BW42" s="137"/>
-      <c r="BX42" s="137"/>
-      <c r="BY42" s="137"/>
-      <c r="BZ42" s="137"/>
-      <c r="CA42" s="137"/>
-      <c r="CB42" s="137"/>
-      <c r="CC42" s="137"/>
-      <c r="CD42" s="137"/>
-      <c r="CE42" s="138"/>
+      <c r="Z42" s="148"/>
+      <c r="AA42" s="148"/>
+      <c r="AB42" s="148"/>
+      <c r="AC42" s="148"/>
+      <c r="AD42" s="148"/>
+      <c r="AE42" s="148"/>
+      <c r="AF42" s="148"/>
+      <c r="AG42" s="148"/>
+      <c r="AH42" s="148"/>
+      <c r="AI42" s="148"/>
+      <c r="AJ42" s="148"/>
+      <c r="AK42" s="149"/>
+      <c r="AL42" s="139"/>
+      <c r="AM42" s="140"/>
+      <c r="AN42" s="140"/>
+      <c r="AO42" s="140"/>
+      <c r="AP42" s="140"/>
+      <c r="AQ42" s="140"/>
+      <c r="AR42" s="140"/>
+      <c r="AS42" s="140"/>
+      <c r="AT42" s="140"/>
+      <c r="AU42" s="140"/>
+      <c r="AV42" s="140"/>
+      <c r="AW42" s="140"/>
+      <c r="AX42" s="140"/>
+      <c r="AY42" s="140"/>
+      <c r="AZ42" s="140"/>
+      <c r="BA42" s="140"/>
+      <c r="BB42" s="140"/>
+      <c r="BC42" s="140"/>
+      <c r="BD42" s="140"/>
+      <c r="BE42" s="140"/>
+      <c r="BF42" s="140"/>
+      <c r="BG42" s="140"/>
+      <c r="BH42" s="140"/>
+      <c r="BI42" s="140"/>
+      <c r="BJ42" s="140"/>
+      <c r="BK42" s="140"/>
+      <c r="BL42" s="140"/>
+      <c r="BM42" s="140"/>
+      <c r="BN42" s="140"/>
+      <c r="BO42" s="140"/>
+      <c r="BP42" s="140"/>
+      <c r="BQ42" s="140"/>
+      <c r="BR42" s="140"/>
+      <c r="BS42" s="140"/>
+      <c r="BT42" s="140"/>
+      <c r="BU42" s="140"/>
+      <c r="BV42" s="140"/>
+      <c r="BW42" s="140"/>
+      <c r="BX42" s="140"/>
+      <c r="BY42" s="140"/>
+      <c r="BZ42" s="140"/>
+      <c r="CA42" s="140"/>
+      <c r="CB42" s="140"/>
+      <c r="CC42" s="140"/>
+      <c r="CD42" s="140"/>
+      <c r="CE42" s="141"/>
     </row>
     <row r="43" spans="2:83" s="42" customFormat="1" ht="17" customHeight="1">
-      <c r="B43" s="139">
+      <c r="B43" s="142">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="C43" s="140"/>
-      <c r="D43" s="150"/>
-      <c r="E43" s="151"/>
-      <c r="F43" s="151"/>
-      <c r="G43" s="151"/>
-      <c r="H43" s="151"/>
-      <c r="I43" s="151"/>
-      <c r="J43" s="151"/>
-      <c r="K43" s="151"/>
-      <c r="L43" s="151"/>
-      <c r="M43" s="152"/>
-      <c r="N43" s="144"/>
-      <c r="O43" s="145"/>
-      <c r="P43" s="145"/>
-      <c r="Q43" s="145"/>
-      <c r="R43" s="145"/>
-      <c r="S43" s="145"/>
-      <c r="T43" s="145"/>
-      <c r="U43" s="145"/>
-      <c r="V43" s="145"/>
-      <c r="W43" s="145"/>
-      <c r="X43" s="146"/>
-      <c r="Y43" s="144" t="s">
+      <c r="C43" s="143"/>
+      <c r="D43" s="153"/>
+      <c r="E43" s="154"/>
+      <c r="F43" s="154"/>
+      <c r="G43" s="154"/>
+      <c r="H43" s="154"/>
+      <c r="I43" s="154"/>
+      <c r="J43" s="154"/>
+      <c r="K43" s="154"/>
+      <c r="L43" s="154"/>
+      <c r="M43" s="155"/>
+      <c r="N43" s="147"/>
+      <c r="O43" s="148"/>
+      <c r="P43" s="148"/>
+      <c r="Q43" s="148"/>
+      <c r="R43" s="148"/>
+      <c r="S43" s="148"/>
+      <c r="T43" s="148"/>
+      <c r="U43" s="148"/>
+      <c r="V43" s="148"/>
+      <c r="W43" s="148"/>
+      <c r="X43" s="149"/>
+      <c r="Y43" s="147" t="s">
         <v>103</v>
       </c>
-      <c r="Z43" s="145"/>
-      <c r="AA43" s="145"/>
-      <c r="AB43" s="145"/>
-      <c r="AC43" s="145"/>
-      <c r="AD43" s="145"/>
-      <c r="AE43" s="145"/>
-      <c r="AF43" s="145"/>
-      <c r="AG43" s="145"/>
-      <c r="AH43" s="145"/>
-      <c r="AI43" s="145"/>
-      <c r="AJ43" s="145"/>
-      <c r="AK43" s="146"/>
-      <c r="AL43" s="136"/>
-      <c r="AM43" s="137"/>
-      <c r="AN43" s="137"/>
-      <c r="AO43" s="137"/>
-      <c r="AP43" s="137"/>
-      <c r="AQ43" s="137"/>
-      <c r="AR43" s="137"/>
-      <c r="AS43" s="137"/>
-      <c r="AT43" s="137"/>
-      <c r="AU43" s="137"/>
-      <c r="AV43" s="137"/>
-      <c r="AW43" s="137"/>
-      <c r="AX43" s="137"/>
-      <c r="AY43" s="137"/>
-      <c r="AZ43" s="137"/>
-      <c r="BA43" s="137"/>
-      <c r="BB43" s="137"/>
-      <c r="BC43" s="137"/>
-      <c r="BD43" s="137"/>
-      <c r="BE43" s="137"/>
-      <c r="BF43" s="137"/>
-      <c r="BG43" s="137"/>
-      <c r="BH43" s="137"/>
-      <c r="BI43" s="137"/>
-      <c r="BJ43" s="137"/>
-      <c r="BK43" s="137"/>
-      <c r="BL43" s="137"/>
-      <c r="BM43" s="137"/>
-      <c r="BN43" s="137"/>
-      <c r="BO43" s="137"/>
-      <c r="BP43" s="137"/>
-      <c r="BQ43" s="137"/>
-      <c r="BR43" s="137"/>
-      <c r="BS43" s="137"/>
-      <c r="BT43" s="137"/>
-      <c r="BU43" s="137"/>
-      <c r="BV43" s="137"/>
-      <c r="BW43" s="137"/>
-      <c r="BX43" s="137"/>
-      <c r="BY43" s="137"/>
-      <c r="BZ43" s="137"/>
-      <c r="CA43" s="137"/>
-      <c r="CB43" s="137"/>
-      <c r="CC43" s="137"/>
-      <c r="CD43" s="137"/>
-      <c r="CE43" s="138"/>
+      <c r="Z43" s="148"/>
+      <c r="AA43" s="148"/>
+      <c r="AB43" s="148"/>
+      <c r="AC43" s="148"/>
+      <c r="AD43" s="148"/>
+      <c r="AE43" s="148"/>
+      <c r="AF43" s="148"/>
+      <c r="AG43" s="148"/>
+      <c r="AH43" s="148"/>
+      <c r="AI43" s="148"/>
+      <c r="AJ43" s="148"/>
+      <c r="AK43" s="149"/>
+      <c r="AL43" s="139"/>
+      <c r="AM43" s="140"/>
+      <c r="AN43" s="140"/>
+      <c r="AO43" s="140"/>
+      <c r="AP43" s="140"/>
+      <c r="AQ43" s="140"/>
+      <c r="AR43" s="140"/>
+      <c r="AS43" s="140"/>
+      <c r="AT43" s="140"/>
+      <c r="AU43" s="140"/>
+      <c r="AV43" s="140"/>
+      <c r="AW43" s="140"/>
+      <c r="AX43" s="140"/>
+      <c r="AY43" s="140"/>
+      <c r="AZ43" s="140"/>
+      <c r="BA43" s="140"/>
+      <c r="BB43" s="140"/>
+      <c r="BC43" s="140"/>
+      <c r="BD43" s="140"/>
+      <c r="BE43" s="140"/>
+      <c r="BF43" s="140"/>
+      <c r="BG43" s="140"/>
+      <c r="BH43" s="140"/>
+      <c r="BI43" s="140"/>
+      <c r="BJ43" s="140"/>
+      <c r="BK43" s="140"/>
+      <c r="BL43" s="140"/>
+      <c r="BM43" s="140"/>
+      <c r="BN43" s="140"/>
+      <c r="BO43" s="140"/>
+      <c r="BP43" s="140"/>
+      <c r="BQ43" s="140"/>
+      <c r="BR43" s="140"/>
+      <c r="BS43" s="140"/>
+      <c r="BT43" s="140"/>
+      <c r="BU43" s="140"/>
+      <c r="BV43" s="140"/>
+      <c r="BW43" s="140"/>
+      <c r="BX43" s="140"/>
+      <c r="BY43" s="140"/>
+      <c r="BZ43" s="140"/>
+      <c r="CA43" s="140"/>
+      <c r="CB43" s="140"/>
+      <c r="CC43" s="140"/>
+      <c r="CD43" s="140"/>
+      <c r="CE43" s="141"/>
     </row>
     <row r="44" spans="2:83" s="42" customFormat="1" ht="17" customHeight="1">
-      <c r="B44" s="139">
+      <c r="B44" s="142">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="C44" s="140"/>
-      <c r="D44" s="141"/>
-      <c r="E44" s="142"/>
-      <c r="F44" s="142"/>
-      <c r="G44" s="142"/>
-      <c r="H44" s="142"/>
-      <c r="I44" s="142"/>
-      <c r="J44" s="142"/>
-      <c r="K44" s="142"/>
-      <c r="L44" s="142"/>
-      <c r="M44" s="143"/>
-      <c r="N44" s="144"/>
-      <c r="O44" s="145"/>
-      <c r="P44" s="145"/>
-      <c r="Q44" s="145"/>
-      <c r="R44" s="145"/>
-      <c r="S44" s="145"/>
-      <c r="T44" s="145"/>
-      <c r="U44" s="145"/>
-      <c r="V44" s="145"/>
-      <c r="W44" s="145"/>
-      <c r="X44" s="146"/>
-      <c r="Y44" s="144" t="s">
+      <c r="C44" s="143"/>
+      <c r="D44" s="144"/>
+      <c r="E44" s="145"/>
+      <c r="F44" s="145"/>
+      <c r="G44" s="145"/>
+      <c r="H44" s="145"/>
+      <c r="I44" s="145"/>
+      <c r="J44" s="145"/>
+      <c r="K44" s="145"/>
+      <c r="L44" s="145"/>
+      <c r="M44" s="146"/>
+      <c r="N44" s="147"/>
+      <c r="O44" s="148"/>
+      <c r="P44" s="148"/>
+      <c r="Q44" s="148"/>
+      <c r="R44" s="148"/>
+      <c r="S44" s="148"/>
+      <c r="T44" s="148"/>
+      <c r="U44" s="148"/>
+      <c r="V44" s="148"/>
+      <c r="W44" s="148"/>
+      <c r="X44" s="149"/>
+      <c r="Y44" s="147" t="s">
         <v>101</v>
       </c>
-      <c r="Z44" s="145"/>
-      <c r="AA44" s="145"/>
-      <c r="AB44" s="145"/>
-      <c r="AC44" s="145"/>
-      <c r="AD44" s="145"/>
-      <c r="AE44" s="145"/>
-      <c r="AF44" s="145"/>
-      <c r="AG44" s="145"/>
-      <c r="AH44" s="145"/>
-      <c r="AI44" s="145"/>
-      <c r="AJ44" s="145"/>
-      <c r="AK44" s="146"/>
-      <c r="AL44" s="136"/>
-      <c r="AM44" s="137"/>
-      <c r="AN44" s="137"/>
-      <c r="AO44" s="137"/>
-      <c r="AP44" s="137"/>
-      <c r="AQ44" s="137"/>
-      <c r="AR44" s="137"/>
-      <c r="AS44" s="137"/>
-      <c r="AT44" s="137"/>
-      <c r="AU44" s="137"/>
-      <c r="AV44" s="137"/>
-      <c r="AW44" s="137"/>
-      <c r="AX44" s="137"/>
-      <c r="AY44" s="137"/>
-      <c r="AZ44" s="137"/>
-      <c r="BA44" s="137"/>
-      <c r="BB44" s="137"/>
-      <c r="BC44" s="137"/>
-      <c r="BD44" s="137"/>
-      <c r="BE44" s="137"/>
-      <c r="BF44" s="137"/>
-      <c r="BG44" s="137"/>
-      <c r="BH44" s="137"/>
-      <c r="BI44" s="137"/>
-      <c r="BJ44" s="137"/>
-      <c r="BK44" s="137"/>
-      <c r="BL44" s="137"/>
-      <c r="BM44" s="137"/>
-      <c r="BN44" s="137"/>
-      <c r="BO44" s="137"/>
-      <c r="BP44" s="137"/>
-      <c r="BQ44" s="137"/>
-      <c r="BR44" s="137"/>
-      <c r="BS44" s="137"/>
-      <c r="BT44" s="137"/>
-      <c r="BU44" s="137"/>
-      <c r="BV44" s="137"/>
-      <c r="BW44" s="137"/>
-      <c r="BX44" s="137"/>
-      <c r="BY44" s="137"/>
-      <c r="BZ44" s="137"/>
-      <c r="CA44" s="137"/>
-      <c r="CB44" s="137"/>
-      <c r="CC44" s="137"/>
-      <c r="CD44" s="137"/>
-      <c r="CE44" s="138"/>
+      <c r="Z44" s="148"/>
+      <c r="AA44" s="148"/>
+      <c r="AB44" s="148"/>
+      <c r="AC44" s="148"/>
+      <c r="AD44" s="148"/>
+      <c r="AE44" s="148"/>
+      <c r="AF44" s="148"/>
+      <c r="AG44" s="148"/>
+      <c r="AH44" s="148"/>
+      <c r="AI44" s="148"/>
+      <c r="AJ44" s="148"/>
+      <c r="AK44" s="149"/>
+      <c r="AL44" s="139"/>
+      <c r="AM44" s="140"/>
+      <c r="AN44" s="140"/>
+      <c r="AO44" s="140"/>
+      <c r="AP44" s="140"/>
+      <c r="AQ44" s="140"/>
+      <c r="AR44" s="140"/>
+      <c r="AS44" s="140"/>
+      <c r="AT44" s="140"/>
+      <c r="AU44" s="140"/>
+      <c r="AV44" s="140"/>
+      <c r="AW44" s="140"/>
+      <c r="AX44" s="140"/>
+      <c r="AY44" s="140"/>
+      <c r="AZ44" s="140"/>
+      <c r="BA44" s="140"/>
+      <c r="BB44" s="140"/>
+      <c r="BC44" s="140"/>
+      <c r="BD44" s="140"/>
+      <c r="BE44" s="140"/>
+      <c r="BF44" s="140"/>
+      <c r="BG44" s="140"/>
+      <c r="BH44" s="140"/>
+      <c r="BI44" s="140"/>
+      <c r="BJ44" s="140"/>
+      <c r="BK44" s="140"/>
+      <c r="BL44" s="140"/>
+      <c r="BM44" s="140"/>
+      <c r="BN44" s="140"/>
+      <c r="BO44" s="140"/>
+      <c r="BP44" s="140"/>
+      <c r="BQ44" s="140"/>
+      <c r="BR44" s="140"/>
+      <c r="BS44" s="140"/>
+      <c r="BT44" s="140"/>
+      <c r="BU44" s="140"/>
+      <c r="BV44" s="140"/>
+      <c r="BW44" s="140"/>
+      <c r="BX44" s="140"/>
+      <c r="BY44" s="140"/>
+      <c r="BZ44" s="140"/>
+      <c r="CA44" s="140"/>
+      <c r="CB44" s="140"/>
+      <c r="CC44" s="140"/>
+      <c r="CD44" s="140"/>
+      <c r="CE44" s="141"/>
     </row>
     <row r="45" spans="2:83" s="42" customFormat="1" ht="17" customHeight="1">
-      <c r="B45" s="139">
+      <c r="B45" s="142">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="C45" s="140"/>
-      <c r="D45" s="147" t="s">
+      <c r="C45" s="143"/>
+      <c r="D45" s="150" t="s">
         <v>104</v>
       </c>
-      <c r="E45" s="148"/>
-      <c r="F45" s="148"/>
-      <c r="G45" s="148"/>
-      <c r="H45" s="148"/>
-      <c r="I45" s="148"/>
-      <c r="J45" s="148"/>
-      <c r="K45" s="148"/>
-      <c r="L45" s="148"/>
-      <c r="M45" s="149"/>
-      <c r="N45" s="144"/>
-      <c r="O45" s="145"/>
-      <c r="P45" s="145"/>
-      <c r="Q45" s="145"/>
-      <c r="R45" s="145"/>
-      <c r="S45" s="145"/>
-      <c r="T45" s="145"/>
-      <c r="U45" s="145"/>
-      <c r="V45" s="145"/>
-      <c r="W45" s="145"/>
-      <c r="X45" s="146"/>
-      <c r="Y45" s="144" t="s">
+      <c r="E45" s="151"/>
+      <c r="F45" s="151"/>
+      <c r="G45" s="151"/>
+      <c r="H45" s="151"/>
+      <c r="I45" s="151"/>
+      <c r="J45" s="151"/>
+      <c r="K45" s="151"/>
+      <c r="L45" s="151"/>
+      <c r="M45" s="152"/>
+      <c r="N45" s="147"/>
+      <c r="O45" s="148"/>
+      <c r="P45" s="148"/>
+      <c r="Q45" s="148"/>
+      <c r="R45" s="148"/>
+      <c r="S45" s="148"/>
+      <c r="T45" s="148"/>
+      <c r="U45" s="148"/>
+      <c r="V45" s="148"/>
+      <c r="W45" s="148"/>
+      <c r="X45" s="149"/>
+      <c r="Y45" s="147" t="s">
         <v>105</v>
       </c>
-      <c r="Z45" s="145"/>
-      <c r="AA45" s="145"/>
-      <c r="AB45" s="145"/>
-      <c r="AC45" s="145"/>
-      <c r="AD45" s="145"/>
-      <c r="AE45" s="145"/>
-      <c r="AF45" s="145"/>
-      <c r="AG45" s="145"/>
-      <c r="AH45" s="145"/>
-      <c r="AI45" s="145"/>
-      <c r="AJ45" s="145"/>
-      <c r="AK45" s="146"/>
-      <c r="AL45" s="136"/>
-      <c r="AM45" s="137"/>
-      <c r="AN45" s="137"/>
-      <c r="AO45" s="137"/>
-      <c r="AP45" s="137"/>
-      <c r="AQ45" s="137"/>
-      <c r="AR45" s="137"/>
-      <c r="AS45" s="137"/>
-      <c r="AT45" s="137"/>
-      <c r="AU45" s="137"/>
-      <c r="AV45" s="137"/>
-      <c r="AW45" s="137"/>
-      <c r="AX45" s="137"/>
-      <c r="AY45" s="137"/>
-      <c r="AZ45" s="137"/>
-      <c r="BA45" s="137"/>
-      <c r="BB45" s="137"/>
-      <c r="BC45" s="137"/>
-      <c r="BD45" s="137"/>
-      <c r="BE45" s="137"/>
-      <c r="BF45" s="137"/>
-      <c r="BG45" s="137"/>
-      <c r="BH45" s="137"/>
-      <c r="BI45" s="137"/>
-      <c r="BJ45" s="137"/>
-      <c r="BK45" s="137"/>
-      <c r="BL45" s="137"/>
-      <c r="BM45" s="137"/>
-      <c r="BN45" s="137"/>
-      <c r="BO45" s="137"/>
-      <c r="BP45" s="137"/>
-      <c r="BQ45" s="137"/>
-      <c r="BR45" s="137"/>
-      <c r="BS45" s="137"/>
-      <c r="BT45" s="137"/>
-      <c r="BU45" s="137"/>
-      <c r="BV45" s="137"/>
-      <c r="BW45" s="137"/>
-      <c r="BX45" s="137"/>
-      <c r="BY45" s="137"/>
-      <c r="BZ45" s="137"/>
-      <c r="CA45" s="137"/>
-      <c r="CB45" s="137"/>
-      <c r="CC45" s="137"/>
-      <c r="CD45" s="137"/>
-      <c r="CE45" s="138"/>
+      <c r="Z45" s="148"/>
+      <c r="AA45" s="148"/>
+      <c r="AB45" s="148"/>
+      <c r="AC45" s="148"/>
+      <c r="AD45" s="148"/>
+      <c r="AE45" s="148"/>
+      <c r="AF45" s="148"/>
+      <c r="AG45" s="148"/>
+      <c r="AH45" s="148"/>
+      <c r="AI45" s="148"/>
+      <c r="AJ45" s="148"/>
+      <c r="AK45" s="149"/>
+      <c r="AL45" s="139"/>
+      <c r="AM45" s="140"/>
+      <c r="AN45" s="140"/>
+      <c r="AO45" s="140"/>
+      <c r="AP45" s="140"/>
+      <c r="AQ45" s="140"/>
+      <c r="AR45" s="140"/>
+      <c r="AS45" s="140"/>
+      <c r="AT45" s="140"/>
+      <c r="AU45" s="140"/>
+      <c r="AV45" s="140"/>
+      <c r="AW45" s="140"/>
+      <c r="AX45" s="140"/>
+      <c r="AY45" s="140"/>
+      <c r="AZ45" s="140"/>
+      <c r="BA45" s="140"/>
+      <c r="BB45" s="140"/>
+      <c r="BC45" s="140"/>
+      <c r="BD45" s="140"/>
+      <c r="BE45" s="140"/>
+      <c r="BF45" s="140"/>
+      <c r="BG45" s="140"/>
+      <c r="BH45" s="140"/>
+      <c r="BI45" s="140"/>
+      <c r="BJ45" s="140"/>
+      <c r="BK45" s="140"/>
+      <c r="BL45" s="140"/>
+      <c r="BM45" s="140"/>
+      <c r="BN45" s="140"/>
+      <c r="BO45" s="140"/>
+      <c r="BP45" s="140"/>
+      <c r="BQ45" s="140"/>
+      <c r="BR45" s="140"/>
+      <c r="BS45" s="140"/>
+      <c r="BT45" s="140"/>
+      <c r="BU45" s="140"/>
+      <c r="BV45" s="140"/>
+      <c r="BW45" s="140"/>
+      <c r="BX45" s="140"/>
+      <c r="BY45" s="140"/>
+      <c r="BZ45" s="140"/>
+      <c r="CA45" s="140"/>
+      <c r="CB45" s="140"/>
+      <c r="CC45" s="140"/>
+      <c r="CD45" s="140"/>
+      <c r="CE45" s="141"/>
     </row>
     <row r="46" spans="2:83" s="42" customFormat="1" ht="17" customHeight="1">
-      <c r="B46" s="139">
+      <c r="B46" s="142">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="C46" s="140"/>
+      <c r="C46" s="143"/>
       <c r="D46" s="179"/>
       <c r="E46" s="180"/>
       <c r="F46" s="180"/>
@@ -12544,11 +12617,11 @@
       <c r="CE46" s="184"/>
     </row>
     <row r="47" spans="2:83" s="42" customFormat="1" ht="17" customHeight="1">
-      <c r="B47" s="139">
+      <c r="B47" s="142">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="C47" s="140"/>
+      <c r="C47" s="143"/>
       <c r="D47" s="176" t="s">
         <v>107</v>
       </c>
@@ -12635,11 +12708,11 @@
       <c r="CE47" s="184"/>
     </row>
     <row r="48" spans="2:83" s="42" customFormat="1" ht="17" customHeight="1">
-      <c r="B48" s="139">
+      <c r="B48" s="142">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="C48" s="140"/>
+      <c r="C48" s="143"/>
       <c r="D48" s="170"/>
       <c r="E48" s="171"/>
       <c r="F48" s="171"/>
@@ -12724,11 +12797,11 @@
       <c r="CE48" s="184"/>
     </row>
     <row r="49" spans="2:83" s="42" customFormat="1" ht="17" customHeight="1">
-      <c r="B49" s="139">
+      <c r="B49" s="142">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="C49" s="140"/>
+      <c r="C49" s="143"/>
       <c r="D49" s="170"/>
       <c r="E49" s="171"/>
       <c r="F49" s="171"/>
@@ -12813,11 +12886,11 @@
       <c r="CE49" s="184"/>
     </row>
     <row r="50" spans="2:83" s="42" customFormat="1" ht="17" customHeight="1">
-      <c r="B50" s="139">
+      <c r="B50" s="142">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="C50" s="140"/>
+      <c r="C50" s="143"/>
       <c r="D50" s="170"/>
       <c r="E50" s="171"/>
       <c r="F50" s="171"/>
@@ -12902,11 +12975,11 @@
       <c r="CE50" s="184"/>
     </row>
     <row r="51" spans="2:83" s="42" customFormat="1" ht="17" customHeight="1">
-      <c r="B51" s="139">
+      <c r="B51" s="142">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="C51" s="140"/>
+      <c r="C51" s="143"/>
       <c r="D51" s="179"/>
       <c r="E51" s="180"/>
       <c r="F51" s="180"/>
@@ -12991,11 +13064,11 @@
       <c r="CE51" s="184"/>
     </row>
     <row r="52" spans="2:83" s="42" customFormat="1" ht="17" customHeight="1">
-      <c r="B52" s="139">
+      <c r="B52" s="142">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="C52" s="140"/>
+      <c r="C52" s="143"/>
       <c r="D52" s="176" t="s">
         <v>113</v>
       </c>
@@ -13082,11 +13155,11 @@
       <c r="CE52" s="184"/>
     </row>
     <row r="53" spans="2:83" s="42" customFormat="1" ht="17" customHeight="1">
-      <c r="B53" s="139">
+      <c r="B53" s="142">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="C53" s="140"/>
+      <c r="C53" s="143"/>
       <c r="D53" s="170"/>
       <c r="E53" s="171"/>
       <c r="F53" s="171"/>
@@ -13171,11 +13244,11 @@
       <c r="CE53" s="184"/>
     </row>
     <row r="54" spans="2:83" s="42" customFormat="1" ht="17" customHeight="1">
-      <c r="B54" s="139">
+      <c r="B54" s="142">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="C54" s="140"/>
+      <c r="C54" s="143"/>
       <c r="D54" s="170"/>
       <c r="E54" s="171"/>
       <c r="F54" s="171"/>
@@ -13260,11 +13333,11 @@
       <c r="CE54" s="184"/>
     </row>
     <row r="55" spans="2:83" s="42" customFormat="1" ht="17" customHeight="1">
-      <c r="B55" s="139">
+      <c r="B55" s="142">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="C55" s="140"/>
+      <c r="C55" s="143"/>
       <c r="D55" s="179"/>
       <c r="E55" s="180"/>
       <c r="F55" s="180"/>
@@ -13349,11 +13422,11 @@
       <c r="CE55" s="184"/>
     </row>
     <row r="56" spans="2:83" s="42" customFormat="1" ht="17" customHeight="1">
-      <c r="B56" s="139">
+      <c r="B56" s="142">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="C56" s="140"/>
+      <c r="C56" s="143"/>
       <c r="D56" s="176" t="s">
         <v>118</v>
       </c>
@@ -13440,11 +13513,11 @@
       <c r="CE56" s="185"/>
     </row>
     <row r="57" spans="2:83" s="42" customFormat="1" ht="17" customHeight="1">
-      <c r="B57" s="139">
+      <c r="B57" s="142">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="C57" s="140"/>
+      <c r="C57" s="143"/>
       <c r="D57" s="170"/>
       <c r="E57" s="171"/>
       <c r="F57" s="171"/>
@@ -13529,11 +13602,11 @@
       <c r="CE57" s="185"/>
     </row>
     <row r="58" spans="2:83" s="42" customFormat="1" ht="17" customHeight="1">
-      <c r="B58" s="139">
+      <c r="B58" s="142">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="C58" s="140"/>
+      <c r="C58" s="143"/>
       <c r="D58" s="170"/>
       <c r="E58" s="171"/>
       <c r="F58" s="171"/>
@@ -13616,11 +13689,11 @@
       <c r="CE58" s="185"/>
     </row>
     <row r="59" spans="2:83" s="42" customFormat="1" ht="17" customHeight="1">
-      <c r="B59" s="139">
+      <c r="B59" s="142">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="C59" s="140"/>
+      <c r="C59" s="143"/>
       <c r="D59" s="170"/>
       <c r="E59" s="171"/>
       <c r="F59" s="171"/>
@@ -13703,11 +13776,11 @@
       <c r="CE59" s="185"/>
     </row>
     <row r="60" spans="2:83" s="42" customFormat="1" ht="17" customHeight="1">
-      <c r="B60" s="139">
+      <c r="B60" s="142">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="C60" s="140"/>
+      <c r="C60" s="143"/>
       <c r="D60" s="170"/>
       <c r="E60" s="171"/>
       <c r="F60" s="171"/>
@@ -13790,11 +13863,11 @@
       <c r="CE60" s="185"/>
     </row>
     <row r="61" spans="2:83" s="42" customFormat="1" ht="17" customHeight="1">
-      <c r="B61" s="139">
+      <c r="B61" s="142">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="C61" s="140"/>
+      <c r="C61" s="143"/>
       <c r="D61" s="179"/>
       <c r="E61" s="180"/>
       <c r="F61" s="180"/>
@@ -13877,13 +13950,13 @@
       <c r="CE61" s="185"/>
     </row>
     <row r="62" spans="2:83" s="42" customFormat="1" ht="17" customHeight="1">
-      <c r="B62" s="139">
+      <c r="B62" s="142">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="C62" s="140"/>
+      <c r="C62" s="143"/>
       <c r="D62" s="176" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E62" s="177"/>
       <c r="F62" s="177"/>
@@ -13906,7 +13979,7 @@
       <c r="W62" s="174"/>
       <c r="X62" s="175"/>
       <c r="Y62" s="173" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="Z62" s="174"/>
       <c r="AA62" s="174"/>
@@ -13968,11 +14041,11 @@
       <c r="CE62" s="185"/>
     </row>
     <row r="63" spans="2:83" s="42" customFormat="1" ht="17" customHeight="1">
-      <c r="B63" s="139">
+      <c r="B63" s="142">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="C63" s="140"/>
+      <c r="C63" s="143"/>
       <c r="D63" s="170"/>
       <c r="E63" s="171"/>
       <c r="F63" s="171"/>
@@ -13995,7 +14068,7 @@
       <c r="W63" s="174"/>
       <c r="X63" s="175"/>
       <c r="Y63" s="173" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="Z63" s="174"/>
       <c r="AA63" s="174"/>
@@ -14057,11 +14130,11 @@
       <c r="CE63" s="185"/>
     </row>
     <row r="64" spans="2:83" s="42" customFormat="1" ht="17" customHeight="1">
-      <c r="B64" s="139">
+      <c r="B64" s="142">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="C64" s="140"/>
+      <c r="C64" s="143"/>
       <c r="D64" s="170"/>
       <c r="E64" s="171"/>
       <c r="F64" s="171"/>
@@ -14084,7 +14157,7 @@
       <c r="W64" s="174"/>
       <c r="X64" s="175"/>
       <c r="Y64" s="173" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="Z64" s="174"/>
       <c r="AA64" s="174"/>
@@ -14146,11 +14219,11 @@
       <c r="CE64" s="185"/>
     </row>
     <row r="65" spans="2:83" s="42" customFormat="1" ht="17" customHeight="1">
-      <c r="B65" s="139">
+      <c r="B65" s="142">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="C65" s="140"/>
+      <c r="C65" s="143"/>
       <c r="D65" s="179"/>
       <c r="E65" s="180"/>
       <c r="F65" s="180"/>
@@ -14233,21 +14306,23 @@
       <c r="CE65" s="185"/>
     </row>
     <row r="66" spans="2:83" s="42" customFormat="1" ht="17" customHeight="1">
-      <c r="B66" s="139">
+      <c r="B66" s="142">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="C66" s="140"/>
-      <c r="D66" s="173"/>
-      <c r="E66" s="174"/>
-      <c r="F66" s="174"/>
-      <c r="G66" s="174"/>
-      <c r="H66" s="174"/>
-      <c r="I66" s="174"/>
-      <c r="J66" s="174"/>
-      <c r="K66" s="174"/>
-      <c r="L66" s="174"/>
-      <c r="M66" s="175"/>
+      <c r="C66" s="143"/>
+      <c r="D66" s="176" t="s">
+        <v>128</v>
+      </c>
+      <c r="E66" s="177"/>
+      <c r="F66" s="177"/>
+      <c r="G66" s="177"/>
+      <c r="H66" s="177"/>
+      <c r="I66" s="177"/>
+      <c r="J66" s="177"/>
+      <c r="K66" s="177"/>
+      <c r="L66" s="177"/>
+      <c r="M66" s="178"/>
       <c r="N66" s="173"/>
       <c r="O66" s="174"/>
       <c r="P66" s="174"/>
@@ -14259,7 +14334,9 @@
       <c r="V66" s="174"/>
       <c r="W66" s="174"/>
       <c r="X66" s="175"/>
-      <c r="Y66" s="173"/>
+      <c r="Y66" s="173" t="s">
+        <v>129</v>
+      </c>
       <c r="Z66" s="174"/>
       <c r="AA66" s="174"/>
       <c r="AB66" s="174"/>
@@ -14320,21 +14397,21 @@
       <c r="CE66" s="185"/>
     </row>
     <row r="67" spans="2:83" s="42" customFormat="1" ht="17" customHeight="1">
-      <c r="B67" s="139">
+      <c r="B67" s="142">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="C67" s="140"/>
-      <c r="D67" s="173"/>
-      <c r="E67" s="174"/>
-      <c r="F67" s="174"/>
-      <c r="G67" s="174"/>
-      <c r="H67" s="174"/>
-      <c r="I67" s="174"/>
-      <c r="J67" s="174"/>
-      <c r="K67" s="174"/>
-      <c r="L67" s="174"/>
-      <c r="M67" s="175"/>
+      <c r="C67" s="143"/>
+      <c r="D67" s="170"/>
+      <c r="E67" s="171"/>
+      <c r="F67" s="171"/>
+      <c r="G67" s="171"/>
+      <c r="H67" s="171"/>
+      <c r="I67" s="171"/>
+      <c r="J67" s="171"/>
+      <c r="K67" s="171"/>
+      <c r="L67" s="171"/>
+      <c r="M67" s="172"/>
       <c r="N67" s="173"/>
       <c r="O67" s="174"/>
       <c r="P67" s="174"/>
@@ -14346,7 +14423,9 @@
       <c r="V67" s="174"/>
       <c r="W67" s="174"/>
       <c r="X67" s="175"/>
-      <c r="Y67" s="173"/>
+      <c r="Y67" s="173" t="s">
+        <v>130</v>
+      </c>
       <c r="Z67" s="174"/>
       <c r="AA67" s="174"/>
       <c r="AB67" s="174"/>
@@ -14407,21 +14486,21 @@
       <c r="CE67" s="185"/>
     </row>
     <row r="68" spans="2:83" s="42" customFormat="1" ht="17" customHeight="1">
-      <c r="B68" s="139">
+      <c r="B68" s="142">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="C68" s="140"/>
-      <c r="D68" s="173"/>
-      <c r="E68" s="174"/>
-      <c r="F68" s="174"/>
-      <c r="G68" s="174"/>
-      <c r="H68" s="174"/>
-      <c r="I68" s="174"/>
-      <c r="J68" s="174"/>
-      <c r="K68" s="174"/>
-      <c r="L68" s="174"/>
-      <c r="M68" s="175"/>
+      <c r="C68" s="143"/>
+      <c r="D68" s="170"/>
+      <c r="E68" s="171"/>
+      <c r="F68" s="171"/>
+      <c r="G68" s="171"/>
+      <c r="H68" s="171"/>
+      <c r="I68" s="171"/>
+      <c r="J68" s="171"/>
+      <c r="K68" s="171"/>
+      <c r="L68" s="171"/>
+      <c r="M68" s="172"/>
       <c r="N68" s="173"/>
       <c r="O68" s="174"/>
       <c r="P68" s="174"/>
@@ -14433,7 +14512,9 @@
       <c r="V68" s="174"/>
       <c r="W68" s="174"/>
       <c r="X68" s="175"/>
-      <c r="Y68" s="173"/>
+      <c r="Y68" s="173" t="s">
+        <v>131</v>
+      </c>
       <c r="Z68" s="174"/>
       <c r="AA68" s="174"/>
       <c r="AB68" s="174"/>
@@ -14494,21 +14575,21 @@
       <c r="CE68" s="185"/>
     </row>
     <row r="69" spans="2:83" s="42" customFormat="1" ht="17" customHeight="1">
-      <c r="B69" s="139">
+      <c r="B69" s="142">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="C69" s="140"/>
-      <c r="D69" s="173"/>
-      <c r="E69" s="174"/>
-      <c r="F69" s="174"/>
-      <c r="G69" s="174"/>
-      <c r="H69" s="174"/>
-      <c r="I69" s="174"/>
-      <c r="J69" s="174"/>
-      <c r="K69" s="174"/>
-      <c r="L69" s="174"/>
-      <c r="M69" s="175"/>
+      <c r="C69" s="143"/>
+      <c r="D69" s="179"/>
+      <c r="E69" s="180"/>
+      <c r="F69" s="180"/>
+      <c r="G69" s="180"/>
+      <c r="H69" s="180"/>
+      <c r="I69" s="180"/>
+      <c r="J69" s="180"/>
+      <c r="K69" s="180"/>
+      <c r="L69" s="180"/>
+      <c r="M69" s="181"/>
       <c r="N69" s="173"/>
       <c r="O69" s="174"/>
       <c r="P69" s="174"/>
@@ -14581,21 +14662,23 @@
       <c r="CE69" s="185"/>
     </row>
     <row r="70" spans="2:83" s="42" customFormat="1" ht="17" customHeight="1">
-      <c r="B70" s="139">
+      <c r="B70" s="142">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="C70" s="140"/>
-      <c r="D70" s="173"/>
-      <c r="E70" s="174"/>
-      <c r="F70" s="174"/>
-      <c r="G70" s="174"/>
-      <c r="H70" s="174"/>
-      <c r="I70" s="174"/>
-      <c r="J70" s="174"/>
-      <c r="K70" s="174"/>
-      <c r="L70" s="174"/>
-      <c r="M70" s="175"/>
+      <c r="C70" s="143"/>
+      <c r="D70" s="176" t="s">
+        <v>132</v>
+      </c>
+      <c r="E70" s="177"/>
+      <c r="F70" s="177"/>
+      <c r="G70" s="177"/>
+      <c r="H70" s="177"/>
+      <c r="I70" s="177"/>
+      <c r="J70" s="177"/>
+      <c r="K70" s="177"/>
+      <c r="L70" s="177"/>
+      <c r="M70" s="178"/>
       <c r="N70" s="173"/>
       <c r="O70" s="174"/>
       <c r="P70" s="174"/>
@@ -14607,7 +14690,9 @@
       <c r="V70" s="174"/>
       <c r="W70" s="174"/>
       <c r="X70" s="175"/>
-      <c r="Y70" s="173"/>
+      <c r="Y70" s="173" t="s">
+        <v>138</v>
+      </c>
       <c r="Z70" s="174"/>
       <c r="AA70" s="174"/>
       <c r="AB70" s="174"/>
@@ -14668,21 +14753,21 @@
       <c r="CE70" s="185"/>
     </row>
     <row r="71" spans="2:83" s="42" customFormat="1" ht="17" customHeight="1">
-      <c r="B71" s="139">
+      <c r="B71" s="142">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="C71" s="140"/>
-      <c r="D71" s="173"/>
-      <c r="E71" s="174"/>
-      <c r="F71" s="174"/>
-      <c r="G71" s="174"/>
-      <c r="H71" s="174"/>
-      <c r="I71" s="174"/>
-      <c r="J71" s="174"/>
-      <c r="K71" s="174"/>
-      <c r="L71" s="174"/>
-      <c r="M71" s="175"/>
+      <c r="C71" s="143"/>
+      <c r="D71" s="170"/>
+      <c r="E71" s="171"/>
+      <c r="F71" s="171"/>
+      <c r="G71" s="171"/>
+      <c r="H71" s="171"/>
+      <c r="I71" s="171"/>
+      <c r="J71" s="171"/>
+      <c r="K71" s="171"/>
+      <c r="L71" s="171"/>
+      <c r="M71" s="172"/>
       <c r="N71" s="173"/>
       <c r="O71" s="174"/>
       <c r="P71" s="174"/>
@@ -14694,7 +14779,9 @@
       <c r="V71" s="174"/>
       <c r="W71" s="174"/>
       <c r="X71" s="175"/>
-      <c r="Y71" s="173"/>
+      <c r="Y71" s="173" t="s">
+        <v>137</v>
+      </c>
       <c r="Z71" s="174"/>
       <c r="AA71" s="174"/>
       <c r="AB71" s="174"/>
@@ -14755,21 +14842,21 @@
       <c r="CE71" s="185"/>
     </row>
     <row r="72" spans="2:83" s="42" customFormat="1" ht="17" customHeight="1">
-      <c r="B72" s="139">
+      <c r="B72" s="142">
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
-      <c r="C72" s="140"/>
-      <c r="D72" s="173"/>
-      <c r="E72" s="174"/>
-      <c r="F72" s="174"/>
-      <c r="G72" s="174"/>
-      <c r="H72" s="174"/>
-      <c r="I72" s="174"/>
-      <c r="J72" s="174"/>
-      <c r="K72" s="174"/>
-      <c r="L72" s="174"/>
-      <c r="M72" s="175"/>
+      <c r="C72" s="143"/>
+      <c r="D72" s="170"/>
+      <c r="E72" s="171"/>
+      <c r="F72" s="171"/>
+      <c r="G72" s="171"/>
+      <c r="H72" s="171"/>
+      <c r="I72" s="171"/>
+      <c r="J72" s="171"/>
+      <c r="K72" s="171"/>
+      <c r="L72" s="171"/>
+      <c r="M72" s="172"/>
       <c r="N72" s="173"/>
       <c r="O72" s="174"/>
       <c r="P72" s="174"/>
@@ -14781,7 +14868,9 @@
       <c r="V72" s="174"/>
       <c r="W72" s="174"/>
       <c r="X72" s="175"/>
-      <c r="Y72" s="173"/>
+      <c r="Y72" s="173" t="s">
+        <v>139</v>
+      </c>
       <c r="Z72" s="174"/>
       <c r="AA72" s="174"/>
       <c r="AB72" s="174"/>
@@ -14842,21 +14931,21 @@
       <c r="CE72" s="185"/>
     </row>
     <row r="73" spans="2:83" s="42" customFormat="1" ht="17" customHeight="1">
-      <c r="B73" s="139">
+      <c r="B73" s="142">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
-      <c r="C73" s="140"/>
-      <c r="D73" s="173"/>
-      <c r="E73" s="174"/>
-      <c r="F73" s="174"/>
-      <c r="G73" s="174"/>
-      <c r="H73" s="174"/>
-      <c r="I73" s="174"/>
-      <c r="J73" s="174"/>
-      <c r="K73" s="174"/>
-      <c r="L73" s="174"/>
-      <c r="M73" s="175"/>
+      <c r="C73" s="143"/>
+      <c r="D73" s="179"/>
+      <c r="E73" s="180"/>
+      <c r="F73" s="180"/>
+      <c r="G73" s="180"/>
+      <c r="H73" s="180"/>
+      <c r="I73" s="180"/>
+      <c r="J73" s="180"/>
+      <c r="K73" s="180"/>
+      <c r="L73" s="180"/>
+      <c r="M73" s="181"/>
       <c r="N73" s="173"/>
       <c r="O73" s="174"/>
       <c r="P73" s="174"/>
@@ -14929,11 +15018,11 @@
       <c r="CE73" s="185"/>
     </row>
     <row r="74" spans="2:83" s="42" customFormat="1" ht="17" customHeight="1">
-      <c r="B74" s="139">
+      <c r="B74" s="142">
         <f t="shared" si="0"/>
         <v>69</v>
       </c>
-      <c r="C74" s="140"/>
+      <c r="C74" s="143"/>
       <c r="D74" s="173"/>
       <c r="E74" s="174"/>
       <c r="F74" s="174"/>
@@ -15016,11 +15105,11 @@
       <c r="CE74" s="185"/>
     </row>
     <row r="75" spans="2:83" s="42" customFormat="1" ht="17" customHeight="1">
-      <c r="B75" s="139">
+      <c r="B75" s="142">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="C75" s="140"/>
+      <c r="C75" s="143"/>
       <c r="D75" s="173"/>
       <c r="E75" s="174"/>
       <c r="F75" s="174"/>
@@ -15103,11 +15192,11 @@
       <c r="CE75" s="185"/>
     </row>
     <row r="76" spans="2:83" s="42" customFormat="1" ht="17" customHeight="1">
-      <c r="B76" s="139">
+      <c r="B76" s="142">
         <f t="shared" ref="B76:B82" si="1">B75+1</f>
         <v>71</v>
       </c>
-      <c r="C76" s="140"/>
+      <c r="C76" s="143"/>
       <c r="D76" s="173"/>
       <c r="E76" s="174"/>
       <c r="F76" s="174"/>
@@ -15190,11 +15279,11 @@
       <c r="CE76" s="185"/>
     </row>
     <row r="77" spans="2:83" s="42" customFormat="1" ht="17" customHeight="1">
-      <c r="B77" s="139">
+      <c r="B77" s="142">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="C77" s="140"/>
+      <c r="C77" s="143"/>
       <c r="D77" s="173"/>
       <c r="E77" s="174"/>
       <c r="F77" s="174"/>
@@ -15277,11 +15366,11 @@
       <c r="CE77" s="185"/>
     </row>
     <row r="78" spans="2:83" s="42" customFormat="1" ht="17" customHeight="1">
-      <c r="B78" s="139">
+      <c r="B78" s="142">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
-      <c r="C78" s="140"/>
+      <c r="C78" s="143"/>
       <c r="D78" s="173"/>
       <c r="E78" s="174"/>
       <c r="F78" s="174"/>
@@ -15364,11 +15453,11 @@
       <c r="CE78" s="185"/>
     </row>
     <row r="79" spans="2:83" s="42" customFormat="1" ht="17" customHeight="1">
-      <c r="B79" s="139">
+      <c r="B79" s="142">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="C79" s="140"/>
+      <c r="C79" s="143"/>
       <c r="D79" s="173"/>
       <c r="E79" s="174"/>
       <c r="F79" s="174"/>
@@ -15451,11 +15540,11 @@
       <c r="CE79" s="185"/>
     </row>
     <row r="80" spans="2:83" s="42" customFormat="1" ht="17" customHeight="1">
-      <c r="B80" s="139">
+      <c r="B80" s="142">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="C80" s="140"/>
+      <c r="C80" s="143"/>
       <c r="D80" s="173"/>
       <c r="E80" s="174"/>
       <c r="F80" s="174"/>
@@ -15538,11 +15627,11 @@
       <c r="CE80" s="185"/>
     </row>
     <row r="81" spans="2:83" s="42" customFormat="1" ht="17" customHeight="1">
-      <c r="B81" s="139">
+      <c r="B81" s="142">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-      <c r="C81" s="140"/>
+      <c r="C81" s="143"/>
       <c r="D81" s="173"/>
       <c r="E81" s="174"/>
       <c r="F81" s="174"/>
@@ -15625,11 +15714,11 @@
       <c r="CE81" s="185"/>
     </row>
     <row r="82" spans="2:83" s="42" customFormat="1" ht="17" customHeight="1">
-      <c r="B82" s="139">
+      <c r="B82" s="142">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
-      <c r="C82" s="140"/>
+      <c r="C82" s="143"/>
       <c r="D82" s="173"/>
       <c r="E82" s="174"/>
       <c r="F82" s="174"/>
@@ -15712,11 +15801,11 @@
       <c r="CE82" s="185"/>
     </row>
     <row r="83" spans="2:83" s="42" customFormat="1" ht="17" customHeight="1">
-      <c r="B83" s="139">
-        <f t="shared" ref="B76:B83" si="2">B82+1</f>
+      <c r="B83" s="142">
+        <f t="shared" ref="B83" si="2">B82+1</f>
         <v>78</v>
       </c>
-      <c r="C83" s="140"/>
+      <c r="C83" s="143"/>
       <c r="D83" s="173"/>
       <c r="E83" s="174"/>
       <c r="F83" s="174"/>
